--- a/results/chybi_seminarici.xlsx
+++ b/results/chybi_seminarici.xlsx
@@ -748,115 +748,115 @@
     <t>KI/KAIIT, KI/KAIT, KI/KITP, KI/KUBT</t>
   </si>
   <si>
-    <t>'Chytil M. Automaty a gramatiky. SNTL, Praha, 1984. ',
-'Hopocroft J., Ulman J. Introduction to Automata Theory, Languages and Computation. Addison Wesley, 1979. ',
-'Chytil M. Teorie automatů a formálních jazyků. (Skripta), SPN Praha, 1978. ',
-'Meduna A. Automata and Languages. Springer, 2000. ',
-'Hopocroft J., Ulman J. Formálne jazyky a automaty. ALFA Bratislava, 1978. ',
+    <t>'Chytil M. Automaty a gramatiky. SNTL, Praha, 1984. ',_x000D_
+'Hopocroft J., Ulman J. Introduction to Automata Theory, Languages and Computation. Addison Wesley, 1979. ',_x000D_
+'Chytil M. Teorie automatů a formálních jazyků. (Skripta), SPN Praha, 1978. ',_x000D_
+'Meduna A. Automata and Languages. Springer, 2000. ',_x000D_
+'Hopocroft J., Ulman J. Formálne jazyky a automaty. ALFA Bratislava, 1978. ',_x000D_
 'Kolář J., Štěpánková O., Chytil M. Logika, algebry a grafy. SNTL Praha, 1989. '</t>
   </si>
   <si>
-    <t>'https://github.com/jakevdp/WhirlwindTourOfPython',
-'Pilgrim, M. Ponořme se do Python(u) 3. Praha, 2010. ISBN 978-80-904248-2-1.',
-'http://howto.py.cz/index.htm',
-'Hetland, M.L. Python Algorithms: Mastering Basic Algorithms in the Python Language. Apress Media, New York City, 2014. ISBN 978-1-4842-0.',
+    <t>'https://github.com/jakevdp/WhirlwindTourOfPython',_x000D_
+'Pilgrim, M. Ponořme se do Python(u) 3. Praha, 2010. ISBN 978-80-904248-2-1.',_x000D_
+'http://howto.py.cz/index.htm',_x000D_
+'Hetland, M.L. Python Algorithms: Mastering Basic Algorithms in the Python Language. Apress Media, New York City, 2014. ISBN 978-1-4842-0.',_x000D_
 'Summerfield, M. Python 3: výukový kurz. Computer Press, Brno, 2010. ISBN 978-80-251-2737-7.'</t>
   </si>
   <si>
-    <t>'https://github.com/jakevdp/WhirlwindTourOfPython',
-'http://diveintopython3.py.cz/index.html',
-'http://howto.py.cz/index.htm',
-'Hetland, M.L. Python Algorithms: Mastering Basic Algorithms in the Python Language. Apress Media, New York City, 2014. ISBN 978-1-4842-0055-1.',
+    <t>'https://github.com/jakevdp/WhirlwindTourOfPython',_x000D_
+'http://diveintopython3.py.cz/index.html',_x000D_
+'http://howto.py.cz/index.htm',_x000D_
+'Hetland, M.L. Python Algorithms: Mastering Basic Algorithms in the Python Language. Apress Media, New York City, 2014. ISBN 978-1-4842-0055-1.',_x000D_
 'Summerfield, M. Python 3: výukový kurz. Computer Press, Brno, 2010. ISBN 978-80-251-2737-7.'</t>
   </si>
   <si>
-    <t>'Gook M. Hardwarová rozhraní: průvodce programátora. Computer Press, Brno, 2006. Computer Press, Brno, 2006. ISBN 80-251-1019-2.',
-'Malý, M. Hradla, volty, jednočipy - Úvod do bastlení. Praha, CZ.NIC, z.s.p.o., 2017. CZ.NIC, 2018. ISBN 978-1593276126.',
-'Frištacký,N., Kolesár,M., Kolenička, J., Hlavatý,J. Logické systémy, Bratislava, Alfa Bratislava, 1986. ',
-'Kaprálik, P., Galanová, J., Polakovič, M. Logické systémy. STU, 2007. ',
-'Pirogov V. Mistrovství v jazyce Assembler. Computer Press, 2005. Computer Press, 2005. ISBN 80-251-0888-0.',
-'Miroslav Virius. Od C k C++. Kopp, České Budějovice, 2000. 2000. ',
-'Bernard J. M., Hugon L., Covec J. H. Od logických obvodů k mikroprocesorům. Díl I, II, III a IV. SNTL, 1984. ',
-'VODA, Zbyšek. Průvodce světem Arduina. Bučovice, Martin Stříž, 2017. Vydání druhé. Bučovice: Martin Stříž, 2017. ISBN 978-80-87106-93-8.',
-'Herout P. Učebnice jazyka C. KOPP, České Budějovice, 2000. ISBN 978-80-7232-351-7.',
-'Margolis M. Arduino Cookbook. O´Reilly, 2011. O Reilly, 2011. ISBN 978-1-4493-0310-5.',
-'Bokr, J. Logické objekty a řízení I. Plzeň: ZČU, 1992. ',
-'Bayer, J., Hanzálek, Z., Šusta, R. Logické systémy pro řízení. ČVUT, Praha 2000. ',
-'Douša J., Jáneš V. Teorie automatů. ČVUT. Praha 1988. ',
+    <t>'Gook M. Hardwarová rozhraní: průvodce programátora. Computer Press, Brno, 2006. Computer Press, Brno, 2006. ISBN 80-251-1019-2.',_x000D_
+'Malý, M. Hradla, volty, jednočipy - Úvod do bastlení. Praha, CZ.NIC, z.s.p.o., 2017. CZ.NIC, 2018. ISBN 978-1593276126.',_x000D_
+'Frištacký,N., Kolesár,M., Kolenička, J., Hlavatý,J. Logické systémy, Bratislava, Alfa Bratislava, 1986. ',_x000D_
+'Kaprálik, P., Galanová, J., Polakovič, M. Logické systémy. STU, 2007. ',_x000D_
+'Pirogov V. Mistrovství v jazyce Assembler. Computer Press, 2005. Computer Press, 2005. ISBN 80-251-0888-0.',_x000D_
+'Miroslav Virius. Od C k C++. Kopp, České Budějovice, 2000. 2000. ',_x000D_
+'Bernard J. M., Hugon L., Covec J. H. Od logických obvodů k mikroprocesorům. Díl I, II, III a IV. SNTL, 1984. ',_x000D_
+'VODA, Zbyšek. Průvodce světem Arduina. Bučovice, Martin Stříž, 2017. Vydání druhé. Bučovice: Martin Stříž, 2017. ISBN 978-80-87106-93-8.',_x000D_
+'Herout P. Učebnice jazyka C. KOPP, České Budějovice, 2000. ISBN 978-80-7232-351-7.',_x000D_
+'Margolis M. Arduino Cookbook. O´Reilly, 2011. O Reilly, 2011. ISBN 978-1-4493-0310-5.',_x000D_
+'Bokr, J. Logické objekty a řízení I. Plzeň: ZČU, 1992. ',_x000D_
+'Bayer, J., Hanzálek, Z., Šusta, R. Logické systémy pro řízení. ČVUT, Praha 2000. ',_x000D_
+'Douša J., Jáneš V. Teorie automatů. ČVUT. Praha 1988. ',_x000D_
 'Vacek V. Učebnice programování Atmel s jádrem 8051. BEN- Technická literatura, Praha, 2001. BEN-Technická literatura, Praha, 2001. ISBN 80-7300-043-1.'</t>
   </si>
   <si>
-    <t>'Kurose, J. F., Ross, K. W. Computer Networking: A Top-Down Approach. Pearson, 2017, 856 s., ISBN 978-0-13-359414-0. ',
-'Naik D. C. Internet: standardy a protokoly. Computer Press, Brno, 1999. ',
-'Dostálek L., Kabelová A. Velký průvodce protokoly TCP/IP a systémem DNS. null. Computer Press, 2003. ISBN null.',
-'Sanders C. Analýza sítí a řešení problémů v programu Wireshark. Computer Press, 2012. ISBN 978-80-251-3718-5.',
-'Donahue, G. A. Kompletní průvodce síťového experta. Computer Press, 2009, 528 s., ISBN 978-80-251-2247-1. ',
-'Horák J., Keršláger M. Počítačové sítě pro začínající správce, Computer Press. ',
+    <t>'Kurose, J. F., Ross, K. W. Computer Networking: A Top-Down Approach. Pearson, 2017, 856 s., ISBN 978-0-13-359414-0. ',_x000D_
+'Naik D. C. Internet: standardy a protokoly. Computer Press, Brno, 1999. ',_x000D_
+'Dostálek L., Kabelová A. Velký průvodce protokoly TCP/IP a systémem DNS. null. Computer Press, 2003. ISBN null.',_x000D_
+'Sanders C. Analýza sítí a řešení problémů v programu Wireshark. Computer Press, 2012. ISBN 978-80-251-3718-5.',_x000D_
+'Donahue, G. A. Kompletní průvodce síťového experta. Computer Press, 2009, 528 s., ISBN 978-80-251-2247-1. ',_x000D_
+'Horák J., Keršláger M. Počítačové sítě pro začínající správce, Computer Press. ',_x000D_
 'Klement, M. Technologie počítačových sítí - služby DNS, DHCP a síťové prvky. UPOL, 2020, 42 s., ISBN 978-80-244-5582-2. '</t>
   </si>
   <si>
-    <t>'Oficiální dokumentace RED HAT Enterprise Linux a red hat Cluster Suite. ',
+    <t>'Oficiální dokumentace RED HAT Enterprise Linux a red hat Cluster Suite. ',_x000D_
 'Oficiální dokumentace Sophos UTM. '</t>
   </si>
   <si>
-    <t>'https://osf.cz/programy/ziva-demokracie/nas-stat-nase-data/',
-'http://data.ctu.cz/',
-'https://opendata.gov.cz/',
+    <t>'https://osf.cz/programy/ziva-demokracie/nas-stat-nase-data/',_x000D_
+'http://data.ctu.cz/',_x000D_
+'https://opendata.gov.cz/',_x000D_
 'Open Data. Pracovní sešit. Institut pro veřejnou správu Praha. '</t>
   </si>
   <si>
-    <t>'Bishopová, J. C# návrhové vzory. Zoner Press 2010. ISBN 8074130762. ',
-'Albahari, J., Albahari, B. C# 4.0 in a Nutshell. Beijing: O Reilly, 2010. ISBN 978-0-596-80095-6. ',
-'Gamma, E., Helm, R., Johnson, R., Vlissides, J. Návrh programů pomocí vzorů: Stavební kameny objektově orientovaných programů. Grada 2003. ISBN 8024703025. ',
-'Pecinovský, R. Návrhové vzory. Computer Press, Albatros Media a.s., 2017. ISBN 8025145107. ',
+    <t>'Bishopová, J. C# návrhové vzory. Zoner Press 2010. ISBN 8074130762. ',_x000D_
+'Albahari, J., Albahari, B. C# 4.0 in a Nutshell. Beijing: O Reilly, 2010. ISBN 978-0-596-80095-6. ',_x000D_
+'Gamma, E., Helm, R., Johnson, R., Vlissides, J. Návrh programů pomocí vzorů: Stavební kameny objektově orientovaných programů. Grada 2003. ISBN 8024703025. ',_x000D_
+'Pecinovský, R. Návrhové vzory. Computer Press, Albatros Media a.s., 2017. ISBN 8025145107. ',_x000D_
 'Gamma, E., Helm, R., Johnson, R., Vlissides, J. Design Patterns: Elements of Reusable Object-Oriented Software. Addison-Wesley: 1995. ISBN 0201633612. '</t>
   </si>
   <si>
-    <t>'Shah S., Soyinka W. Administrace systému Linux. Grada Publishing, Praha, 2007. ISBN 978-80-247-1694-7.',
-'Jones D. Automatizace správy a skriptování Microsoft Windows. Computer Press, Brno, 2006. ISBN 80-251-1261-6.',
-'http://jf.cz/skripta/linux.pdf',
-'Petrlík L. Jemný úvod do systému UNIX. Kopp, České Budějovice, 2000. ISBN 80-85828-28-6.',
-'Stones R., Matthew N. Linux: začínáme programovat. Computer Press, Praha, 2000. ISBN 80-7226-307-2.',
+    <t>'Shah S., Soyinka W. Administrace systému Linux. Grada Publishing, Praha, 2007. ISBN 978-80-247-1694-7.',_x000D_
+'Jones D. Automatizace správy a skriptování Microsoft Windows. Computer Press, Brno, 2006. ISBN 80-251-1261-6.',_x000D_
+'http://jf.cz/skripta/linux.pdf',_x000D_
+'Petrlík L. Jemný úvod do systému UNIX. Kopp, České Budějovice, 2000. ISBN 80-85828-28-6.',_x000D_
+'Stones R., Matthew N. Linux: začínáme programovat. Computer Press, Praha, 2000. ISBN 80-7226-307-2.',_x000D_
 'Sobell M. G. Mistrovství v Linuxu: příkazový řádek, shell, programování. Computer Press, Brno, 2007. ISBN 978-80-251-1726-2.'</t>
   </si>
   <si>
-    <t>'Horák J. Hardware. Computer Press, Praha, 2009. ',
-'Meyer M. Osobní počítač. Computer Press, Praha, 2006. ISBN 9788025108345.',
-'Winkler P. Velký počítačový lexikon. Computer Press, Praha, 2005. EAN 9788025123317. ',
-'Horák J. BIOS a Setup. Computer Press, Praha, 2010. ',
-'Broža P. Instalujeme a konfigurujeme počítač. CP Books. 2005. ',
+    <t>'Horák J. Hardware. Computer Press, Praha, 2009. ',_x000D_
+'Meyer M. Osobní počítač. Computer Press, Praha, 2006. ISBN 9788025108345.',_x000D_
+'Winkler P. Velký počítačový lexikon. Computer Press, Praha, 2005. EAN 9788025123317. ',_x000D_
+'Horák J. BIOS a Setup. Computer Press, Praha, 2010. ',_x000D_
+'Broža P. Instalujeme a konfigurujeme počítač. CP Books. 2005. ',_x000D_
 'DEMBOWSKI K. Mistrovství v Hardware. Computer Press, Praha, 2009. '</t>
   </si>
   <si>
-    <t>'Welling, L. PHP a MySQL. Computer Press, 2017, 800 stran. ISBN: 9788025148921. ',
-'Sklar, D. PHP 7, Zoner Press, 2018, 368 stran. ISBN: 978-80-7413-363-3. ',
-'Herout, P. XSLT 2.0 a SVG prakticky- Xpath 2.0 a Java. Ebook, 2010. ',
-'HTML 5 Black Book, Covers CSS 3, JavaScript, XML, xHTML, AJAX, PHP and Jquery. Dreamtech Press, eBook, 77472 KB, 2016. ',
-'Lopez, A. Learning PHP 7. Packt Publishing, 2016. ISBN: 9781785880544. ',
-'Robbins, J. N. Learning Web Design. O Reilly Media, 2018, 808 pages. ',
-'Martin, M. G. PHP: Advanced Detailed Approach to Master PHP Programming Language for Web Development. 2019, 83 pages. ',
+    <t>'Welling, L. PHP a MySQL. Computer Press, 2017, 800 stran. ISBN: 9788025148921. ',_x000D_
+'Sklar, D. PHP 7, Zoner Press, 2018, 368 stran. ISBN: 978-80-7413-363-3. ',_x000D_
+'Herout, P. XSLT 2.0 a SVG prakticky- Xpath 2.0 a Java. Ebook, 2010. ',_x000D_
+'HTML 5 Black Book, Covers CSS 3, JavaScript, XML, xHTML, AJAX, PHP and Jquery. Dreamtech Press, eBook, 77472 KB, 2016. ',_x000D_
+'Lopez, A. Learning PHP 7. Packt Publishing, 2016. ISBN: 9781785880544. ',_x000D_
+'Robbins, J. N. Learning Web Design. O Reilly Media, 2018, 808 pages. ',_x000D_
+'Martin, M. G. PHP: Advanced Detailed Approach to Master PHP Programming Language for Web Development. 2019, 83 pages. ',_x000D_
 'Phang, C. L. Web Coding Bible. 2015, 474 pages. '</t>
   </si>
   <si>
-    <t>'POKORNÝ, J., Valenta M. Databázové systémy, ČVUT, Praha, 2013. ',
-'Šimonová, S., Panuš, J. Databázové systémy, Univerzita Pardubice, 2006. Univerzita Pardubice, 2006. ISBN 80-7194-845-4.',
-'PostgreSQL documentation. ',
-'Auer, D. J., Kroenke, D. M. Databáze, Computer Press, Brno, 2015. Computer Press, 2015. ISBN 978-80-251-4352-0.',
-'Hernandez, M. J., Viescas, J. L. Myslíme v jazyku SQL: Tvorba dotazů, Grada Publishing, Praha, 2005. Grada Publishing, Praha, 2005. ISBN 80-247-0899-X.',
-'HERNANDEZ, M. J. Návrh databází, Grada Publishing, Praha, 2006. ',
+    <t>'POKORNÝ, J., Valenta M. Databázové systémy, ČVUT, Praha, 2013. ',_x000D_
+'Šimonová, S., Panuš, J. Databázové systémy, Univerzita Pardubice, 2006. Univerzita Pardubice, 2006. ISBN 80-7194-845-4.',_x000D_
+'PostgreSQL documentation. ',_x000D_
+'Auer, D. J., Kroenke, D. M. Databáze, Computer Press, Brno, 2015. Computer Press, 2015. ISBN 978-80-251-4352-0.',_x000D_
+'Hernandez, M. J., Viescas, J. L. Myslíme v jazyku SQL: Tvorba dotazů, Grada Publishing, Praha, 2005. Grada Publishing, Praha, 2005. ISBN 80-247-0899-X.',_x000D_
+'HERNANDEZ, M. J. Návrh databází, Grada Publishing, Praha, 2006. ',_x000D_
 'Sheldon, R. SQL: začínáme programovat, Grada Publishing, Praha, 2005. Grada Publishing, Praha, 2005. ISBN 80-247-0999-6.'</t>
   </si>
   <si>
-    <t>'Demel, J. Grafy a jejich aplikace. 2019. ',
-'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',
-'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',
-'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',
-'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',
-'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',
+    <t>'Demel, J. Grafy a jejich aplikace. 2019. ',_x000D_
+'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',_x000D_
+'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',_x000D_
+'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',_x000D_
+'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',_x000D_
+'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',_x000D_
 'Meyer, A., Chlipala, A. 6.042J Mathematics for Computer Science. Massachusetts Institute of Technology: MIT OpenCourseWare, 2015. '</t>
   </si>
   <si>
-    <t>'Šípal, J. Automatizace v praktických příkladech: studijní text pro prezenční a kombinované studium. Ústí nad Labem: Univerzita J. E. Purkyně v Ústí nad Labem, 2012. Skripta. ISBN 978-80-7414-455-4. ',
+    <t>'Šípal, J. Automatizace v praktických příkladech: studijní text pro prezenční a kombinované studium. Ústí nad Labem: Univerzita J. E. Purkyně v Ústí nad Labem, 2012. Skripta. ISBN 978-80-7414-455-4. ',_x000D_
 'Garzinová, R., Jančíková, Z., Zimný, O. Základy automatizace technologických procesů v teorii. Ostrava: VŠB-TUO, 2013. '</t>
   </si>
   <si>
@@ -869,7 +869,8 @@
     <t>HOD/TYD</t>
   </si>
   <si>
-    <t xml:space="preserve">V tomto předmětu se studenti seznámí s teoretickými základy konečných automatů, gramatik a zásobníkových automatů. Důraz je kladen na propojení matematické teorie s praktickou realizací a využití dané teorie v současných technologiích. 
+    <t xml:space="preserve">V tomto předmětu se studenti seznámí s teoretickými základy konečných automatů, gramatik a zásobníkových automatů. Důraz je kladen na propojení matematické teorie s praktickou realizací a využití dané teorie v současných technologiích. _x000D_
+_x000D_
 </t>
   </si>
   <si>
@@ -882,7 +883,7 @@
     <t>Student se v rámci předmětu seznámí s návrhem sekvenčních logických obvodů. Sekvenční obvody budou navrhovány jak pomocí asynchronních, tak pomocí synchronních metod. Studenti dále získají základní poznatky z teorie konečných automatů a jejich aplikace v oblasti sekvenčních sítí. Poté se seznámí se základní architekturou programovatelných součástek.</t>
   </si>
   <si>
-    <t>Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti
+    <t>Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti_x000D_
 se seznámí s moderními nástroji pro její zajištění.</t>
   </si>
   <si>
@@ -895,9 +896,9 @@
     <t>Praktický seminář zaměřený na získávání, zpracování a prezentaci otevřených dat (informace a data zveřejněná na internetu, která jsou úplná, snadno dostupná, strojově čitelná, používající standardy s volně dostupnou specifikací, zpřístupněná za jasně definovaných podmínek užití dat s minimem omezení).</t>
   </si>
   <si>
-    <t>Kurz prohlubuje praktické dovednosti programátora prostřednictvím využití klasických objektově orientovaných
-návrhových vzorů v OOP jazyce se statickým typováním. Kurz začíná úvodním popisem příslušného jazyka z pohledu
-typového systému a mechanismu řízeného polymorfismu. Jádrem je pak popis klíčových klasických návrhových vzorů
+    <t>Kurz prohlubuje praktické dovednosti programátora prostřednictvím využití klasických objektově orientovaných_x000D_
+návrhových vzorů v OOP jazyce se statickým typováním. Kurz začíná úvodním popisem příslušného jazyka z pohledu_x000D_
+typového systému a mechanismu řízeného polymorfismu. Jádrem je pak popis klíčových klasických návrhových vzorů_x000D_
 (GoF) a jejich implementace ve zvoleném programovacím jazyce (typicky C#).</t>
   </si>
   <si>
@@ -910,30 +911,30 @@
     <t>Předmět se věnuje využití paralelismu včetně high performance computing. Kromě nezbytných teoretických východisek je zaměřen na využití existujících nástrojů a knihoven na platformě Python. Předmět pokrývá oba základní přístupy k paralelismu: systémy s předáváním zpráv (modul multiprocessing, klasické MPI) a systémy nad sdílenou pamětí (založená na OpenMPI a CUDA). Klíčovou částí předmětu jsou cvičení, v nichž si studenti mohou paralelní programování vyzkoušet nejen na desktopových počítačích a noteboocích s více jádry, ale také na výpočetním clusteru fakulty a na specializovaném hardwaru (aktuálně Nvidia Jetson Nano). Na rychlý vývoj v této oblasti by měly reagovat přednášky a cvičení věnované moderním trendům zařazené na konci předmětu</t>
   </si>
   <si>
-    <t>Tento předmět je uceleným kurzem počítačového hardwaru. Studenti se seznámí s principy a technologiemi jednotlivých
-konstrukčních prvků počítačů architektury IBM PC. Budou probrány jednotlivé subsystémy počítače se zaměřením na
-moderní trendy, základní i rozšiřující komponenty počítače včetně V/V zařízeních s ohledem na očekávaný vývoj
-problematiky. Předmět je postaven tak, aby posluchači měli po teoretické přednášce možnost prakticky se seznámit
-s jednotlivými komponentami PC v rámci samostatné práce v laboratorních praktikách.
-Úkolem praktika je seznámit se především s hardwarem počítače typu IBM PC a jeho příslušenstvím formou řešení
-laboratorních úloh. Výuka probíhá v laboratořích v menších skupinách a slouží k procvičení znalostí získaných
-v přednášce. Hlavní náplní je stavba několika typů počítače, jejich konfigurace, instalace základního softwaru a řešení
-případných problémů hardwarového či softwarového typu. Studenti si vyzkouší diagnostiku a základní měření
+    <t>Tento předmět je uceleným kurzem počítačového hardwaru. Studenti se seznámí s principy a technologiemi jednotlivých_x000D_
+konstrukčních prvků počítačů architektury IBM PC. Budou probrány jednotlivé subsystémy počítače se zaměřením na_x000D_
+moderní trendy, základní i rozšiřující komponenty počítače včetně V/V zařízeních s ohledem na očekávaný vývoj_x000D_
+problematiky. Předmět je postaven tak, aby posluchači měli po teoretické přednášce možnost prakticky se seznámit_x000D_
+s jednotlivými komponentami PC v rámci samostatné práce v laboratorních praktikách._x000D_
+Úkolem praktika je seznámit se především s hardwarem počítače typu IBM PC a jeho příslušenstvím formou řešení_x000D_
+laboratorních úloh. Výuka probíhá v laboratořích v menších skupinách a slouží k procvičení znalostí získaných_x000D_
+v přednášce. Hlavní náplní je stavba několika typů počítače, jejich konfigurace, instalace základního softwaru a řešení_x000D_
+případných problémů hardwarového či softwarového typu. Studenti si vyzkouší diagnostiku a základní měření_x000D_
 elektrických veličin.</t>
   </si>
   <si>
     <t>Tento předmět nabízí studentům ucelený přehled metod numerické matematiky. Předmět dále rozvíjí znalosti a dovednosti z oblasti numerických metod, které by měli studenti získat v bakalářském studiu. Poskytuje hlubší vhled do problematiky a akcentuje metody numerické lineární algebry jakožto nástroje pro datovou analýzu a strojové učení. Studenti si osvojí jak teoretické znalosti, tak i praktické aplikace v rámci cvičení za použití volně dostupných knihoven pro Python a R.</t>
   </si>
   <si>
-    <t>Kurz dává studentům teoretické znalosti XML technologii a praktické zkušenosti práce s XML soubory. V kurzu se uvažuje návrh webových aplikací (včetně aplikací pracujících s databázemi). V průběhu kurzu bude vytvořeno a zpracováno několik souborů XML. Uvažují se otázky extrakce informací z obsahu XML a její zobrazení na webových stránkách (s použitím css, xslt, js a php). V průběhu kurzu budou vytvořeny webové aplikace, jejichž návrh zahrnuje také témata jako AJAX a práce s XML soubory, cookies a sezení, objektově orientované programování, grafiku, práce
+    <t>Kurz dává studentům teoretické znalosti XML technologii a praktické zkušenosti práce s XML soubory. V kurzu se uvažuje návrh webových aplikací (včetně aplikací pracujících s databázemi). V průběhu kurzu bude vytvořeno a zpracováno několik souborů XML. Uvažují se otázky extrakce informací z obsahu XML a její zobrazení na webových stránkách (s použitím css, xslt, js a php). V průběhu kurzu budou vytvořeny webové aplikace, jejichž návrh zahrnuje také témata jako AJAX a práce s XML soubory, cookies a sezení, objektově orientované programování, grafiku, práce_x000D_
 s databázemi.</t>
   </si>
   <si>
     <t>V předmětu studenti prakticky rozvinou základní dovednosti v programovacích jazycích Python a R v oblastech stěžejních pro datové inženýry a vědce. Různé metody a techniky zpracování, analýzy a vizualizace dat si studenti osvojí ryze prakticky na vzorových řešeních, tj. na aplikační a interpretační úrovni, bez nutnosti hlubších znalostí principů těchto metod a technik, které by měli nabýt v předchozím, případně dalším studiu. Výraznou součástí výuky je práce studentů ve skupinách na řešení případových studií ("inspirovaných daty") menšího rozsahu, jejich prezentace a vzájemné kritické zhodnocení. Zdrojem dat a inspirací jsou platformy typu kaggle.com. Ve výuce se uplatní materiály výukových platforem jako je datacamp.com, které jsou jinak doporučeny zejména k samostudiu a získání certifikátů</t>
   </si>
   <si>
-    <t>Kurz navazuje na kurz Úvodu do relačních databází, který rozšiřuje v několika směrech: optimalizace SQL dotazů
-s využitím znalostí interní representace, administrace klient-server databázových systémů (PostgreSQL, Oracle),
+    <t>Kurz navazuje na kurz Úvodu do relačních databází, který rozšiřuje v několika směrech: optimalizace SQL dotazů_x000D_
+s využitím znalostí interní representace, administrace klient-server databázových systémů (PostgreSQL, Oracle),_x000D_
 a programování na straně serveru i klienta.</t>
   </si>
   <si>
@@ -943,31 +944,31 @@
     <t>Předmět je zaměřen na počítačové simulace využitelné v široké oblasti od ekonomických a dopravních problémů po simulace biologických či chemických dějů. Přednášky jsou zaměřeny na prezentaci existujících nástrojů včetně ukázek použití. V rámci cvičení jsou navrhovány jednoduché modely dynamických systémů, které jsou implementovány na příslušných simulačních platformách, a výsledky simulací jsou vizualizovány a analyzovány.</t>
   </si>
   <si>
-    <t>Kurz je koncipován jako úvodní kurz, který má prezentovat vybrané partie z diskrétní matematiky a teorie grafů
+    <t>Kurz je koncipován jako úvodní kurz, který má prezentovat vybrané partie z diskrétní matematiky a teorie grafů_x000D_
 s ohledem na potřeby v dalších oblastech informatiky, jako je algoritmizace, kódování a šifrování, či optimalizace.</t>
   </si>
   <si>
-    <t>Předmět prakticky uvádí do návrhu a základní implementace relačních databází. Studenti se seznámí s konceptuálním
-a logickým návrhem relačních databází (včetně representací relačních vztahů) a se základy SQL (standard ISO SQL-92).
+    <t>Předmět prakticky uvádí do návrhu a základní implementace relačních databází. Studenti se seznámí s konceptuálním_x000D_
+a logickým návrhem relačních databází (včetně representací relačních vztahů) a se základy SQL (standard ISO SQL-92)._x000D_
 V rámci cvičení se studenti zaměří na tvorbu konceptuálních návrhů vzorových příkladů databází.</t>
   </si>
   <si>
-    <t>V analogové části předmětu se studenti seznámí se základy elektroniky, řešením elektrických obvodů a připraví se na
-pochopení aktivních prvků v elektronice. Navazující část věnovaná logickým obvodům je zaměřena na pochopení
-základních vztahů logických systémů a na aplikaci diskrétní matematiky. Student se v ní seznámí s návrhem
+    <t>V analogové části předmětu se studenti seznámí se základy elektroniky, řešením elektrických obvodů a připraví se na_x000D_
+pochopení aktivních prvků v elektronice. Navazující část věnovaná logickým obvodům je zaměřena na pochopení_x000D_
+základních vztahů logických systémů a na aplikaci diskrétní matematiky. Student se v ní seznámí s návrhem_x000D_
 kombinačních obvodů. Ke každé části přísluší samostatná tříhodinová laboratorní praktika.</t>
   </si>
   <si>
-    <t>Předmět je zaměřen na získání základních znalostí z oblasti kyberbezpečnosti. Studenti se tak seznámí se základními
-pojmy z oblasti klasické i moderní kryptologie, stejně jako se základními principy zabezpečení dat. Nebude chybět ani
-analýza hrozeb a rizik současných informačních systémů. Tyto základní kompetence budou následně využity v dalších
+    <t>Předmět je zaměřen na získání základních znalostí z oblasti kyberbezpečnosti. Studenti se tak seznámí se základními_x000D_
+pojmy z oblasti klasické i moderní kryptologie, stejně jako se základními principy zabezpečení dat. Nebude chybět ani_x000D_
+analýza hrozeb a rizik současných informačních systémů. Tyto základní kompetence budou následně využity v dalších_x000D_
 předmětech.</t>
   </si>
   <si>
-    <t>Předmět je koncipován jako základní úvod do počítačových kabelových i bezdrátových sítí. Důraz je kladen na zásadní
-pojmy a přehled jednotlivých typů sítí. Student se seznámí se základní infrastrukturou počítačových sítí a používanými
-přístupovými metodami k médiu. V rámci předmětu jsou dále probrány modely počítačových sítí i obecné základy
-síťové komunikace v oblasti směrování, směrovacích metod a vybraných protokolů. Laboratorní praktika budou
+    <t>Předmět je koncipován jako základní úvod do počítačových kabelových i bezdrátových sítí. Důraz je kladen na zásadní_x000D_
+pojmy a přehled jednotlivých typů sítí. Student se seznámí se základní infrastrukturou počítačových sítí a používanými_x000D_
+přístupovými metodami k médiu. V rámci předmětu jsou dále probrány modely počítačových sítí i obecné základy_x000D_
+síťové komunikace v oblasti směrování, směrovacích metod a vybraných protokolů. Laboratorní praktika budou_x000D_
 zaměřena na konfigurace sítí a jejich monitoring pro malé a střední podniky, resp. veřejnou správu.</t>
   </si>
   <si>
@@ -999,26 +1000,27 @@
     <t>Podmínkou získání zápočtu je zpracování seminární práce zadané cvičícím a obhajoba seminární práce zadané zkoušejícím. Zkouška bude ústní.</t>
   </si>
   <si>
-    <t>Zápočet: semestrální projekt
+    <t>Zápočet: semestrální projekt_x000D_
 Zkouška: ústní</t>
   </si>
   <si>
-    <t>1. tvořivá práce ve skupině
-2. vytvoření skupinového semestrálního projektu
+    <t>1. tvořivá práce ve skupině_x000D_
+2. vytvoření skupinového semestrálního projektu_x000D_
 3. prezentace výsledků řešení projektu před ostatními skupinami</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: laboratorní úloha
-Zkouška: ústní
+    <t xml:space="preserve">Zápočet: laboratorní úloha_x000D_
+Zkouška: ústní_x000D_
 </t>
   </si>
   <si>
     <t>Zápočet: laboratorní úloha</t>
   </si>
   <si>
-    <t>Aktivní účast na výuce min. 80%.
-Zkouška:
-Část 1: Vyřešení zkouškové laboratorní úlohy
+    <t>Aktivní účast na výuce min. 80%._x000D_
+_x000D_
+Zkouška:_x000D_
+Část 1: Vyřešení zkouškové laboratorní úlohy_x000D_
 Část 2: Ústní zkouška z oblasti počítačových sítí</t>
   </si>
   <si>
@@ -1034,45 +1036,46 @@
     <t>Zápočet je udělen za komplexnější praktickou práci: sada skriptů zaměřených na softwarové zpracování souborů a transformace textových dat. Předpokladem je zvládnutí práce s bashem, správa uživatelských práv a procesů.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce
-Zkouška: ústní, zaměřená na ověření teoretických znalostí
+    <t xml:space="preserve">Zápočet: seminární práce_x000D_
+Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce (implementace paralelní verze netriviálního algoritmu za použití CPU a GPU)
-Zkouška: ústní (diskuse nad seminární prací a ověření obecných faktických znalostí)
+    <t xml:space="preserve">Zápočet: seminární práce (implementace paralelní verze netriviálního algoritmu za použití CPU a GPU)_x000D_
+_x000D_
+Zkouška: ústní (diskuse nad seminární prací a ověření obecných faktických znalostí)_x000D_
 </t>
   </si>
   <si>
-    <t>Zápočet: aktivní účast na cvičení a laboratořích, odevzdání protokolů z měření
+    <t>Zápočet: aktivní účast na cvičení a laboratořích, odevzdání protokolů z měření_x000D_
 Zkouška: písemný test, po jeho splnění následuje ústní část zkoušky (ověření teoretických znalostí)</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: praktický test (řešení zadané úlohy na počítači v počítačové učebně)
-Zkouška: ústní, zaměřená na ověření teoretických znalostí
+    <t xml:space="preserve">Zápočet: praktický test (řešení zadané úlohy na počítači v počítačové učebně)_x000D_
+Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
 </t>
   </si>
   <si>
-    <t>Zápočet: seminární práce
+    <t>Zápočet: seminární práce_x000D_
 Zkouška: ústní</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce
-Zkouška: ústní
+    <t xml:space="preserve">Zápočet: seminární práce_x000D_
+Zkouška: ústní_x000D_
 </t>
   </si>
   <si>
-    <t>Zápočet: seminární práce- návrh, vytvoření a administrace databáze ve zvoleném databázovém systému (zápočet)
+    <t>Zápočet: seminární práce- návrh, vytvoření a administrace databáze ve zvoleném databázovém systému (zápočet)_x000D_
 Zkouška: ústní (včetně diskuse dotazů nad seminární databází)</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: tvorba a obhájení seminární práce na zadané téma
-Zkouška: ústní, zaměřená na ověření teoretických znalostí
+    <t xml:space="preserve">Zápočet: tvorba a obhájení seminární práce na zadané téma_x000D_
+Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce (implementace modelu a vizualizace výsledku simulace)
-Zkouška: ústní, zaměřená na praktické i teoretické aspekty simulací
+    <t xml:space="preserve">Zápočet: seminární práce (implementace modelu a vizualizace výsledku simulace)_x000D_
+Zkouška: ústní, zaměřená na praktické i teoretické aspekty simulací_x000D_
 </t>
   </si>
   <si>
@@ -1082,18 +1085,18 @@
 </t>
   </si>
   <si>
-    <t>Zápočet: obhajoba zápočtové seminární práce (návrh databáze a její realizace)
+    <t>Zápočet: obhajoba zápočtové seminární práce (návrh databáze a její realizace)_x000D_
 Zkouška: ústní (včetně diskuse dotazů nad seminární databází)</t>
   </si>
   <si>
-    <t>Zápočet: aktivní účast na laboratořích
+    <t>Zápočet: aktivní účast na laboratořích_x000D_
 Zkouška: ústní</t>
   </si>
   <si>
     <t>Vstupní test následovaný ústní zkouškou</t>
   </si>
   <si>
-    <t>Zápočet: aktivní účast na laboratořích
+    <t>Zápočet: aktivní účast na laboratořích_x000D_
 Zkouška: ústní + připouštěcí písemná práce</t>
   </si>
   <si>
@@ -1115,133 +1118,136 @@
 13.	Praktické aplikace</t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Základní terminologie objektově orientovaného programování, objekty (hodnoty) základních tříd (čísla, logické hodnoty) a operace resp. metody nad nimi
-2.	Proměnné, standardní vstup a výstup, větvení programu (konstrukce if-then)
-3.	Uživatelské funkce (vstupní parametry, návratové hodnoty, oblast viditelnosti proměnných), n tice
-4.	Řetězce a metody nad řetězci, indexace, modifikovatelné odkazované hodnoty (referenční sémantika)
-5.	Cykly (while a for), předčasné ukončení cyklů
-6.	Seznamy (rozhraní), asymptotická (časová) složitost
-7.	Klíčové algoritmy nad seznamy (např. duplikace, filtrace, redukce)
-8.	Slovníky (rozhraní, využití pro representaci asociativních polí, řídkých polí a mezipamětí [cache])
-9.	Hashovací tabulky (interní implementace, hashovací funkce)
-10.	Vstup a výstup do souborů (textový)
-11.	Vstup a výstup do souborů (binární), bytová pole
-12.	Výjimky a základní ošetření výjimek, kontextový manager (with) použitý ve správě prostředků
-13.	Závěrečné shrnutí
+    <t xml:space="preserve">1.	Základní terminologie objektově orientovaného programování, objekty (hodnoty) základních tříd (čísla, logické hodnoty) a operace resp. metody nad nimi_x000D_
+2.	Proměnné, standardní vstup a výstup, větvení programu (konstrukce if-then)_x000D_
+3.	Uživatelské funkce (vstupní parametry, návratové hodnoty, oblast viditelnosti proměnných), n tice_x000D_
+4.	Řetězce a metody nad řetězci, indexace, modifikovatelné odkazované hodnoty (referenční sémantika)_x000D_
+5.	Cykly (while a for), předčasné ukončení cyklů_x000D_
+6.	Seznamy (rozhraní), asymptotická (časová) složitost_x000D_
+7.	Klíčové algoritmy nad seznamy (např. duplikace, filtrace, redukce)_x000D_
+8.	Slovníky (rozhraní, využití pro representaci asociativních polí, řídkých polí a mezipamětí [cache])_x000D_
+9.	Hashovací tabulky (interní implementace, hashovací funkce)_x000D_
+10.	Vstup a výstup do souborů (textový)_x000D_
+11.	Vstup a výstup do souborů (binární), bytová pole_x000D_
+12.	Výjimky a základní ošetření výjimek, kontextový manager (with) použitý ve správě prostředků_x000D_
+13.	Závěrečné shrnutí_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Implementace vlastních tříd (datové členy, metody, konstruktory)
-2. Abstraktní datové typy (ADT), implementace sekvenčních datových struktur (fronta, zásobník, setříděný seznam)
-3. Implementace vlastních algoritmů nad sekvenčními kolekcemi - vyhledávací algoritmy
-4. - 5. Implementace vlastních algoritmů nad sekvenčními kolekcemi - třídící algoritmy
-6. Spojové struktury a jejich objektová implementace (spojové seznamy, stromy aj.)
-7. - 8. Implementace vlastních algoritmů nad spojovými strukturami
-9. Zadání seminární práce, diskuse a návrh implementace
-10. Interface (v Pythonu protokoly), iterátory a jejich implementace, rozhraní základních kolekcí
-11. Plnohodnotná implementace vlastní kolekce
-12. Dědičnost (výhody a nevýhody)
-13. Praktické využití dědičnosti
+    <t xml:space="preserve">1. Implementace vlastních tříd (datové členy, metody, konstruktory)_x000D_
+2. Abstraktní datové typy (ADT), implementace sekvenčních datových struktur (fronta, zásobník, setříděný seznam)_x000D_
+3. Implementace vlastních algoritmů nad sekvenčními kolekcemi - vyhledávací algoritmy_x000D_
+4. - 5. Implementace vlastních algoritmů nad sekvenčními kolekcemi - třídící algoritmy_x000D_
+6. Spojové struktury a jejich objektová implementace (spojové seznamy, stromy aj.)_x000D_
+7. - 8. Implementace vlastních algoritmů nad spojovými strukturami_x000D_
+9. Zadání seminární práce, diskuse a návrh implementace_x000D_
+10. Interface (v Pythonu protokoly), iterátory a jejich implementace, rozhraní základních kolekcí_x000D_
+11. Plnohodnotná implementace vlastní kolekce_x000D_
+12. Dědičnost (výhody a nevýhody)_x000D_
+13. Praktické využití dědičnosti_x000D_
 </t>
   </si>
   <si>
-    <t>1. Syntéza kombinačních obvodů
-2. Matematické modely chování sekvenčních obvodů
-3. Interpretace konečného automatu jako modelu chování asynchronního sekvenčního obvodu
-4. Sestavení stavových zápisů chování sekvenčních obvodů a jejich minimalizace
-5. Návrh synchronních sekvenčních obvodů
-6. Syntéza asynchronních sekvenčních obvodů
-7. Iterační obvody
-8. Mikroprogramový automat
-9. Architektura procesorů z hlediska programátora
-10. Adresování na úrovni HW (bázové a indexové registry)
-11. Hardwarová přerušení
-12. Bitově orientovaný přístup
-13. Paměť, architektura, správa
+    <t>1. Syntéza kombinačních obvodů_x000D_
+2. Matematické modely chování sekvenčních obvodů_x000D_
+3. Interpretace konečného automatu jako modelu chování asynchronního sekvenčního obvodu_x000D_
+4. Sestavení stavových zápisů chování sekvenčních obvodů a jejich minimalizace_x000D_
+5. Návrh synchronních sekvenčních obvodů_x000D_
+6. Syntéza asynchronních sekvenčních obvodů_x000D_
+7. Iterační obvody_x000D_
+8. Mikroprogramový automat_x000D_
+9. Architektura procesorů z hlediska programátora_x000D_
+10. Adresování na úrovni HW (bázové a indexové registry)_x000D_
+11. Hardwarová přerušení_x000D_
+12. Bitově orientovaný přístup_x000D_
+13. Paměť, architektura, správa_x000D_
 14. Assembler- makra</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. Práce s problémovými a talentovanými žáky (2 týdny)
-2. Využití problémových a projektových metod v předmětu Informatika IKT (3 týdny)
-3. Plánování výuky (2 týdny)
-4. Didaktické zásady a didaktická pravidla ve výuce informatiky
-5. Hodnocení žáků v IKT
-6. Role učitele informatiky a jeho celoživotní vzdělávání
-7. Vytváření přípravy na výuku (4 týdny)
-a. Výuka textově orientovaného programování
-b. Zpracování dat
-c. Algoritmické myšlení
+    <t>_x000D_
+1. Práce s problémovými a talentovanými žáky (2 týdny)_x000D_
+2. Využití problémových a projektových metod v předmětu Informatika IKT (3 týdny)_x000D_
+3. Plánování výuky (2 týdny)_x000D_
+4. Didaktické zásady a didaktická pravidla ve výuce informatiky_x000D_
+5. Hodnocení žáků v IKT_x000D_
+6. Role učitele informatiky a jeho celoživotní vzdělávání_x000D_
+7. Vytváření přípravy na výuku (4 týdny)_x000D_
+a. Výuka textově orientovaného programování_x000D_
+b. Zpracování dat_x000D_
+c. Algoritmické myšlení_x000D_
 d. Bloková programování</t>
   </si>
   <si>
-    <t xml:space="preserve">Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti se seznámí s moderními nástroji pro její zajištění.
-1. Úvod do datové bezpečnosti
-2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti
-3. Ochrana osobních údajů (např. GDPR), anonymizace dat
-4. DLP systémy
-5. Systémy vysoké dostupnosti datových úložišť
-6. Zálohovací technologie pro koncové prvky
-7. Zálohovací technologie pro infrastrukturní systémy
-8. Archivační technologie
-9. Systémy logování a struktura logů pro framework AAA
-10. - 12. Správa systémů pro ukládání logovacích údajů frameworku AAA
-13. - 14. Vyhledávání souvislostí v uložených datech
+    <t xml:space="preserve">Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti se seznámí s moderními nástroji pro její zajištění._x000D_
+_x000D_
+1. Úvod do datové bezpečnosti_x000D_
+2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti_x000D_
+3. Ochrana osobních údajů (např. GDPR), anonymizace dat_x000D_
+4. DLP systémy_x000D_
+5. Systémy vysoké dostupnosti datových úložišť_x000D_
+6. Zálohovací technologie pro koncové prvky_x000D_
+7. Zálohovací technologie pro infrastrukturní systémy_x000D_
+8. Archivační technologie_x000D_
+9. Systémy logování a struktura logů pro framework AAA_x000D_
+10. - 12. Správa systémů pro ukládání logovacích údajů frameworku AAA_x000D_
+13. - 14. Vyhledávání souvislostí v uložených datech_x000D_
 </t>
   </si>
   <si>
-    <t>1. Úvod do datové bezpečnosti
-2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti
-3. Ochrana osobních údajů (např. GDPR), anonymizace dat
-4. DLP systémy
-5. Systémy vysoké dostupnosti datových úložišť
-6. Zálohovací technologie pro koncové prvky
-7. Zálohovací technologie pro infrastrukturní systémy
-8. Archivační technologie
-9. Systémy logování a struktura logů pro framework AAA
-10. ? 12. Správa systémů pro ukládání logovacích údajů frameworku AAA
+    <t>1. Úvod do datové bezpečnosti_x000D_
+2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti_x000D_
+3. Ochrana osobních údajů (např. GDPR), anonymizace dat_x000D_
+4. DLP systémy_x000D_
+5. Systémy vysoké dostupnosti datových úložišť_x000D_
+6. Zálohovací technologie pro koncové prvky_x000D_
+7. Zálohovací technologie pro infrastrukturní systémy_x000D_
+8. Archivační technologie_x000D_
+9. Systémy logování a struktura logů pro framework AAA_x000D_
+10. ? 12. Správa systémů pro ukládání logovacích údajů frameworku AAA_x000D_
 13. ? 14. Vyhledávání souvislostí v uložených datech</t>
   </si>
   <si>
-    <t>1.	Základní pojmy, opakování modelu TCP/IP a referenčního modelu ISO/OSI
-2.	Popis aplikační vrstvy a její funkce
-3.	Protokoly Transportní vrstvy ISO/OSI - TCP, UDP
-4.	Protokoly Relační vrstvy ISO/OSI - PAP, SSL
-5.	Připojení ke vzdálené konzoli - TELNET, RSH, SSH
-6.	Připojení ke vzdálenému GUI - VNC, RDP
-7.	Sdílení dat - FTP, NFS, SAMBA
-8.	Webové služby - HTTP, HTTPS
-9.	Emailová komunikace - POP3, SMTP, IMAP
-10.	Online syndikace - RSS, Atom
-11.	Protokoly pro komunikaci v reálném čase - IRC, Jabber
-12.	Konfigurační protokoly sítě - BOOTP, DHCP, DNS
+    <t>1.	Základní pojmy, opakování modelu TCP/IP a referenčního modelu ISO/OSI_x000D_
+2.	Popis aplikační vrstvy a její funkce_x000D_
+3.	Protokoly Transportní vrstvy ISO/OSI - TCP, UDP_x000D_
+4.	Protokoly Relační vrstvy ISO/OSI - PAP, SSL_x000D_
+5.	Připojení ke vzdálené konzoli - TELNET, RSH, SSH_x000D_
+6.	Připojení ke vzdálenému GUI - VNC, RDP_x000D_
+7.	Sdílení dat - FTP, NFS, SAMBA_x000D_
+8.	Webové služby - HTTP, HTTPS_x000D_
+9.	Emailová komunikace - POP3, SMTP, IMAP_x000D_
+10.	Online syndikace - RSS, Atom_x000D_
+11.	Protokoly pro komunikaci v reálném čase - IRC, Jabber_x000D_
+12.	Konfigurační protokoly sítě - BOOTP, DHCP, DNS_x000D_
 13.	Protokoly pro přenos a publikování multimédií - UPnP (DLNA), RTP, RSTP, RCTP</t>
   </si>
   <si>
-    <t>1. Byznys a ICT, použití linuxových technologií v praxi Byznys a ICT GNU/Linux Komerční Linux Red Hat Enterprise Linuxu, vyzkoušení
-2. Řešení vysoké dostupnosti na Linuxu Vysoká dostupnost ? teorie, principy Použití a nastavení Red Hat Cluster Suite Sophos UTM jako moderní bezpečnostní řešení postavené na Linuxu Funkce a vlastnosti UTM řešení 
-3. Bezpečnost v síti, tvorba bezpečnostní politiky ve firemním prostředí IPS/IDS systémy, funkce, nastavení Zabezpečení poštovního serveru, antispam techniky 
+    <t>1. Byznys a ICT, použití linuxových technologií v praxi Byznys a ICT GNU/Linux Komerční Linux Red Hat Enterprise Linuxu, vyzkoušení_x000D_
+2. Řešení vysoké dostupnosti na Linuxu Vysoká dostupnost ? teorie, principy Použití a nastavení Red Hat Cluster Suite Sophos UTM jako moderní bezpečnostní řešení postavené na Linuxu Funkce a vlastnosti UTM řešení _x000D_
+3. Bezpečnost v síti, tvorba bezpečnostní politiky ve firemním prostředí IPS/IDS systémy, funkce, nastavení Zabezpečení poštovního serveru, antispam techniky _x000D_
 4. Virtualizace a provoz IT na virtuální infrastruktuře Základy virtualizace x86 Virtualizační techniky Ukázka moderního virtualizačního nástroje: Red Hat Enterprise Virtualization, VMware vSphere</t>
   </si>
   <si>
-    <t xml:space="preserve">První etapa: motivační semináře (dvouhodinové)
-1. Úvod do problematiky otevřených dat (politika v této oblasti i technické náležitosti)
-2. Otevřená data v praxi z pohledu veřejné správy
-Druhá etapa: workshopy, nástroje pro open data (dvouhodinové)
-1. - 2. Data parsing, data scraping, formáty otevřených dat
-3. - 4. Kartografické minimum, GIS a prostorová data, otevřená geodata a jejich vizualizace
-5. Datová žurnalistika, případové studie
-Třetí etapa: veřejný 24hodinový hackathon (pod dohledem lektorů, návrh a prezentace vlastního řešení nad open daty)
+    <t xml:space="preserve">První etapa: motivační semináře (dvouhodinové)_x000D_
+1. Úvod do problematiky otevřených dat (politika v této oblasti i technické náležitosti)_x000D_
+2. Otevřená data v praxi z pohledu veřejné správy_x000D_
+_x000D_
+Druhá etapa: workshopy, nástroje pro open data (dvouhodinové)_x000D_
+1. - 2. Data parsing, data scraping, formáty otevřených dat_x000D_
+3. - 4. Kartografické minimum, GIS a prostorová data, otevřená geodata a jejich vizualizace_x000D_
+5. Datová žurnalistika, případové studie_x000D_
+_x000D_
+Třetí etapa: veřejný 24hodinový hackathon (pod dohledem lektorů, návrh a prezentace vlastního řešení nad open daty)_x000D_
 </t>
   </si>
   <si>
-    <t>1. typový systém ve staticky typovaných objektových programovacích jazycích
-2.- 3. polymorfismus založený na sdíleném rozhraní (protokolu)
-4. polymorfismus založený na dědičnosti (specifikátory přístupu)
-5. návrhové vzory (principy a cíle)
-6.- 7. vytvářející návrhové vzory (Tovární metody a objekty, Jedináček)
-8.- 9. strukturální návrhové vzory (Adaptér, Dekorátor, Most, Muší váha)
-10.- 11. vzory týkající se chování (Příkaz, Pozorovatel, Memo)
+    <t>1. typový systém ve staticky typovaných objektových programovacích jazycích_x000D_
+2.- 3. polymorfismus založený na sdíleném rozhraní (protokolu)_x000D_
+4. polymorfismus založený na dědičnosti (specifikátory přístupu)_x000D_
+5. návrhové vzory (principy a cíle)_x000D_
+6.- 7. vytvářející návrhové vzory (Tovární metody a objekty, Jedináček)_x000D_
+8.- 9. strukturální návrhové vzory (Adaptér, Dekorátor, Most, Muší váha)_x000D_
+10.- 11. vzory týkající se chování (Příkaz, Pozorovatel, Memo)_x000D_
 12.- 13. návrh, diskuse a počáteční implementace seminárního projektu</t>
   </si>
   <si>
@@ -1259,30 +1265,31 @@
 12.	Zálohování dat a systému, nastavení a automatizace</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Formulace úloh optimalizace, volné a vázané extrémy, spojitá a diskrétní optimalizace, konvexní optimalizace, vícekriteriální optimalizace, příklady typických úloh
-2. Možnosti výpočtu derivací a gradientů: symbolická derivace, numerická derivace, principy automatické diferenciace
-3. Hledání minima v 1D: hledání minima ve směru, metoda zlatého řezu, Fibonacciho metoda
-4. - 5. Metody prvního řádu pro hledání minima: gradientní metoda, metoda konjugovaných gradientů, Nesterova metoda, metody Adagrad, RMSProp, Adam
-6. Metody druhého řádu: Newtonova metoda, kvazi-Newtonovské metody
-7. Metoda nejmenších čtverců: lineární, nelineární, Levenbergova-Marquardtova metoda
-8. Metody minimalizace bez výpočtu derivace: Hookova-Jeevesova metoda, Powellova metoda, Nelderova-Meadova metoda
-9. - 10. Principy stochastických a populačních metod: simulované žíhání, metody particle swarm, firefly metoda a cockoo search
-11. - 12. Úlohy s omezeními: Lagrangeova metoda, KKT podmínky, Lagrangeova dualita, penaltové metody
-13. - 14. Kvadratické programování: formulace, příklady užití (SVM) a možnosti řešení
+    <t xml:space="preserve">1. Formulace úloh optimalizace, volné a vázané extrémy, spojitá a diskrétní optimalizace, konvexní optimalizace, vícekriteriální optimalizace, příklady typických úloh_x000D_
+2. Možnosti výpočtu derivací a gradientů: symbolická derivace, numerická derivace, principy automatické diferenciace_x000D_
+3. Hledání minima v 1D: hledání minima ve směru, metoda zlatého řezu, Fibonacciho metoda_x000D_
+4. - 5. Metody prvního řádu pro hledání minima: gradientní metoda, metoda konjugovaných gradientů, Nesterova metoda, metody Adagrad, RMSProp, Adam_x000D_
+6. Metody druhého řádu: Newtonova metoda, kvazi-Newtonovské metody_x000D_
+7. Metoda nejmenších čtverců: lineární, nelineární, Levenbergova-Marquardtova metoda_x000D_
+8. Metody minimalizace bez výpočtu derivace: Hookova-Jeevesova metoda, Powellova metoda, Nelderova-Meadova metoda_x000D_
+9. - 10. Principy stochastických a populačních metod: simulované žíhání, metody particle swarm, firefly metoda a cockoo search_x000D_
+11. - 12. Úlohy s omezeními: Lagrangeova metoda, KKT podmínky, Lagrangeova dualita, penaltové metody_x000D_
+13. - 14. Kvadratické programování: formulace, příklady užití (SVM) a možnosti řešení_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. - 2. Paralelní hardware (Flynnova taxonomie, volně a těsně vázané systémy, NUMA, SIMD podpora na plaformě AMD/Intel x86_64, AMD, výpočetní clustery, masivní paralelismus prostřednictvím GPGU)
-3. Omezení paralelismu (Amdahlův a Gustafsonův zákon, organizace paměti, vliv mezipaměti), paralelismus z pohledu softwaru (asynchronní a souběžné programování, výpočetní vlákna, datově a úlohově orientovaný paralelismus, sdílení paměti versus předávání zpráv, synchronizace využitelná pro HPC úlohy)
-4. Modul multiprocessing, paralelní map, explicitní využívání komunikačních front
-5. - 6. MPI v Pythonu (point-to-point communication, kolektivní komunikace)
-7. - 8. Paralelismus nad sdílenou pamětí, OpenMP a jeho využití v Pythonu (Numba, Cython, integrace kódu v jazyce C)
-9. - 11. Využití platformy CUDA v Pythonu (Numba Cuda, Python CUDA)
-12. - 14. Moderní přístupy k HPC paralelismu (např. paralelismus v jazyce Julia, Intel oneAPI, obsah se bude přizpůsobovat aktuálním trendům)
-Exkurze + cvičení
-1. - 3. Motivační exkurze, podpora paralelismu v OS Linux, instalace a zprovoznění, profiling kódu, benchmarking
-4. - 14. Řešení praktických úloh a implementace základních paralelních algoritmů s využitím nástrojů zavedených v rámci přednášek
-Předmět je vyučován v anglickém jazyce.
+    <t xml:space="preserve">1. - 2. Paralelní hardware (Flynnova taxonomie, volně a těsně vázané systémy, NUMA, SIMD podpora na plaformě AMD/Intel x86_64, AMD, výpočetní clustery, masivní paralelismus prostřednictvím GPGU)_x000D_
+3. Omezení paralelismu (Amdahlův a Gustafsonův zákon, organizace paměti, vliv mezipaměti), paralelismus z pohledu softwaru (asynchronní a souběžné programování, výpočetní vlákna, datově a úlohově orientovaný paralelismus, sdílení paměti versus předávání zpráv, synchronizace využitelná pro HPC úlohy)_x000D_
+4. Modul multiprocessing, paralelní map, explicitní využívání komunikačních front_x000D_
+5. - 6. MPI v Pythonu (point-to-point communication, kolektivní komunikace)_x000D_
+7. - 8. Paralelismus nad sdílenou pamětí, OpenMP a jeho využití v Pythonu (Numba, Cython, integrace kódu v jazyce C)_x000D_
+9. - 11. Využití platformy CUDA v Pythonu (Numba Cuda, Python CUDA)_x000D_
+12. - 14. Moderní přístupy k HPC paralelismu (např. paralelismus v jazyce Julia, Intel oneAPI, obsah se bude přizpůsobovat aktuálním trendům)_x000D_
+Exkurze + cvičení_x000D_
+1. - 3. Motivační exkurze, podpora paralelismu v OS Linux, instalace a zprovoznění, profiling kódu, benchmarking_x000D_
+4. - 14. Řešení praktických úloh a implementace základních paralelních algoritmů s využitím nástrojů zavedených v rámci přednášek_x000D_
+_x000D_
+Předmět je vyučován v anglickém jazyce._x000D_
 </t>
   </si>
   <si>
@@ -1307,16 +1314,16 @@
 2. měření fyzikálních charakteristik (napětí, proud, výkon aj.), diagnostika a testování</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Stabilita, zdroje zaokrouhlovacích chyb a jejich vliv
-2. - 3. Přímé metody pro řešení lineárních rovnic: GEM, LU rozklad, Choleského faktorizace, QR faktorizace a jejich aplikace
-4. - 5. Iterační metody pro řešení lineárních rovnic: Jacobiova, Gaussova-Seidelova metoda, SOR, gradientní metoda a metoda sdružených gradientů
-6. - 7. Vlastní čísla a jejich výpočet: odhady vlastních čísel, částečný problém vlastních čísel (mocninná metoda), úplný problém vlastních čísel (QR iterace a konstrukce QR rozkladu)
-8. SVD rozklad, jeho výpočet a aplikace
-9. Iterační metody řešení nelineárních rovnic a jejich soustav: Newtonova metoda a její varianty, metoda prosté iterace, metody pevného bodu a jejich konvergence
-10. Hledání kořenů polynomů: odhady kořenů polynomů, Newtonova-Hornerova metoda, Mullerova metoda, Bernoulliova metoda
-11. Numerická kvadratura: zopakování základních metod pro jednorozměrné integrály (Newtonovy-Cotesovy vzorce), Gaussova kvadratura, výpočet nevlastních integrálů, adaptivní přístupy, redukce pro vícerozměrné integrály a metoda Monte Carlo
-12. Řešení ODR a jejich soustav: jednokrokové a vícekrokové metody, metody prediktor-korektor, metody Rungeho-Kutty, stiff problémy a stabilita metod
-13. Aproximace a interpolace funkcí: zopakování základních metod (interpolace polynomem aj.), kubický spline, Čebyševovská aproximace
+    <t xml:space="preserve">1. Stabilita, zdroje zaokrouhlovacích chyb a jejich vliv_x000D_
+2. - 3. Přímé metody pro řešení lineárních rovnic: GEM, LU rozklad, Choleského faktorizace, QR faktorizace a jejich aplikace_x000D_
+4. - 5. Iterační metody pro řešení lineárních rovnic: Jacobiova, Gaussova-Seidelova metoda, SOR, gradientní metoda a metoda sdružených gradientů_x000D_
+6. - 7. Vlastní čísla a jejich výpočet: odhady vlastních čísel, částečný problém vlastních čísel (mocninná metoda), úplný problém vlastních čísel (QR iterace a konstrukce QR rozkladu)_x000D_
+8. SVD rozklad, jeho výpočet a aplikace_x000D_
+9. Iterační metody řešení nelineárních rovnic a jejich soustav: Newtonova metoda a její varianty, metoda prosté iterace, metody pevného bodu a jejich konvergence_x000D_
+10. Hledání kořenů polynomů: odhady kořenů polynomů, Newtonova-Hornerova metoda, Mullerova metoda, Bernoulliova metoda_x000D_
+11. Numerická kvadratura: zopakování základních metod pro jednorozměrné integrály (Newtonovy-Cotesovy vzorce), Gaussova kvadratura, výpočet nevlastních integrálů, adaptivní přístupy, redukce pro vícerozměrné integrály a metoda Monte Carlo_x000D_
+12. Řešení ODR a jejich soustav: jednokrokové a vícekrokové metody, metody prediktor-korektor, metody Rungeho-Kutty, stiff problémy a stabilita metod_x000D_
+13. Aproximace a interpolace funkcí: zopakování základních metod (interpolace polynomem aj.), kubický spline, Čebyševovská aproximace_x000D_
 </t>
   </si>
   <si>
@@ -1327,28 +1334,28 @@
 5. PHP (práce s databázemi)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Prohloubení základů syntaxe a základních konstrukcí jazyků Python a R
-2. Základy práce s daty a datovými soubory a jejich vizualizace
-3. Pokročilé techniky práce s daty a datovými soubory (import, čištění dat aj.)
-4. Pokročilé techniky vizualizace dat
-5. - 6. Explorační analýza dat, vybrané pokročilé statistické metody (korelační, regresní analýza, faktorová, shluková analýza aj.), inferenční statistika
-7. - 8. Základní aplikace metod strojového učení (vybrané klasifikátory či algoritmy pro regresi a shlukování)
-9. Základy textové analýzy, analýza sentimentu
-10. Analýza sítí
-11. - 12. Reporty, dashboardy a interaktivní vizualizace dat
-13. Shrnutí, diskuse nad zadáními seminárních prací
+    <t xml:space="preserve">1. Prohloubení základů syntaxe a základních konstrukcí jazyků Python a R_x000D_
+2. Základy práce s daty a datovými soubory a jejich vizualizace_x000D_
+3. Pokročilé techniky práce s daty a datovými soubory (import, čištění dat aj.)_x000D_
+4. Pokročilé techniky vizualizace dat_x000D_
+5. - 6. Explorační analýza dat, vybrané pokročilé statistické metody (korelační, regresní analýza, faktorová, shluková analýza aj.), inferenční statistika_x000D_
+7. - 8. Základní aplikace metod strojového učení (vybrané klasifikátory či algoritmy pro regresi a shlukování)_x000D_
+9. Základy textové analýzy, analýza sentimentu_x000D_
+10. Analýza sítí_x000D_
+11. - 12. Reporty, dashboardy a interaktivní vizualizace dat_x000D_
+13. Shrnutí, diskuse nad zadáními seminárních prací_x000D_
 </t>
   </si>
   <si>
-    <t>1. Vnořené poddotazy SELECT a jejich (efektivnější) alternativy (analytické funkce, DISTINCT ON)
-2. Indexové soubory a analýza dotazů (efektivní implementace operace JOIN)
-3. Fulltextové vyhledávání
-4. Rekurzivní CTE a representace hierarchií
-5. Pohledy a procedurální rozšíření SQL
-6. Kurzory
-7. Triggery
-8. DCL a správa uživatelů
-9. ? 10. Vysokoúrovňový přístup na straně klienta (ORM)
+    <t>1. Vnořené poddotazy SELECT a jejich (efektivnější) alternativy (analytické funkce, DISTINCT ON)_x000D_
+2. Indexové soubory a analýza dotazů (efektivní implementace operace JOIN)_x000D_
+3. Fulltextové vyhledávání_x000D_
+4. Rekurzivní CTE a representace hierarchií_x000D_
+5. Pohledy a procedurální rozšíření SQL_x000D_
+6. Kurzory_x000D_
+7. Triggery_x000D_
+8. DCL a správa uživatelů_x000D_
+9. ? 10. Vysokoúrovňový přístup na straně klienta (ORM)_x000D_
 11. ? 13. Administrace databázových systémů (optimalizace výkonu, archivace)</t>
   </si>
   <si>
@@ -1367,16 +1374,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Úvod do počítačových simulací (typy simulací, cíle simulací, oblasti použití, moderní trendy) s důrazem na stochastické simulace a spojité a částicové modelování dynamických systémů
-2.	Diskrétní událostmi řízené simulace v SimPy (principy, základní typy objektů, implementace pomocí korutin), praktický návrh simulace, její implementace a vizualizace
-3.	Komerční systémy pro diskrétní simulace a vizualizace (Simio, SIMUL8 aj.) včetně real-time 3D simulačních systémů
-4.	Dynamické systémy (jejich popis, vazby, rovnováha a přechodový stav, lineární odezva systému aj.), základní metody pro modelování vývoje dynamických systémů (soustavy obyčejných diferenciálních rovnic)
-5.	SimuPy, nástroj pro spojité modelování dynamických systémů založený na jazyku Python (definice objektu, vazby objektů, metody řešení, vizualizace výsledků)
-6.	Praktické řešení dynamických systémů pomocí SimuPy: fyzikální nebo biologické modely
-7.	Dynamické modelování částicových systémů, popisy systémů (škály), metody a moderní trendy, paralelizace, simulační balíky a analýza trajektorií pomocí jazyka Python (např. LAMMPS, MDAnalysis aj.)
-8.	Deterministické a stochastické modelování jednoduchých a komplexních částicových systémů (počítačové modely, metody, vizualizace)
-9.	Praktické řešení úloh zaměřených na modelování deterministických a stochastických částicových systémů
-Předmět je vyučován v anglickém jazyce.
+    <t xml:space="preserve">1.	Úvod do počítačových simulací (typy simulací, cíle simulací, oblasti použití, moderní trendy) s důrazem na stochastické simulace a spojité a částicové modelování dynamických systémů_x000D_
+2.	Diskrétní událostmi řízené simulace v SimPy (principy, základní typy objektů, implementace pomocí korutin), praktický návrh simulace, její implementace a vizualizace_x000D_
+3.	Komerční systémy pro diskrétní simulace a vizualizace (Simio, SIMUL8 aj.) včetně real-time 3D simulačních systémů_x000D_
+4.	Dynamické systémy (jejich popis, vazby, rovnováha a přechodový stav, lineární odezva systému aj.), základní metody pro modelování vývoje dynamických systémů (soustavy obyčejných diferenciálních rovnic)_x000D_
+5.	SimuPy, nástroj pro spojité modelování dynamických systémů založený na jazyku Python (definice objektu, vazby objektů, metody řešení, vizualizace výsledků)_x000D_
+6.	Praktické řešení dynamických systémů pomocí SimuPy: fyzikální nebo biologické modely_x000D_
+7.	Dynamické modelování částicových systémů, popisy systémů (škály), metody a moderní trendy, paralelizace, simulační balíky a analýza trajektorií pomocí jazyka Python (např. LAMMPS, MDAnalysis aj.)_x000D_
+8.	Deterministické a stochastické modelování jednoduchých a komplexních částicových systémů (počítačové modely, metody, vizualizace)_x000D_
+9.	Praktické řešení úloh zaměřených na modelování deterministických a stochastických částicových systémů_x000D_
+Předmět je vyučován v anglickém jazyce._x000D_
 </t>
   </si>
   <si>
@@ -1409,81 +1416,82 @@
 redukce: NP-těžký problém, NP-úplný problém; výpočetně obtížné problémy teorie grafů</t>
   </si>
   <si>
-    <t>1. Relační databáze (principy) a relační databázové systémy (přehled a klasifikace)
-2. Principy konceptuálního návrhu (entity, atributy a relační vztahy, ERD)
-3. Kandidátní klíče a normalizace databází (normální formy)
-4. DDL ? příkazy pro práci s tabulkami (CREATE, ALTER, DROP, datové typy a integritní omezení)
-5. DML ? příkazy pro práci s daty (INSERT, UPDATE, DELETE)
-6. Základní tvar příkazu SELECT (SELECT, FROM, WHERE, ORDER BY)
-7. Relační vztahy mezi tabulkami a jejich representace
-8. Vnitřní spojení (INNER JOIN)
-9. Vnější spojení (OUTER JOIN) a další typy spojení
-10. Seskupování (GROUP BY, HAVING) a agregační funkce
-11. Transakce
+    <t>1. Relační databáze (principy) a relační databázové systémy (přehled a klasifikace)_x000D_
+2. Principy konceptuálního návrhu (entity, atributy a relační vztahy, ERD)_x000D_
+3. Kandidátní klíče a normalizace databází (normální formy)_x000D_
+4. DDL ? příkazy pro práci s tabulkami (CREATE, ALTER, DROP, datové typy a integritní omezení)_x000D_
+5. DML ? příkazy pro práci s daty (INSERT, UPDATE, DELETE)_x000D_
+6. Základní tvar příkazu SELECT (SELECT, FROM, WHERE, ORDER BY)_x000D_
+7. Relační vztahy mezi tabulkami a jejich representace_x000D_
+8. Vnitřní spojení (INNER JOIN)_x000D_
+9. Vnější spojení (OUTER JOIN) a další typy spojení_x000D_
+10. Seskupování (GROUP BY, HAVING) a agregační funkce_x000D_
+11. Transakce_x000D_
 12. ? 13. Základní programový přístup k databázím</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. Základy fyziky polovodičů, elektrická vodivost vodičů, nevodičů, polovodičů, intrinzitní, extrinzitní
-vodivost, PN přechod)
-2. Základní pojmy obvodové elektroniky (I, U, R, C, Q, AC/DC, zdroje napětí a proudu, VA charakteristiky)
-3. Řešení elektrických obvodů stejnosměrného proudu (Ohmův zákon, Théveninova věta, Nortonova věta,
-řešení obvodů dle Kirchhoffových zákonů, smyčkových proudů, uzlových napětí, lineární superpozice)
-4. Řešení obvodů střídavého proudu (induktance, kapacitance, fázové posunutí proudu a napětí na C a L,
-fázorový diagram, rezonance)
-5. Grafické řešení nelineárních elektronických obvodů
-6. Náhradní lineární obvody (jednobran, dvojbran, admitanční a impedanční rovnice)
-7. Pasivní součásti elektrických obvodů (RLC)
-Digitální část
-8. Digitální signál, bit, byte, číselné soustavy, kódy, BCD, ASCII
-9. Logické funkce, Booleova algebra, logické výrazy
-10. Kombinační logické sítě
-11. Minimalizace normálních forem výrazů
-12. Syntéza kombinačních obvodů
+    <t>_x000D_
+1. Základy fyziky polovodičů, elektrická vodivost vodičů, nevodičů, polovodičů, intrinzitní, extrinzitní_x000D_
+vodivost, PN přechod)_x000D_
+2. Základní pojmy obvodové elektroniky (I, U, R, C, Q, AC/DC, zdroje napětí a proudu, VA charakteristiky)_x000D_
+3. Řešení elektrických obvodů stejnosměrného proudu (Ohmův zákon, Théveninova věta, Nortonova věta,_x000D_
+řešení obvodů dle Kirchhoffových zákonů, smyčkových proudů, uzlových napětí, lineární superpozice)_x000D_
+4. Řešení obvodů střídavého proudu (induktance, kapacitance, fázové posunutí proudu a napětí na C a L,_x000D_
+fázorový diagram, rezonance)_x000D_
+5. Grafické řešení nelineárních elektronických obvodů_x000D_
+6. Náhradní lineární obvody (jednobran, dvojbran, admitanční a impedanční rovnice)_x000D_
+7. Pasivní součásti elektrických obvodů (RLC)_x000D_
+Digitální část_x000D_
+8. Digitální signál, bit, byte, číselné soustavy, kódy, BCD, ASCII_x000D_
+9. Logické funkce, Booleova algebra, logické výrazy_x000D_
+10. Kombinační logické sítě_x000D_
+11. Minimalizace normálních forem výrazů_x000D_
+12. Syntéza kombinačních obvodů_x000D_
 13. Fyzikální realizace a analýza kombinačních logických členů</t>
   </si>
   <si>
-    <t>1. Základní pojmy kryptologie, Modulární aritmetika
-2. Generátory (pseudo)náhodných čísel, testy prvočíselnosti
-3. Klasická kryptologie (substituční a transpoziční šifry)
-4. Symetrická kryptografie ? blokové šifry (DES, AES)
-5. Symetrická kryptografie ? proudové šifry (A5, Salsa20, Chacha20)
-6. Kryptografie veřejného klíče (RSA, DSA, DH)
-7. Hashovací funkce (MD5, SHA, digitální podpis ? princip)
-8. Digitální měny, HW a SW peněženky, blockchain (principy)
-9. Důvěrnost, integrita, dostupnost (princip, klasifikace, prostředky, algoritmy)
-10. Řízení bezpečnosti dat (služby, metody, ověření bezpečnosti)
-11. Analýza hrozeb a rizik (aktiva, zranitelnost, ohrožení, opatření), soudobé hrozby informačních technologií
-(typy, techniky, možnosti)
-12. AAA framework (principy, dělení, účel, protokoly, využití)
-13. Protokoly a metody bezpečnosti a ochrany dat v prostředí Internetu
+    <t>1. Základní pojmy kryptologie, Modulární aritmetika_x000D_
+2. Generátory (pseudo)náhodných čísel, testy prvočíselnosti_x000D_
+3. Klasická kryptologie (substituční a transpoziční šifry)_x000D_
+4. Symetrická kryptografie ? blokové šifry (DES, AES)_x000D_
+5. Symetrická kryptografie ? proudové šifry (A5, Salsa20, Chacha20)_x000D_
+6. Kryptografie veřejného klíče (RSA, DSA, DH)_x000D_
+7. Hashovací funkce (MD5, SHA, digitální podpis ? princip)_x000D_
+8. Digitální měny, HW a SW peněženky, blockchain (principy)_x000D_
+9. Důvěrnost, integrita, dostupnost (princip, klasifikace, prostředky, algoritmy)_x000D_
+10. Řízení bezpečnosti dat (služby, metody, ověření bezpečnosti)_x000D_
+11. Analýza hrozeb a rizik (aktiva, zranitelnost, ohrožení, opatření), soudobé hrozby informačních technologií_x000D_
+(typy, techniky, možnosti)_x000D_
+12. AAA framework (principy, dělení, účel, protokoly, využití)_x000D_
+13. Protokoly a metody bezpečnosti a ochrany dat v prostředí Internetu_x000D_
 14. Ochrana dat na úrovni kabelových sítí (principy, dělení, využití)</t>
   </si>
   <si>
-    <t>1. Historie vývoje sítí, principy, využití, základní pojmy.
-2. Adresování v počítačových sítích: třídy, rozdělení adres, maska, IPv4 a IPv6, DNS, URL.
-3. Architektura Internetu: organizace a správa, standardy a struktura Internetu, způsoby připojení.
-4. Vrstvové modely sítí: model ISO/OSI ? princip, vrstvy, služby, účel, využití.
-5. Vrstvové modely sítí: model TCP/IP ? princip, vrstvy, protokoly, služby, účel, využití.
-6. Síťové technologie: rozdělení, principy, architektury, využití.
-7. Aktivní prvky v sítích: dělení, princip činnosti, přenos dat. Infrastruktura sítě: účel, základní dělení a využití.
-8. Přenosová média: dělení, vlastnosti, typy, konektory, vodiče, použití.
-9. Klasifikace sítí: rozlehlost, topologie, postavení uzlů, analogové a digitální sítě.
-10. Principy datových přenosů: rozdělení, typy, přenos dat.
-11. Přístupové metody: účel, základní dělení, činnosti, příklady použití.
-12. Ethernet: popis, druhy, kabeláž, bloky dat.
-13. Náhled do bezdrátových technologií: druhy, topologie, princip činnosti, architektura.
-V rámci laboratoří si student prakticky vyzkouší nabyté vědomosti v emulačním programu Packet Tracer. Laboratorní
+    <t>1. Historie vývoje sítí, principy, využití, základní pojmy._x000D_
+2. Adresování v počítačových sítích: třídy, rozdělení adres, maska, IPv4 a IPv6, DNS, URL._x000D_
+3. Architektura Internetu: organizace a správa, standardy a struktura Internetu, způsoby připojení._x000D_
+4. Vrstvové modely sítí: model ISO/OSI ? princip, vrstvy, služby, účel, využití._x000D_
+5. Vrstvové modely sítí: model TCP/IP ? princip, vrstvy, protokoly, služby, účel, využití._x000D_
+6. Síťové technologie: rozdělení, principy, architektury, využití._x000D_
+7. Aktivní prvky v sítích: dělení, princip činnosti, přenos dat. Infrastruktura sítě: účel, základní dělení a využití._x000D_
+8. Přenosová média: dělení, vlastnosti, typy, konektory, vodiče, použití._x000D_
+9. Klasifikace sítí: rozlehlost, topologie, postavení uzlů, analogové a digitální sítě._x000D_
+10. Principy datových přenosů: rozdělení, typy, přenos dat._x000D_
+11. Přístupové metody: účel, základní dělení, činnosti, příklady použití._x000D_
+12. Ethernet: popis, druhy, kabeláž, bloky dat._x000D_
+13. Náhled do bezdrátových technologií: druhy, topologie, princip činnosti, architektura._x000D_
+_x000D_
+V rámci laboratoří si student prakticky vyzkouší nabyté vědomosti v emulačním programu Packet Tracer. Laboratorní_x000D_
 úlohy budou zaměřeny na základní konfiguraci, statické a dynamické routování.</t>
   </si>
   <si>
-    <t>1.- 2. Úvod do průmyslové automatizace se zaměřením na řízení procesů 
-3.- 4. Přehled aktorik a senzorik v procesní průmyslové automatizaci 
-5.- 6. Projektová dokumentace MaR a ASŘTP (měření a regulace, automatizovaný systém řízení technologických procesů) 
-7. Komunikační rozhraní 
-8.- 10. PLC, HMI, SCADA a DCS 
-11. Specifika prostředí EX 
-12. Úvod do funkční bezpečnosti 
+    <t>1.- 2. Úvod do průmyslové automatizace se zaměřením na řízení procesů _x000D_
+3.- 4. Přehled aktorik a senzorik v procesní průmyslové automatizaci _x000D_
+5.- 6. Projektová dokumentace MaR a ASŘTP (měření a regulace, automatizovaný systém řízení technologických procesů) _x000D_
+7. Komunikační rozhraní _x000D_
+8.- 10. PLC, HMI, SCADA a DCS _x000D_
+11. Specifika prostředí EX _x000D_
+12. Úvod do funkční bezpečnosti _x000D_
 13. ? 14. Základní postupy při řešení zakázek v průmyslu</t>
   </si>
   <si>

--- a/results/chybi_seminarici.xlsx
+++ b/results/chybi_seminarici.xlsx
@@ -748,115 +748,115 @@
     <t>KI/KAIIT, KI/KAIT, KI/KITP, KI/KUBT</t>
   </si>
   <si>
-    <t>'Chytil M. Automaty a gramatiky. SNTL, Praha, 1984. ',_x000D_
-'Hopocroft J., Ulman J. Introduction to Automata Theory, Languages and Computation. Addison Wesley, 1979. ',_x000D_
-'Chytil M. Teorie automatů a formálních jazyků. (Skripta), SPN Praha, 1978. ',_x000D_
-'Meduna A. Automata and Languages. Springer, 2000. ',_x000D_
-'Hopocroft J., Ulman J. Formálne jazyky a automaty. ALFA Bratislava, 1978. ',_x000D_
+    <t>'Chytil M. Automaty a gramatiky. SNTL, Praha, 1984. ',
+'Hopocroft J., Ulman J. Introduction to Automata Theory, Languages and Computation. Addison Wesley, 1979. ',
+'Chytil M. Teorie automatů a formálních jazyků. (Skripta), SPN Praha, 1978. ',
+'Meduna A. Automata and Languages. Springer, 2000. ',
+'Hopocroft J., Ulman J. Formálne jazyky a automaty. ALFA Bratislava, 1978. ',
 'Kolář J., Štěpánková O., Chytil M. Logika, algebry a grafy. SNTL Praha, 1989. '</t>
   </si>
   <si>
-    <t>'https://github.com/jakevdp/WhirlwindTourOfPython',_x000D_
-'Pilgrim, M. Ponořme se do Python(u) 3. Praha, 2010. ISBN 978-80-904248-2-1.',_x000D_
-'http://howto.py.cz/index.htm',_x000D_
-'Hetland, M.L. Python Algorithms: Mastering Basic Algorithms in the Python Language. Apress Media, New York City, 2014. ISBN 978-1-4842-0.',_x000D_
+    <t>'https://github.com/jakevdp/WhirlwindTourOfPython',
+'Pilgrim, M. Ponořme se do Python(u) 3. Praha, 2010. ISBN 978-80-904248-2-1.',
+'http://howto.py.cz/index.htm',
+'Hetland, M.L. Python Algorithms: Mastering Basic Algorithms in the Python Language. Apress Media, New York City, 2014. ISBN 978-1-4842-0.',
 'Summerfield, M. Python 3: výukový kurz. Computer Press, Brno, 2010. ISBN 978-80-251-2737-7.'</t>
   </si>
   <si>
-    <t>'https://github.com/jakevdp/WhirlwindTourOfPython',_x000D_
-'http://diveintopython3.py.cz/index.html',_x000D_
-'http://howto.py.cz/index.htm',_x000D_
-'Hetland, M.L. Python Algorithms: Mastering Basic Algorithms in the Python Language. Apress Media, New York City, 2014. ISBN 978-1-4842-0055-1.',_x000D_
+    <t>'https://github.com/jakevdp/WhirlwindTourOfPython',
+'http://diveintopython3.py.cz/index.html',
+'http://howto.py.cz/index.htm',
+'Hetland, M.L. Python Algorithms: Mastering Basic Algorithms in the Python Language. Apress Media, New York City, 2014. ISBN 978-1-4842-0055-1.',
 'Summerfield, M. Python 3: výukový kurz. Computer Press, Brno, 2010. ISBN 978-80-251-2737-7.'</t>
   </si>
   <si>
-    <t>'Gook M. Hardwarová rozhraní: průvodce programátora. Computer Press, Brno, 2006. Computer Press, Brno, 2006. ISBN 80-251-1019-2.',_x000D_
-'Malý, M. Hradla, volty, jednočipy - Úvod do bastlení. Praha, CZ.NIC, z.s.p.o., 2017. CZ.NIC, 2018. ISBN 978-1593276126.',_x000D_
-'Frištacký,N., Kolesár,M., Kolenička, J., Hlavatý,J. Logické systémy, Bratislava, Alfa Bratislava, 1986. ',_x000D_
-'Kaprálik, P., Galanová, J., Polakovič, M. Logické systémy. STU, 2007. ',_x000D_
-'Pirogov V. Mistrovství v jazyce Assembler. Computer Press, 2005. Computer Press, 2005. ISBN 80-251-0888-0.',_x000D_
-'Miroslav Virius. Od C k C++. Kopp, České Budějovice, 2000. 2000. ',_x000D_
-'Bernard J. M., Hugon L., Covec J. H. Od logických obvodů k mikroprocesorům. Díl I, II, III a IV. SNTL, 1984. ',_x000D_
-'VODA, Zbyšek. Průvodce světem Arduina. Bučovice, Martin Stříž, 2017. Vydání druhé. Bučovice: Martin Stříž, 2017. ISBN 978-80-87106-93-8.',_x000D_
-'Herout P. Učebnice jazyka C. KOPP, České Budějovice, 2000. ISBN 978-80-7232-351-7.',_x000D_
-'Margolis M. Arduino Cookbook. O´Reilly, 2011. O Reilly, 2011. ISBN 978-1-4493-0310-5.',_x000D_
-'Bokr, J. Logické objekty a řízení I. Plzeň: ZČU, 1992. ',_x000D_
-'Bayer, J., Hanzálek, Z., Šusta, R. Logické systémy pro řízení. ČVUT, Praha 2000. ',_x000D_
-'Douša J., Jáneš V. Teorie automatů. ČVUT. Praha 1988. ',_x000D_
+    <t>'Gook M. Hardwarová rozhraní: průvodce programátora. Computer Press, Brno, 2006. Computer Press, Brno, 2006. ISBN 80-251-1019-2.',
+'Malý, M. Hradla, volty, jednočipy - Úvod do bastlení. Praha, CZ.NIC, z.s.p.o., 2017. CZ.NIC, 2018. ISBN 978-1593276126.',
+'Frištacký,N., Kolesár,M., Kolenička, J., Hlavatý,J. Logické systémy, Bratislava, Alfa Bratislava, 1986. ',
+'Kaprálik, P., Galanová, J., Polakovič, M. Logické systémy. STU, 2007. ',
+'Pirogov V. Mistrovství v jazyce Assembler. Computer Press, 2005. Computer Press, 2005. ISBN 80-251-0888-0.',
+'Miroslav Virius. Od C k C++. Kopp, České Budějovice, 2000. 2000. ',
+'Bernard J. M., Hugon L., Covec J. H. Od logických obvodů k mikroprocesorům. Díl I, II, III a IV. SNTL, 1984. ',
+'VODA, Zbyšek. Průvodce světem Arduina. Bučovice, Martin Stříž, 2017. Vydání druhé. Bučovice: Martin Stříž, 2017. ISBN 978-80-87106-93-8.',
+'Herout P. Učebnice jazyka C. KOPP, České Budějovice, 2000. ISBN 978-80-7232-351-7.',
+'Margolis M. Arduino Cookbook. O´Reilly, 2011. O Reilly, 2011. ISBN 978-1-4493-0310-5.',
+'Bokr, J. Logické objekty a řízení I. Plzeň: ZČU, 1992. ',
+'Bayer, J., Hanzálek, Z., Šusta, R. Logické systémy pro řízení. ČVUT, Praha 2000. ',
+'Douša J., Jáneš V. Teorie automatů. ČVUT. Praha 1988. ',
 'Vacek V. Učebnice programování Atmel s jádrem 8051. BEN- Technická literatura, Praha, 2001. BEN-Technická literatura, Praha, 2001. ISBN 80-7300-043-1.'</t>
   </si>
   <si>
-    <t>'Kurose, J. F., Ross, K. W. Computer Networking: A Top-Down Approach. Pearson, 2017, 856 s., ISBN 978-0-13-359414-0. ',_x000D_
-'Naik D. C. Internet: standardy a protokoly. Computer Press, Brno, 1999. ',_x000D_
-'Dostálek L., Kabelová A. Velký průvodce protokoly TCP/IP a systémem DNS. null. Computer Press, 2003. ISBN null.',_x000D_
-'Sanders C. Analýza sítí a řešení problémů v programu Wireshark. Computer Press, 2012. ISBN 978-80-251-3718-5.',_x000D_
-'Donahue, G. A. Kompletní průvodce síťového experta. Computer Press, 2009, 528 s., ISBN 978-80-251-2247-1. ',_x000D_
-'Horák J., Keršláger M. Počítačové sítě pro začínající správce, Computer Press. ',_x000D_
+    <t>'Kurose, J. F., Ross, K. W. Computer Networking: A Top-Down Approach. Pearson, 2017, 856 s., ISBN 978-0-13-359414-0. ',
+'Naik D. C. Internet: standardy a protokoly. Computer Press, Brno, 1999. ',
+'Dostálek L., Kabelová A. Velký průvodce protokoly TCP/IP a systémem DNS. null. Computer Press, 2003. ISBN null.',
+'Sanders C. Analýza sítí a řešení problémů v programu Wireshark. Computer Press, 2012. ISBN 978-80-251-3718-5.',
+'Donahue, G. A. Kompletní průvodce síťového experta. Computer Press, 2009, 528 s., ISBN 978-80-251-2247-1. ',
+'Horák J., Keršláger M. Počítačové sítě pro začínající správce, Computer Press. ',
 'Klement, M. Technologie počítačových sítí - služby DNS, DHCP a síťové prvky. UPOL, 2020, 42 s., ISBN 978-80-244-5582-2. '</t>
   </si>
   <si>
-    <t>'Oficiální dokumentace RED HAT Enterprise Linux a red hat Cluster Suite. ',_x000D_
+    <t>'Oficiální dokumentace RED HAT Enterprise Linux a red hat Cluster Suite. ',
 'Oficiální dokumentace Sophos UTM. '</t>
   </si>
   <si>
-    <t>'https://osf.cz/programy/ziva-demokracie/nas-stat-nase-data/',_x000D_
-'http://data.ctu.cz/',_x000D_
-'https://opendata.gov.cz/',_x000D_
+    <t>'https://osf.cz/programy/ziva-demokracie/nas-stat-nase-data/',
+'http://data.ctu.cz/',
+'https://opendata.gov.cz/',
 'Open Data. Pracovní sešit. Institut pro veřejnou správu Praha. '</t>
   </si>
   <si>
-    <t>'Bishopová, J. C# návrhové vzory. Zoner Press 2010. ISBN 8074130762. ',_x000D_
-'Albahari, J., Albahari, B. C# 4.0 in a Nutshell. Beijing: O Reilly, 2010. ISBN 978-0-596-80095-6. ',_x000D_
-'Gamma, E., Helm, R., Johnson, R., Vlissides, J. Návrh programů pomocí vzorů: Stavební kameny objektově orientovaných programů. Grada 2003. ISBN 8024703025. ',_x000D_
-'Pecinovský, R. Návrhové vzory. Computer Press, Albatros Media a.s., 2017. ISBN 8025145107. ',_x000D_
+    <t>'Bishopová, J. C# návrhové vzory. Zoner Press 2010. ISBN 8074130762. ',
+'Albahari, J., Albahari, B. C# 4.0 in a Nutshell. Beijing: O Reilly, 2010. ISBN 978-0-596-80095-6. ',
+'Gamma, E., Helm, R., Johnson, R., Vlissides, J. Návrh programů pomocí vzorů: Stavební kameny objektově orientovaných programů. Grada 2003. ISBN 8024703025. ',
+'Pecinovský, R. Návrhové vzory. Computer Press, Albatros Media a.s., 2017. ISBN 8025145107. ',
 'Gamma, E., Helm, R., Johnson, R., Vlissides, J. Design Patterns: Elements of Reusable Object-Oriented Software. Addison-Wesley: 1995. ISBN 0201633612. '</t>
   </si>
   <si>
-    <t>'Shah S., Soyinka W. Administrace systému Linux. Grada Publishing, Praha, 2007. ISBN 978-80-247-1694-7.',_x000D_
-'Jones D. Automatizace správy a skriptování Microsoft Windows. Computer Press, Brno, 2006. ISBN 80-251-1261-6.',_x000D_
-'http://jf.cz/skripta/linux.pdf',_x000D_
-'Petrlík L. Jemný úvod do systému UNIX. Kopp, České Budějovice, 2000. ISBN 80-85828-28-6.',_x000D_
-'Stones R., Matthew N. Linux: začínáme programovat. Computer Press, Praha, 2000. ISBN 80-7226-307-2.',_x000D_
+    <t>'Shah S., Soyinka W. Administrace systému Linux. Grada Publishing, Praha, 2007. ISBN 978-80-247-1694-7.',
+'Jones D. Automatizace správy a skriptování Microsoft Windows. Computer Press, Brno, 2006. ISBN 80-251-1261-6.',
+'http://jf.cz/skripta/linux.pdf',
+'Petrlík L. Jemný úvod do systému UNIX. Kopp, České Budějovice, 2000. ISBN 80-85828-28-6.',
+'Stones R., Matthew N. Linux: začínáme programovat. Computer Press, Praha, 2000. ISBN 80-7226-307-2.',
 'Sobell M. G. Mistrovství v Linuxu: příkazový řádek, shell, programování. Computer Press, Brno, 2007. ISBN 978-80-251-1726-2.'</t>
   </si>
   <si>
-    <t>'Horák J. Hardware. Computer Press, Praha, 2009. ',_x000D_
-'Meyer M. Osobní počítač. Computer Press, Praha, 2006. ISBN 9788025108345.',_x000D_
-'Winkler P. Velký počítačový lexikon. Computer Press, Praha, 2005. EAN 9788025123317. ',_x000D_
-'Horák J. BIOS a Setup. Computer Press, Praha, 2010. ',_x000D_
-'Broža P. Instalujeme a konfigurujeme počítač. CP Books. 2005. ',_x000D_
+    <t>'Horák J. Hardware. Computer Press, Praha, 2009. ',
+'Meyer M. Osobní počítač. Computer Press, Praha, 2006. ISBN 9788025108345.',
+'Winkler P. Velký počítačový lexikon. Computer Press, Praha, 2005. EAN 9788025123317. ',
+'Horák J. BIOS a Setup. Computer Press, Praha, 2010. ',
+'Broža P. Instalujeme a konfigurujeme počítač. CP Books. 2005. ',
 'DEMBOWSKI K. Mistrovství v Hardware. Computer Press, Praha, 2009. '</t>
   </si>
   <si>
-    <t>'Welling, L. PHP a MySQL. Computer Press, 2017, 800 stran. ISBN: 9788025148921. ',_x000D_
-'Sklar, D. PHP 7, Zoner Press, 2018, 368 stran. ISBN: 978-80-7413-363-3. ',_x000D_
-'Herout, P. XSLT 2.0 a SVG prakticky- Xpath 2.0 a Java. Ebook, 2010. ',_x000D_
-'HTML 5 Black Book, Covers CSS 3, JavaScript, XML, xHTML, AJAX, PHP and Jquery. Dreamtech Press, eBook, 77472 KB, 2016. ',_x000D_
-'Lopez, A. Learning PHP 7. Packt Publishing, 2016. ISBN: 9781785880544. ',_x000D_
-'Robbins, J. N. Learning Web Design. O Reilly Media, 2018, 808 pages. ',_x000D_
-'Martin, M. G. PHP: Advanced Detailed Approach to Master PHP Programming Language for Web Development. 2019, 83 pages. ',_x000D_
+    <t>'Welling, L. PHP a MySQL. Computer Press, 2017, 800 stran. ISBN: 9788025148921. ',
+'Sklar, D. PHP 7, Zoner Press, 2018, 368 stran. ISBN: 978-80-7413-363-3. ',
+'Herout, P. XSLT 2.0 a SVG prakticky- Xpath 2.0 a Java. Ebook, 2010. ',
+'HTML 5 Black Book, Covers CSS 3, JavaScript, XML, xHTML, AJAX, PHP and Jquery. Dreamtech Press, eBook, 77472 KB, 2016. ',
+'Lopez, A. Learning PHP 7. Packt Publishing, 2016. ISBN: 9781785880544. ',
+'Robbins, J. N. Learning Web Design. O Reilly Media, 2018, 808 pages. ',
+'Martin, M. G. PHP: Advanced Detailed Approach to Master PHP Programming Language for Web Development. 2019, 83 pages. ',
 'Phang, C. L. Web Coding Bible. 2015, 474 pages. '</t>
   </si>
   <si>
-    <t>'POKORNÝ, J., Valenta M. Databázové systémy, ČVUT, Praha, 2013. ',_x000D_
-'Šimonová, S., Panuš, J. Databázové systémy, Univerzita Pardubice, 2006. Univerzita Pardubice, 2006. ISBN 80-7194-845-4.',_x000D_
-'PostgreSQL documentation. ',_x000D_
-'Auer, D. J., Kroenke, D. M. Databáze, Computer Press, Brno, 2015. Computer Press, 2015. ISBN 978-80-251-4352-0.',_x000D_
-'Hernandez, M. J., Viescas, J. L. Myslíme v jazyku SQL: Tvorba dotazů, Grada Publishing, Praha, 2005. Grada Publishing, Praha, 2005. ISBN 80-247-0899-X.',_x000D_
-'HERNANDEZ, M. J. Návrh databází, Grada Publishing, Praha, 2006. ',_x000D_
+    <t>'POKORNÝ, J., Valenta M. Databázové systémy, ČVUT, Praha, 2013. ',
+'Šimonová, S., Panuš, J. Databázové systémy, Univerzita Pardubice, 2006. Univerzita Pardubice, 2006. ISBN 80-7194-845-4.',
+'PostgreSQL documentation. ',
+'Auer, D. J., Kroenke, D. M. Databáze, Computer Press, Brno, 2015. Computer Press, 2015. ISBN 978-80-251-4352-0.',
+'Hernandez, M. J., Viescas, J. L. Myslíme v jazyku SQL: Tvorba dotazů, Grada Publishing, Praha, 2005. Grada Publishing, Praha, 2005. ISBN 80-247-0899-X.',
+'HERNANDEZ, M. J. Návrh databází, Grada Publishing, Praha, 2006. ',
 'Sheldon, R. SQL: začínáme programovat, Grada Publishing, Praha, 2005. Grada Publishing, Praha, 2005. ISBN 80-247-0999-6.'</t>
   </si>
   <si>
-    <t>'Demel, J. Grafy a jejich aplikace. 2019. ',_x000D_
-'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',_x000D_
-'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',_x000D_
-'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',_x000D_
-'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',_x000D_
-'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',_x000D_
+    <t>'Demel, J. Grafy a jejich aplikace. 2019. ',
+'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',
+'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',
+'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',
+'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',
+'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',
 'Meyer, A., Chlipala, A. 6.042J Mathematics for Computer Science. Massachusetts Institute of Technology: MIT OpenCourseWare, 2015. '</t>
   </si>
   <si>
-    <t>'Šípal, J. Automatizace v praktických příkladech: studijní text pro prezenční a kombinované studium. Ústí nad Labem: Univerzita J. E. Purkyně v Ústí nad Labem, 2012. Skripta. ISBN 978-80-7414-455-4. ',_x000D_
+    <t>'Šípal, J. Automatizace v praktických příkladech: studijní text pro prezenční a kombinované studium. Ústí nad Labem: Univerzita J. E. Purkyně v Ústí nad Labem, 2012. Skripta. ISBN 978-80-7414-455-4. ',
 'Garzinová, R., Jančíková, Z., Zimný, O. Základy automatizace technologických procesů v teorii. Ostrava: VŠB-TUO, 2013. '</t>
   </si>
   <si>
@@ -869,8 +869,7 @@
     <t>HOD/TYD</t>
   </si>
   <si>
-    <t xml:space="preserve">V tomto předmětu se studenti seznámí s teoretickými základy konečných automatů, gramatik a zásobníkových automatů. Důraz je kladen na propojení matematické teorie s praktickou realizací a využití dané teorie v současných technologiích. _x000D_
-_x000D_
+    <t xml:space="preserve">V tomto předmětu se studenti seznámí s teoretickými základy konečných automatů, gramatik a zásobníkových automatů. Důraz je kladen na propojení matematické teorie s praktickou realizací a využití dané teorie v současných technologiích. 
 </t>
   </si>
   <si>
@@ -883,7 +882,7 @@
     <t>Student se v rámci předmětu seznámí s návrhem sekvenčních logických obvodů. Sekvenční obvody budou navrhovány jak pomocí asynchronních, tak pomocí synchronních metod. Studenti dále získají základní poznatky z teorie konečných automatů a jejich aplikace v oblasti sekvenčních sítí. Poté se seznámí se základní architekturou programovatelných součástek.</t>
   </si>
   <si>
-    <t>Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti_x000D_
+    <t>Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti
 se seznámí s moderními nástroji pro její zajištění.</t>
   </si>
   <si>
@@ -896,9 +895,9 @@
     <t>Praktický seminář zaměřený na získávání, zpracování a prezentaci otevřených dat (informace a data zveřejněná na internetu, která jsou úplná, snadno dostupná, strojově čitelná, používající standardy s volně dostupnou specifikací, zpřístupněná za jasně definovaných podmínek užití dat s minimem omezení).</t>
   </si>
   <si>
-    <t>Kurz prohlubuje praktické dovednosti programátora prostřednictvím využití klasických objektově orientovaných_x000D_
-návrhových vzorů v OOP jazyce se statickým typováním. Kurz začíná úvodním popisem příslušného jazyka z pohledu_x000D_
-typového systému a mechanismu řízeného polymorfismu. Jádrem je pak popis klíčových klasických návrhových vzorů_x000D_
+    <t>Kurz prohlubuje praktické dovednosti programátora prostřednictvím využití klasických objektově orientovaných
+návrhových vzorů v OOP jazyce se statickým typováním. Kurz začíná úvodním popisem příslušného jazyka z pohledu
+typového systému a mechanismu řízeného polymorfismu. Jádrem je pak popis klíčových klasických návrhových vzorů
 (GoF) a jejich implementace ve zvoleném programovacím jazyce (typicky C#).</t>
   </si>
   <si>
@@ -911,30 +910,30 @@
     <t>Předmět se věnuje využití paralelismu včetně high performance computing. Kromě nezbytných teoretických východisek je zaměřen na využití existujících nástrojů a knihoven na platformě Python. Předmět pokrývá oba základní přístupy k paralelismu: systémy s předáváním zpráv (modul multiprocessing, klasické MPI) a systémy nad sdílenou pamětí (založená na OpenMPI a CUDA). Klíčovou částí předmětu jsou cvičení, v nichž si studenti mohou paralelní programování vyzkoušet nejen na desktopových počítačích a noteboocích s více jádry, ale také na výpočetním clusteru fakulty a na specializovaném hardwaru (aktuálně Nvidia Jetson Nano). Na rychlý vývoj v této oblasti by měly reagovat přednášky a cvičení věnované moderním trendům zařazené na konci předmětu</t>
   </si>
   <si>
-    <t>Tento předmět je uceleným kurzem počítačového hardwaru. Studenti se seznámí s principy a technologiemi jednotlivých_x000D_
-konstrukčních prvků počítačů architektury IBM PC. Budou probrány jednotlivé subsystémy počítače se zaměřením na_x000D_
-moderní trendy, základní i rozšiřující komponenty počítače včetně V/V zařízeních s ohledem na očekávaný vývoj_x000D_
-problematiky. Předmět je postaven tak, aby posluchači měli po teoretické přednášce možnost prakticky se seznámit_x000D_
-s jednotlivými komponentami PC v rámci samostatné práce v laboratorních praktikách._x000D_
-Úkolem praktika je seznámit se především s hardwarem počítače typu IBM PC a jeho příslušenstvím formou řešení_x000D_
-laboratorních úloh. Výuka probíhá v laboratořích v menších skupinách a slouží k procvičení znalostí získaných_x000D_
-v přednášce. Hlavní náplní je stavba několika typů počítače, jejich konfigurace, instalace základního softwaru a řešení_x000D_
-případných problémů hardwarového či softwarového typu. Studenti si vyzkouší diagnostiku a základní měření_x000D_
+    <t>Tento předmět je uceleným kurzem počítačového hardwaru. Studenti se seznámí s principy a technologiemi jednotlivých
+konstrukčních prvků počítačů architektury IBM PC. Budou probrány jednotlivé subsystémy počítače se zaměřením na
+moderní trendy, základní i rozšiřující komponenty počítače včetně V/V zařízeních s ohledem na očekávaný vývoj
+problematiky. Předmět je postaven tak, aby posluchači měli po teoretické přednášce možnost prakticky se seznámit
+s jednotlivými komponentami PC v rámci samostatné práce v laboratorních praktikách.
+Úkolem praktika je seznámit se především s hardwarem počítače typu IBM PC a jeho příslušenstvím formou řešení
+laboratorních úloh. Výuka probíhá v laboratořích v menších skupinách a slouží k procvičení znalostí získaných
+v přednášce. Hlavní náplní je stavba několika typů počítače, jejich konfigurace, instalace základního softwaru a řešení
+případných problémů hardwarového či softwarového typu. Studenti si vyzkouší diagnostiku a základní měření
 elektrických veličin.</t>
   </si>
   <si>
     <t>Tento předmět nabízí studentům ucelený přehled metod numerické matematiky. Předmět dále rozvíjí znalosti a dovednosti z oblasti numerických metod, které by měli studenti získat v bakalářském studiu. Poskytuje hlubší vhled do problematiky a akcentuje metody numerické lineární algebry jakožto nástroje pro datovou analýzu a strojové učení. Studenti si osvojí jak teoretické znalosti, tak i praktické aplikace v rámci cvičení za použití volně dostupných knihoven pro Python a R.</t>
   </si>
   <si>
-    <t>Kurz dává studentům teoretické znalosti XML technologii a praktické zkušenosti práce s XML soubory. V kurzu se uvažuje návrh webových aplikací (včetně aplikací pracujících s databázemi). V průběhu kurzu bude vytvořeno a zpracováno několik souborů XML. Uvažují se otázky extrakce informací z obsahu XML a její zobrazení na webových stránkách (s použitím css, xslt, js a php). V průběhu kurzu budou vytvořeny webové aplikace, jejichž návrh zahrnuje také témata jako AJAX a práce s XML soubory, cookies a sezení, objektově orientované programování, grafiku, práce_x000D_
+    <t>Kurz dává studentům teoretické znalosti XML technologii a praktické zkušenosti práce s XML soubory. V kurzu se uvažuje návrh webových aplikací (včetně aplikací pracujících s databázemi). V průběhu kurzu bude vytvořeno a zpracováno několik souborů XML. Uvažují se otázky extrakce informací z obsahu XML a její zobrazení na webových stránkách (s použitím css, xslt, js a php). V průběhu kurzu budou vytvořeny webové aplikace, jejichž návrh zahrnuje také témata jako AJAX a práce s XML soubory, cookies a sezení, objektově orientované programování, grafiku, práce
 s databázemi.</t>
   </si>
   <si>
     <t>V předmětu studenti prakticky rozvinou základní dovednosti v programovacích jazycích Python a R v oblastech stěžejních pro datové inženýry a vědce. Různé metody a techniky zpracování, analýzy a vizualizace dat si studenti osvojí ryze prakticky na vzorových řešeních, tj. na aplikační a interpretační úrovni, bez nutnosti hlubších znalostí principů těchto metod a technik, které by měli nabýt v předchozím, případně dalším studiu. Výraznou součástí výuky je práce studentů ve skupinách na řešení případových studií ("inspirovaných daty") menšího rozsahu, jejich prezentace a vzájemné kritické zhodnocení. Zdrojem dat a inspirací jsou platformy typu kaggle.com. Ve výuce se uplatní materiály výukových platforem jako je datacamp.com, které jsou jinak doporučeny zejména k samostudiu a získání certifikátů</t>
   </si>
   <si>
-    <t>Kurz navazuje na kurz Úvodu do relačních databází, který rozšiřuje v několika směrech: optimalizace SQL dotazů_x000D_
-s využitím znalostí interní representace, administrace klient-server databázových systémů (PostgreSQL, Oracle),_x000D_
+    <t>Kurz navazuje na kurz Úvodu do relačních databází, který rozšiřuje v několika směrech: optimalizace SQL dotazů
+s využitím znalostí interní representace, administrace klient-server databázových systémů (PostgreSQL, Oracle),
 a programování na straně serveru i klienta.</t>
   </si>
   <si>
@@ -944,31 +943,31 @@
     <t>Předmět je zaměřen na počítačové simulace využitelné v široké oblasti od ekonomických a dopravních problémů po simulace biologických či chemických dějů. Přednášky jsou zaměřeny na prezentaci existujících nástrojů včetně ukázek použití. V rámci cvičení jsou navrhovány jednoduché modely dynamických systémů, které jsou implementovány na příslušných simulačních platformách, a výsledky simulací jsou vizualizovány a analyzovány.</t>
   </si>
   <si>
-    <t>Kurz je koncipován jako úvodní kurz, který má prezentovat vybrané partie z diskrétní matematiky a teorie grafů_x000D_
+    <t>Kurz je koncipován jako úvodní kurz, který má prezentovat vybrané partie z diskrétní matematiky a teorie grafů
 s ohledem na potřeby v dalších oblastech informatiky, jako je algoritmizace, kódování a šifrování, či optimalizace.</t>
   </si>
   <si>
-    <t>Předmět prakticky uvádí do návrhu a základní implementace relačních databází. Studenti se seznámí s konceptuálním_x000D_
-a logickým návrhem relačních databází (včetně representací relačních vztahů) a se základy SQL (standard ISO SQL-92)._x000D_
+    <t>Předmět prakticky uvádí do návrhu a základní implementace relačních databází. Studenti se seznámí s konceptuálním
+a logickým návrhem relačních databází (včetně representací relačních vztahů) a se základy SQL (standard ISO SQL-92).
 V rámci cvičení se studenti zaměří na tvorbu konceptuálních návrhů vzorových příkladů databází.</t>
   </si>
   <si>
-    <t>V analogové části předmětu se studenti seznámí se základy elektroniky, řešením elektrických obvodů a připraví se na_x000D_
-pochopení aktivních prvků v elektronice. Navazující část věnovaná logickým obvodům je zaměřena na pochopení_x000D_
-základních vztahů logických systémů a na aplikaci diskrétní matematiky. Student se v ní seznámí s návrhem_x000D_
+    <t>V analogové části předmětu se studenti seznámí se základy elektroniky, řešením elektrických obvodů a připraví se na
+pochopení aktivních prvků v elektronice. Navazující část věnovaná logickým obvodům je zaměřena na pochopení
+základních vztahů logických systémů a na aplikaci diskrétní matematiky. Student se v ní seznámí s návrhem
 kombinačních obvodů. Ke každé části přísluší samostatná tříhodinová laboratorní praktika.</t>
   </si>
   <si>
-    <t>Předmět je zaměřen na získání základních znalostí z oblasti kyberbezpečnosti. Studenti se tak seznámí se základními_x000D_
-pojmy z oblasti klasické i moderní kryptologie, stejně jako se základními principy zabezpečení dat. Nebude chybět ani_x000D_
-analýza hrozeb a rizik současných informačních systémů. Tyto základní kompetence budou následně využity v dalších_x000D_
+    <t>Předmět je zaměřen na získání základních znalostí z oblasti kyberbezpečnosti. Studenti se tak seznámí se základními
+pojmy z oblasti klasické i moderní kryptologie, stejně jako se základními principy zabezpečení dat. Nebude chybět ani
+analýza hrozeb a rizik současných informačních systémů. Tyto základní kompetence budou následně využity v dalších
 předmětech.</t>
   </si>
   <si>
-    <t>Předmět je koncipován jako základní úvod do počítačových kabelových i bezdrátových sítí. Důraz je kladen na zásadní_x000D_
-pojmy a přehled jednotlivých typů sítí. Student se seznámí se základní infrastrukturou počítačových sítí a používanými_x000D_
-přístupovými metodami k médiu. V rámci předmětu jsou dále probrány modely počítačových sítí i obecné základy_x000D_
-síťové komunikace v oblasti směrování, směrovacích metod a vybraných protokolů. Laboratorní praktika budou_x000D_
+    <t>Předmět je koncipován jako základní úvod do počítačových kabelových i bezdrátových sítí. Důraz je kladen na zásadní
+pojmy a přehled jednotlivých typů sítí. Student se seznámí se základní infrastrukturou počítačových sítí a používanými
+přístupovými metodami k médiu. V rámci předmětu jsou dále probrány modely počítačových sítí i obecné základy
+síťové komunikace v oblasti směrování, směrovacích metod a vybraných protokolů. Laboratorní praktika budou
 zaměřena na konfigurace sítí a jejich monitoring pro malé a střední podniky, resp. veřejnou správu.</t>
   </si>
   <si>
@@ -1000,27 +999,26 @@
     <t>Podmínkou získání zápočtu je zpracování seminární práce zadané cvičícím a obhajoba seminární práce zadané zkoušejícím. Zkouška bude ústní.</t>
   </si>
   <si>
-    <t>Zápočet: semestrální projekt_x000D_
+    <t>Zápočet: semestrální projekt
 Zkouška: ústní</t>
   </si>
   <si>
-    <t>1. tvořivá práce ve skupině_x000D_
-2. vytvoření skupinového semestrálního projektu_x000D_
+    <t>1. tvořivá práce ve skupině
+2. vytvoření skupinového semestrálního projektu
 3. prezentace výsledků řešení projektu před ostatními skupinami</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: laboratorní úloha_x000D_
-Zkouška: ústní_x000D_
+    <t xml:space="preserve">Zápočet: laboratorní úloha
+Zkouška: ústní
 </t>
   </si>
   <si>
     <t>Zápočet: laboratorní úloha</t>
   </si>
   <si>
-    <t>Aktivní účast na výuce min. 80%._x000D_
-_x000D_
-Zkouška:_x000D_
-Část 1: Vyřešení zkouškové laboratorní úlohy_x000D_
+    <t>Aktivní účast na výuce min. 80%.
+Zkouška:
+Část 1: Vyřešení zkouškové laboratorní úlohy
 Část 2: Ústní zkouška z oblasti počítačových sítí</t>
   </si>
   <si>
@@ -1036,46 +1034,45 @@
     <t>Zápočet je udělen za komplexnější praktickou práci: sada skriptů zaměřených na softwarové zpracování souborů a transformace textových dat. Předpokladem je zvládnutí práce s bashem, správa uživatelských práv a procesů.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce_x000D_
-Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
+    <t xml:space="preserve">Zápočet: seminární práce
+Zkouška: ústní, zaměřená na ověření teoretických znalostí
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce (implementace paralelní verze netriviálního algoritmu za použití CPU a GPU)_x000D_
-_x000D_
-Zkouška: ústní (diskuse nad seminární prací a ověření obecných faktických znalostí)_x000D_
+    <t xml:space="preserve">Zápočet: seminární práce (implementace paralelní verze netriviálního algoritmu za použití CPU a GPU)
+Zkouška: ústní (diskuse nad seminární prací a ověření obecných faktických znalostí)
 </t>
   </si>
   <si>
-    <t>Zápočet: aktivní účast na cvičení a laboratořích, odevzdání protokolů z měření_x000D_
+    <t>Zápočet: aktivní účast na cvičení a laboratořích, odevzdání protokolů z měření
 Zkouška: písemný test, po jeho splnění následuje ústní část zkoušky (ověření teoretických znalostí)</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: praktický test (řešení zadané úlohy na počítači v počítačové učebně)_x000D_
-Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
+    <t xml:space="preserve">Zápočet: praktický test (řešení zadané úlohy na počítači v počítačové učebně)
+Zkouška: ústní, zaměřená na ověření teoretických znalostí
 </t>
   </si>
   <si>
-    <t>Zápočet: seminární práce_x000D_
+    <t>Zápočet: seminární práce
 Zkouška: ústní</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce_x000D_
-Zkouška: ústní_x000D_
+    <t xml:space="preserve">Zápočet: seminární práce
+Zkouška: ústní
 </t>
   </si>
   <si>
-    <t>Zápočet: seminární práce- návrh, vytvoření a administrace databáze ve zvoleném databázovém systému (zápočet)_x000D_
+    <t>Zápočet: seminární práce- návrh, vytvoření a administrace databáze ve zvoleném databázovém systému (zápočet)
 Zkouška: ústní (včetně diskuse dotazů nad seminární databází)</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: tvorba a obhájení seminární práce na zadané téma_x000D_
-Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
+    <t xml:space="preserve">Zápočet: tvorba a obhájení seminární práce na zadané téma
+Zkouška: ústní, zaměřená na ověření teoretických znalostí
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce (implementace modelu a vizualizace výsledku simulace)_x000D_
-Zkouška: ústní, zaměřená na praktické i teoretické aspekty simulací_x000D_
+    <t xml:space="preserve">Zápočet: seminární práce (implementace modelu a vizualizace výsledku simulace)
+Zkouška: ústní, zaměřená na praktické i teoretické aspekty simulací
 </t>
   </si>
   <si>
@@ -1085,18 +1082,18 @@
 </t>
   </si>
   <si>
-    <t>Zápočet: obhajoba zápočtové seminární práce (návrh databáze a její realizace)_x000D_
+    <t>Zápočet: obhajoba zápočtové seminární práce (návrh databáze a její realizace)
 Zkouška: ústní (včetně diskuse dotazů nad seminární databází)</t>
   </si>
   <si>
-    <t>Zápočet: aktivní účast na laboratořích_x000D_
+    <t>Zápočet: aktivní účast na laboratořích
 Zkouška: ústní</t>
   </si>
   <si>
     <t>Vstupní test následovaný ústní zkouškou</t>
   </si>
   <si>
-    <t>Zápočet: aktivní účast na laboratořích_x000D_
+    <t>Zápočet: aktivní účast na laboratořích
 Zkouška: ústní + připouštěcí písemná práce</t>
   </si>
   <si>
@@ -1118,136 +1115,133 @@
 13.	Praktické aplikace</t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Základní terminologie objektově orientovaného programování, objekty (hodnoty) základních tříd (čísla, logické hodnoty) a operace resp. metody nad nimi_x000D_
-2.	Proměnné, standardní vstup a výstup, větvení programu (konstrukce if-then)_x000D_
-3.	Uživatelské funkce (vstupní parametry, návratové hodnoty, oblast viditelnosti proměnných), n tice_x000D_
-4.	Řetězce a metody nad řetězci, indexace, modifikovatelné odkazované hodnoty (referenční sémantika)_x000D_
-5.	Cykly (while a for), předčasné ukončení cyklů_x000D_
-6.	Seznamy (rozhraní), asymptotická (časová) složitost_x000D_
-7.	Klíčové algoritmy nad seznamy (např. duplikace, filtrace, redukce)_x000D_
-8.	Slovníky (rozhraní, využití pro representaci asociativních polí, řídkých polí a mezipamětí [cache])_x000D_
-9.	Hashovací tabulky (interní implementace, hashovací funkce)_x000D_
-10.	Vstup a výstup do souborů (textový)_x000D_
-11.	Vstup a výstup do souborů (binární), bytová pole_x000D_
-12.	Výjimky a základní ošetření výjimek, kontextový manager (with) použitý ve správě prostředků_x000D_
-13.	Závěrečné shrnutí_x000D_
+    <t xml:space="preserve">1.	Základní terminologie objektově orientovaného programování, objekty (hodnoty) základních tříd (čísla, logické hodnoty) a operace resp. metody nad nimi
+2.	Proměnné, standardní vstup a výstup, větvení programu (konstrukce if-then)
+3.	Uživatelské funkce (vstupní parametry, návratové hodnoty, oblast viditelnosti proměnných), n tice
+4.	Řetězce a metody nad řetězci, indexace, modifikovatelné odkazované hodnoty (referenční sémantika)
+5.	Cykly (while a for), předčasné ukončení cyklů
+6.	Seznamy (rozhraní), asymptotická (časová) složitost
+7.	Klíčové algoritmy nad seznamy (např. duplikace, filtrace, redukce)
+8.	Slovníky (rozhraní, využití pro representaci asociativních polí, řídkých polí a mezipamětí [cache])
+9.	Hashovací tabulky (interní implementace, hashovací funkce)
+10.	Vstup a výstup do souborů (textový)
+11.	Vstup a výstup do souborů (binární), bytová pole
+12.	Výjimky a základní ošetření výjimek, kontextový manager (with) použitý ve správě prostředků
+13.	Závěrečné shrnutí
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Implementace vlastních tříd (datové členy, metody, konstruktory)_x000D_
-2. Abstraktní datové typy (ADT), implementace sekvenčních datových struktur (fronta, zásobník, setříděný seznam)_x000D_
-3. Implementace vlastních algoritmů nad sekvenčními kolekcemi - vyhledávací algoritmy_x000D_
-4. - 5. Implementace vlastních algoritmů nad sekvenčními kolekcemi - třídící algoritmy_x000D_
-6. Spojové struktury a jejich objektová implementace (spojové seznamy, stromy aj.)_x000D_
-7. - 8. Implementace vlastních algoritmů nad spojovými strukturami_x000D_
-9. Zadání seminární práce, diskuse a návrh implementace_x000D_
-10. Interface (v Pythonu protokoly), iterátory a jejich implementace, rozhraní základních kolekcí_x000D_
-11. Plnohodnotná implementace vlastní kolekce_x000D_
-12. Dědičnost (výhody a nevýhody)_x000D_
-13. Praktické využití dědičnosti_x000D_
+    <t xml:space="preserve">1. Implementace vlastních tříd (datové členy, metody, konstruktory)
+2. Abstraktní datové typy (ADT), implementace sekvenčních datových struktur (fronta, zásobník, setříděný seznam)
+3. Implementace vlastních algoritmů nad sekvenčními kolekcemi - vyhledávací algoritmy
+4. - 5. Implementace vlastních algoritmů nad sekvenčními kolekcemi - třídící algoritmy
+6. Spojové struktury a jejich objektová implementace (spojové seznamy, stromy aj.)
+7. - 8. Implementace vlastních algoritmů nad spojovými strukturami
+9. Zadání seminární práce, diskuse a návrh implementace
+10. Interface (v Pythonu protokoly), iterátory a jejich implementace, rozhraní základních kolekcí
+11. Plnohodnotná implementace vlastní kolekce
+12. Dědičnost (výhody a nevýhody)
+13. Praktické využití dědičnosti
 </t>
   </si>
   <si>
-    <t>1. Syntéza kombinačních obvodů_x000D_
-2. Matematické modely chování sekvenčních obvodů_x000D_
-3. Interpretace konečného automatu jako modelu chování asynchronního sekvenčního obvodu_x000D_
-4. Sestavení stavových zápisů chování sekvenčních obvodů a jejich minimalizace_x000D_
-5. Návrh synchronních sekvenčních obvodů_x000D_
-6. Syntéza asynchronních sekvenčních obvodů_x000D_
-7. Iterační obvody_x000D_
-8. Mikroprogramový automat_x000D_
-9. Architektura procesorů z hlediska programátora_x000D_
-10. Adresování na úrovni HW (bázové a indexové registry)_x000D_
-11. Hardwarová přerušení_x000D_
-12. Bitově orientovaný přístup_x000D_
-13. Paměť, architektura, správa_x000D_
+    <t>1. Syntéza kombinačních obvodů
+2. Matematické modely chování sekvenčních obvodů
+3. Interpretace konečného automatu jako modelu chování asynchronního sekvenčního obvodu
+4. Sestavení stavových zápisů chování sekvenčních obvodů a jejich minimalizace
+5. Návrh synchronních sekvenčních obvodů
+6. Syntéza asynchronních sekvenčních obvodů
+7. Iterační obvody
+8. Mikroprogramový automat
+9. Architektura procesorů z hlediska programátora
+10. Adresování na úrovni HW (bázové a indexové registry)
+11. Hardwarová přerušení
+12. Bitově orientovaný přístup
+13. Paměť, architektura, správa
 14. Assembler- makra</t>
   </si>
   <si>
-    <t>_x000D_
-1. Práce s problémovými a talentovanými žáky (2 týdny)_x000D_
-2. Využití problémových a projektových metod v předmětu Informatika IKT (3 týdny)_x000D_
-3. Plánování výuky (2 týdny)_x000D_
-4. Didaktické zásady a didaktická pravidla ve výuce informatiky_x000D_
-5. Hodnocení žáků v IKT_x000D_
-6. Role učitele informatiky a jeho celoživotní vzdělávání_x000D_
-7. Vytváření přípravy na výuku (4 týdny)_x000D_
-a. Výuka textově orientovaného programování_x000D_
-b. Zpracování dat_x000D_
-c. Algoritmické myšlení_x000D_
+    <t xml:space="preserve">
+1. Práce s problémovými a talentovanými žáky (2 týdny)
+2. Využití problémových a projektových metod v předmětu Informatika IKT (3 týdny)
+3. Plánování výuky (2 týdny)
+4. Didaktické zásady a didaktická pravidla ve výuce informatiky
+5. Hodnocení žáků v IKT
+6. Role učitele informatiky a jeho celoživotní vzdělávání
+7. Vytváření přípravy na výuku (4 týdny)
+a. Výuka textově orientovaného programování
+b. Zpracování dat
+c. Algoritmické myšlení
 d. Bloková programování</t>
   </si>
   <si>
-    <t xml:space="preserve">Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti se seznámí s moderními nástroji pro její zajištění._x000D_
-_x000D_
-1. Úvod do datové bezpečnosti_x000D_
-2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti_x000D_
-3. Ochrana osobních údajů (např. GDPR), anonymizace dat_x000D_
-4. DLP systémy_x000D_
-5. Systémy vysoké dostupnosti datových úložišť_x000D_
-6. Zálohovací technologie pro koncové prvky_x000D_
-7. Zálohovací technologie pro infrastrukturní systémy_x000D_
-8. Archivační technologie_x000D_
-9. Systémy logování a struktura logů pro framework AAA_x000D_
-10. - 12. Správa systémů pro ukládání logovacích údajů frameworku AAA_x000D_
-13. - 14. Vyhledávání souvislostí v uložených datech_x000D_
+    <t xml:space="preserve">Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti se seznámí s moderními nástroji pro její zajištění.
+1. Úvod do datové bezpečnosti
+2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti
+3. Ochrana osobních údajů (např. GDPR), anonymizace dat
+4. DLP systémy
+5. Systémy vysoké dostupnosti datových úložišť
+6. Zálohovací technologie pro koncové prvky
+7. Zálohovací technologie pro infrastrukturní systémy
+8. Archivační technologie
+9. Systémy logování a struktura logů pro framework AAA
+10. - 12. Správa systémů pro ukládání logovacích údajů frameworku AAA
+13. - 14. Vyhledávání souvislostí v uložených datech
 </t>
   </si>
   <si>
-    <t>1. Úvod do datové bezpečnosti_x000D_
-2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti_x000D_
-3. Ochrana osobních údajů (např. GDPR), anonymizace dat_x000D_
-4. DLP systémy_x000D_
-5. Systémy vysoké dostupnosti datových úložišť_x000D_
-6. Zálohovací technologie pro koncové prvky_x000D_
-7. Zálohovací technologie pro infrastrukturní systémy_x000D_
-8. Archivační technologie_x000D_
-9. Systémy logování a struktura logů pro framework AAA_x000D_
-10. ? 12. Správa systémů pro ukládání logovacích údajů frameworku AAA_x000D_
+    <t>1. Úvod do datové bezpečnosti
+2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti
+3. Ochrana osobních údajů (např. GDPR), anonymizace dat
+4. DLP systémy
+5. Systémy vysoké dostupnosti datových úložišť
+6. Zálohovací technologie pro koncové prvky
+7. Zálohovací technologie pro infrastrukturní systémy
+8. Archivační technologie
+9. Systémy logování a struktura logů pro framework AAA
+10. ? 12. Správa systémů pro ukládání logovacích údajů frameworku AAA
 13. ? 14. Vyhledávání souvislostí v uložených datech</t>
   </si>
   <si>
-    <t>1.	Základní pojmy, opakování modelu TCP/IP a referenčního modelu ISO/OSI_x000D_
-2.	Popis aplikační vrstvy a její funkce_x000D_
-3.	Protokoly Transportní vrstvy ISO/OSI - TCP, UDP_x000D_
-4.	Protokoly Relační vrstvy ISO/OSI - PAP, SSL_x000D_
-5.	Připojení ke vzdálené konzoli - TELNET, RSH, SSH_x000D_
-6.	Připojení ke vzdálenému GUI - VNC, RDP_x000D_
-7.	Sdílení dat - FTP, NFS, SAMBA_x000D_
-8.	Webové služby - HTTP, HTTPS_x000D_
-9.	Emailová komunikace - POP3, SMTP, IMAP_x000D_
-10.	Online syndikace - RSS, Atom_x000D_
-11.	Protokoly pro komunikaci v reálném čase - IRC, Jabber_x000D_
-12.	Konfigurační protokoly sítě - BOOTP, DHCP, DNS_x000D_
+    <t>1.	Základní pojmy, opakování modelu TCP/IP a referenčního modelu ISO/OSI
+2.	Popis aplikační vrstvy a její funkce
+3.	Protokoly Transportní vrstvy ISO/OSI - TCP, UDP
+4.	Protokoly Relační vrstvy ISO/OSI - PAP, SSL
+5.	Připojení ke vzdálené konzoli - TELNET, RSH, SSH
+6.	Připojení ke vzdálenému GUI - VNC, RDP
+7.	Sdílení dat - FTP, NFS, SAMBA
+8.	Webové služby - HTTP, HTTPS
+9.	Emailová komunikace - POP3, SMTP, IMAP
+10.	Online syndikace - RSS, Atom
+11.	Protokoly pro komunikaci v reálném čase - IRC, Jabber
+12.	Konfigurační protokoly sítě - BOOTP, DHCP, DNS
 13.	Protokoly pro přenos a publikování multimédií - UPnP (DLNA), RTP, RSTP, RCTP</t>
   </si>
   <si>
-    <t>1. Byznys a ICT, použití linuxových technologií v praxi Byznys a ICT GNU/Linux Komerční Linux Red Hat Enterprise Linuxu, vyzkoušení_x000D_
-2. Řešení vysoké dostupnosti na Linuxu Vysoká dostupnost ? teorie, principy Použití a nastavení Red Hat Cluster Suite Sophos UTM jako moderní bezpečnostní řešení postavené na Linuxu Funkce a vlastnosti UTM řešení _x000D_
-3. Bezpečnost v síti, tvorba bezpečnostní politiky ve firemním prostředí IPS/IDS systémy, funkce, nastavení Zabezpečení poštovního serveru, antispam techniky _x000D_
+    <t>1. Byznys a ICT, použití linuxových technologií v praxi Byznys a ICT GNU/Linux Komerční Linux Red Hat Enterprise Linuxu, vyzkoušení
+2. Řešení vysoké dostupnosti na Linuxu Vysoká dostupnost ? teorie, principy Použití a nastavení Red Hat Cluster Suite Sophos UTM jako moderní bezpečnostní řešení postavené na Linuxu Funkce a vlastnosti UTM řešení 
+3. Bezpečnost v síti, tvorba bezpečnostní politiky ve firemním prostředí IPS/IDS systémy, funkce, nastavení Zabezpečení poštovního serveru, antispam techniky 
 4. Virtualizace a provoz IT na virtuální infrastruktuře Základy virtualizace x86 Virtualizační techniky Ukázka moderního virtualizačního nástroje: Red Hat Enterprise Virtualization, VMware vSphere</t>
   </si>
   <si>
-    <t xml:space="preserve">První etapa: motivační semináře (dvouhodinové)_x000D_
-1. Úvod do problematiky otevřených dat (politika v této oblasti i technické náležitosti)_x000D_
-2. Otevřená data v praxi z pohledu veřejné správy_x000D_
-_x000D_
-Druhá etapa: workshopy, nástroje pro open data (dvouhodinové)_x000D_
-1. - 2. Data parsing, data scraping, formáty otevřených dat_x000D_
-3. - 4. Kartografické minimum, GIS a prostorová data, otevřená geodata a jejich vizualizace_x000D_
-5. Datová žurnalistika, případové studie_x000D_
-_x000D_
-Třetí etapa: veřejný 24hodinový hackathon (pod dohledem lektorů, návrh a prezentace vlastního řešení nad open daty)_x000D_
+    <t xml:space="preserve">První etapa: motivační semináře (dvouhodinové)
+1. Úvod do problematiky otevřených dat (politika v této oblasti i technické náležitosti)
+2. Otevřená data v praxi z pohledu veřejné správy
+Druhá etapa: workshopy, nástroje pro open data (dvouhodinové)
+1. - 2. Data parsing, data scraping, formáty otevřených dat
+3. - 4. Kartografické minimum, GIS a prostorová data, otevřená geodata a jejich vizualizace
+5. Datová žurnalistika, případové studie
+Třetí etapa: veřejný 24hodinový hackathon (pod dohledem lektorů, návrh a prezentace vlastního řešení nad open daty)
 </t>
   </si>
   <si>
-    <t>1. typový systém ve staticky typovaných objektových programovacích jazycích_x000D_
-2.- 3. polymorfismus založený na sdíleném rozhraní (protokolu)_x000D_
-4. polymorfismus založený na dědičnosti (specifikátory přístupu)_x000D_
-5. návrhové vzory (principy a cíle)_x000D_
-6.- 7. vytvářející návrhové vzory (Tovární metody a objekty, Jedináček)_x000D_
-8.- 9. strukturální návrhové vzory (Adaptér, Dekorátor, Most, Muší váha)_x000D_
-10.- 11. vzory týkající se chování (Příkaz, Pozorovatel, Memo)_x000D_
+    <t>1. typový systém ve staticky typovaných objektových programovacích jazycích
+2.- 3. polymorfismus založený na sdíleném rozhraní (protokolu)
+4. polymorfismus založený na dědičnosti (specifikátory přístupu)
+5. návrhové vzory (principy a cíle)
+6.- 7. vytvářející návrhové vzory (Tovární metody a objekty, Jedináček)
+8.- 9. strukturální návrhové vzory (Adaptér, Dekorátor, Most, Muší váha)
+10.- 11. vzory týkající se chování (Příkaz, Pozorovatel, Memo)
 12.- 13. návrh, diskuse a počáteční implementace seminárního projektu</t>
   </si>
   <si>
@@ -1265,31 +1259,30 @@
 12.	Zálohování dat a systému, nastavení a automatizace</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Formulace úloh optimalizace, volné a vázané extrémy, spojitá a diskrétní optimalizace, konvexní optimalizace, vícekriteriální optimalizace, příklady typických úloh_x000D_
-2. Možnosti výpočtu derivací a gradientů: symbolická derivace, numerická derivace, principy automatické diferenciace_x000D_
-3. Hledání minima v 1D: hledání minima ve směru, metoda zlatého řezu, Fibonacciho metoda_x000D_
-4. - 5. Metody prvního řádu pro hledání minima: gradientní metoda, metoda konjugovaných gradientů, Nesterova metoda, metody Adagrad, RMSProp, Adam_x000D_
-6. Metody druhého řádu: Newtonova metoda, kvazi-Newtonovské metody_x000D_
-7. Metoda nejmenších čtverců: lineární, nelineární, Levenbergova-Marquardtova metoda_x000D_
-8. Metody minimalizace bez výpočtu derivace: Hookova-Jeevesova metoda, Powellova metoda, Nelderova-Meadova metoda_x000D_
-9. - 10. Principy stochastických a populačních metod: simulované žíhání, metody particle swarm, firefly metoda a cockoo search_x000D_
-11. - 12. Úlohy s omezeními: Lagrangeova metoda, KKT podmínky, Lagrangeova dualita, penaltové metody_x000D_
-13. - 14. Kvadratické programování: formulace, příklady užití (SVM) a možnosti řešení_x000D_
+    <t xml:space="preserve">1. Formulace úloh optimalizace, volné a vázané extrémy, spojitá a diskrétní optimalizace, konvexní optimalizace, vícekriteriální optimalizace, příklady typických úloh
+2. Možnosti výpočtu derivací a gradientů: symbolická derivace, numerická derivace, principy automatické diferenciace
+3. Hledání minima v 1D: hledání minima ve směru, metoda zlatého řezu, Fibonacciho metoda
+4. - 5. Metody prvního řádu pro hledání minima: gradientní metoda, metoda konjugovaných gradientů, Nesterova metoda, metody Adagrad, RMSProp, Adam
+6. Metody druhého řádu: Newtonova metoda, kvazi-Newtonovské metody
+7. Metoda nejmenších čtverců: lineární, nelineární, Levenbergova-Marquardtova metoda
+8. Metody minimalizace bez výpočtu derivace: Hookova-Jeevesova metoda, Powellova metoda, Nelderova-Meadova metoda
+9. - 10. Principy stochastických a populačních metod: simulované žíhání, metody particle swarm, firefly metoda a cockoo search
+11. - 12. Úlohy s omezeními: Lagrangeova metoda, KKT podmínky, Lagrangeova dualita, penaltové metody
+13. - 14. Kvadratické programování: formulace, příklady užití (SVM) a možnosti řešení
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. - 2. Paralelní hardware (Flynnova taxonomie, volně a těsně vázané systémy, NUMA, SIMD podpora na plaformě AMD/Intel x86_64, AMD, výpočetní clustery, masivní paralelismus prostřednictvím GPGU)_x000D_
-3. Omezení paralelismu (Amdahlův a Gustafsonův zákon, organizace paměti, vliv mezipaměti), paralelismus z pohledu softwaru (asynchronní a souběžné programování, výpočetní vlákna, datově a úlohově orientovaný paralelismus, sdílení paměti versus předávání zpráv, synchronizace využitelná pro HPC úlohy)_x000D_
-4. Modul multiprocessing, paralelní map, explicitní využívání komunikačních front_x000D_
-5. - 6. MPI v Pythonu (point-to-point communication, kolektivní komunikace)_x000D_
-7. - 8. Paralelismus nad sdílenou pamětí, OpenMP a jeho využití v Pythonu (Numba, Cython, integrace kódu v jazyce C)_x000D_
-9. - 11. Využití platformy CUDA v Pythonu (Numba Cuda, Python CUDA)_x000D_
-12. - 14. Moderní přístupy k HPC paralelismu (např. paralelismus v jazyce Julia, Intel oneAPI, obsah se bude přizpůsobovat aktuálním trendům)_x000D_
-Exkurze + cvičení_x000D_
-1. - 3. Motivační exkurze, podpora paralelismu v OS Linux, instalace a zprovoznění, profiling kódu, benchmarking_x000D_
-4. - 14. Řešení praktických úloh a implementace základních paralelních algoritmů s využitím nástrojů zavedených v rámci přednášek_x000D_
-_x000D_
-Předmět je vyučován v anglickém jazyce._x000D_
+    <t xml:space="preserve">1. - 2. Paralelní hardware (Flynnova taxonomie, volně a těsně vázané systémy, NUMA, SIMD podpora na plaformě AMD/Intel x86_64, AMD, výpočetní clustery, masivní paralelismus prostřednictvím GPGU)
+3. Omezení paralelismu (Amdahlův a Gustafsonův zákon, organizace paměti, vliv mezipaměti), paralelismus z pohledu softwaru (asynchronní a souběžné programování, výpočetní vlákna, datově a úlohově orientovaný paralelismus, sdílení paměti versus předávání zpráv, synchronizace využitelná pro HPC úlohy)
+4. Modul multiprocessing, paralelní map, explicitní využívání komunikačních front
+5. - 6. MPI v Pythonu (point-to-point communication, kolektivní komunikace)
+7. - 8. Paralelismus nad sdílenou pamětí, OpenMP a jeho využití v Pythonu (Numba, Cython, integrace kódu v jazyce C)
+9. - 11. Využití platformy CUDA v Pythonu (Numba Cuda, Python CUDA)
+12. - 14. Moderní přístupy k HPC paralelismu (např. paralelismus v jazyce Julia, Intel oneAPI, obsah se bude přizpůsobovat aktuálním trendům)
+Exkurze + cvičení
+1. - 3. Motivační exkurze, podpora paralelismu v OS Linux, instalace a zprovoznění, profiling kódu, benchmarking
+4. - 14. Řešení praktických úloh a implementace základních paralelních algoritmů s využitím nástrojů zavedených v rámci přednášek
+Předmět je vyučován v anglickém jazyce.
 </t>
   </si>
   <si>
@@ -1314,16 +1307,16 @@
 2. měření fyzikálních charakteristik (napětí, proud, výkon aj.), diagnostika a testování</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Stabilita, zdroje zaokrouhlovacích chyb a jejich vliv_x000D_
-2. - 3. Přímé metody pro řešení lineárních rovnic: GEM, LU rozklad, Choleského faktorizace, QR faktorizace a jejich aplikace_x000D_
-4. - 5. Iterační metody pro řešení lineárních rovnic: Jacobiova, Gaussova-Seidelova metoda, SOR, gradientní metoda a metoda sdružených gradientů_x000D_
-6. - 7. Vlastní čísla a jejich výpočet: odhady vlastních čísel, částečný problém vlastních čísel (mocninná metoda), úplný problém vlastních čísel (QR iterace a konstrukce QR rozkladu)_x000D_
-8. SVD rozklad, jeho výpočet a aplikace_x000D_
-9. Iterační metody řešení nelineárních rovnic a jejich soustav: Newtonova metoda a její varianty, metoda prosté iterace, metody pevného bodu a jejich konvergence_x000D_
-10. Hledání kořenů polynomů: odhady kořenů polynomů, Newtonova-Hornerova metoda, Mullerova metoda, Bernoulliova metoda_x000D_
-11. Numerická kvadratura: zopakování základních metod pro jednorozměrné integrály (Newtonovy-Cotesovy vzorce), Gaussova kvadratura, výpočet nevlastních integrálů, adaptivní přístupy, redukce pro vícerozměrné integrály a metoda Monte Carlo_x000D_
-12. Řešení ODR a jejich soustav: jednokrokové a vícekrokové metody, metody prediktor-korektor, metody Rungeho-Kutty, stiff problémy a stabilita metod_x000D_
-13. Aproximace a interpolace funkcí: zopakování základních metod (interpolace polynomem aj.), kubický spline, Čebyševovská aproximace_x000D_
+    <t xml:space="preserve">1. Stabilita, zdroje zaokrouhlovacích chyb a jejich vliv
+2. - 3. Přímé metody pro řešení lineárních rovnic: GEM, LU rozklad, Choleského faktorizace, QR faktorizace a jejich aplikace
+4. - 5. Iterační metody pro řešení lineárních rovnic: Jacobiova, Gaussova-Seidelova metoda, SOR, gradientní metoda a metoda sdružených gradientů
+6. - 7. Vlastní čísla a jejich výpočet: odhady vlastních čísel, částečný problém vlastních čísel (mocninná metoda), úplný problém vlastních čísel (QR iterace a konstrukce QR rozkladu)
+8. SVD rozklad, jeho výpočet a aplikace
+9. Iterační metody řešení nelineárních rovnic a jejich soustav: Newtonova metoda a její varianty, metoda prosté iterace, metody pevného bodu a jejich konvergence
+10. Hledání kořenů polynomů: odhady kořenů polynomů, Newtonova-Hornerova metoda, Mullerova metoda, Bernoulliova metoda
+11. Numerická kvadratura: zopakování základních metod pro jednorozměrné integrály (Newtonovy-Cotesovy vzorce), Gaussova kvadratura, výpočet nevlastních integrálů, adaptivní přístupy, redukce pro vícerozměrné integrály a metoda Monte Carlo
+12. Řešení ODR a jejich soustav: jednokrokové a vícekrokové metody, metody prediktor-korektor, metody Rungeho-Kutty, stiff problémy a stabilita metod
+13. Aproximace a interpolace funkcí: zopakování základních metod (interpolace polynomem aj.), kubický spline, Čebyševovská aproximace
 </t>
   </si>
   <si>
@@ -1334,28 +1327,28 @@
 5. PHP (práce s databázemi)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Prohloubení základů syntaxe a základních konstrukcí jazyků Python a R_x000D_
-2. Základy práce s daty a datovými soubory a jejich vizualizace_x000D_
-3. Pokročilé techniky práce s daty a datovými soubory (import, čištění dat aj.)_x000D_
-4. Pokročilé techniky vizualizace dat_x000D_
-5. - 6. Explorační analýza dat, vybrané pokročilé statistické metody (korelační, regresní analýza, faktorová, shluková analýza aj.), inferenční statistika_x000D_
-7. - 8. Základní aplikace metod strojového učení (vybrané klasifikátory či algoritmy pro regresi a shlukování)_x000D_
-9. Základy textové analýzy, analýza sentimentu_x000D_
-10. Analýza sítí_x000D_
-11. - 12. Reporty, dashboardy a interaktivní vizualizace dat_x000D_
-13. Shrnutí, diskuse nad zadáními seminárních prací_x000D_
+    <t xml:space="preserve">1. Prohloubení základů syntaxe a základních konstrukcí jazyků Python a R
+2. Základy práce s daty a datovými soubory a jejich vizualizace
+3. Pokročilé techniky práce s daty a datovými soubory (import, čištění dat aj.)
+4. Pokročilé techniky vizualizace dat
+5. - 6. Explorační analýza dat, vybrané pokročilé statistické metody (korelační, regresní analýza, faktorová, shluková analýza aj.), inferenční statistika
+7. - 8. Základní aplikace metod strojového učení (vybrané klasifikátory či algoritmy pro regresi a shlukování)
+9. Základy textové analýzy, analýza sentimentu
+10. Analýza sítí
+11. - 12. Reporty, dashboardy a interaktivní vizualizace dat
+13. Shrnutí, diskuse nad zadáními seminárních prací
 </t>
   </si>
   <si>
-    <t>1. Vnořené poddotazy SELECT a jejich (efektivnější) alternativy (analytické funkce, DISTINCT ON)_x000D_
-2. Indexové soubory a analýza dotazů (efektivní implementace operace JOIN)_x000D_
-3. Fulltextové vyhledávání_x000D_
-4. Rekurzivní CTE a representace hierarchií_x000D_
-5. Pohledy a procedurální rozšíření SQL_x000D_
-6. Kurzory_x000D_
-7. Triggery_x000D_
-8. DCL a správa uživatelů_x000D_
-9. ? 10. Vysokoúrovňový přístup na straně klienta (ORM)_x000D_
+    <t>1. Vnořené poddotazy SELECT a jejich (efektivnější) alternativy (analytické funkce, DISTINCT ON)
+2. Indexové soubory a analýza dotazů (efektivní implementace operace JOIN)
+3. Fulltextové vyhledávání
+4. Rekurzivní CTE a representace hierarchií
+5. Pohledy a procedurální rozšíření SQL
+6. Kurzory
+7. Triggery
+8. DCL a správa uživatelů
+9. ? 10. Vysokoúrovňový přístup na straně klienta (ORM)
 11. ? 13. Administrace databázových systémů (optimalizace výkonu, archivace)</t>
   </si>
   <si>
@@ -1374,16 +1367,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Úvod do počítačových simulací (typy simulací, cíle simulací, oblasti použití, moderní trendy) s důrazem na stochastické simulace a spojité a částicové modelování dynamických systémů_x000D_
-2.	Diskrétní událostmi řízené simulace v SimPy (principy, základní typy objektů, implementace pomocí korutin), praktický návrh simulace, její implementace a vizualizace_x000D_
-3.	Komerční systémy pro diskrétní simulace a vizualizace (Simio, SIMUL8 aj.) včetně real-time 3D simulačních systémů_x000D_
-4.	Dynamické systémy (jejich popis, vazby, rovnováha a přechodový stav, lineární odezva systému aj.), základní metody pro modelování vývoje dynamických systémů (soustavy obyčejných diferenciálních rovnic)_x000D_
-5.	SimuPy, nástroj pro spojité modelování dynamických systémů založený na jazyku Python (definice objektu, vazby objektů, metody řešení, vizualizace výsledků)_x000D_
-6.	Praktické řešení dynamických systémů pomocí SimuPy: fyzikální nebo biologické modely_x000D_
-7.	Dynamické modelování částicových systémů, popisy systémů (škály), metody a moderní trendy, paralelizace, simulační balíky a analýza trajektorií pomocí jazyka Python (např. LAMMPS, MDAnalysis aj.)_x000D_
-8.	Deterministické a stochastické modelování jednoduchých a komplexních částicových systémů (počítačové modely, metody, vizualizace)_x000D_
-9.	Praktické řešení úloh zaměřených na modelování deterministických a stochastických částicových systémů_x000D_
-Předmět je vyučován v anglickém jazyce._x000D_
+    <t xml:space="preserve">1.	Úvod do počítačových simulací (typy simulací, cíle simulací, oblasti použití, moderní trendy) s důrazem na stochastické simulace a spojité a částicové modelování dynamických systémů
+2.	Diskrétní událostmi řízené simulace v SimPy (principy, základní typy objektů, implementace pomocí korutin), praktický návrh simulace, její implementace a vizualizace
+3.	Komerční systémy pro diskrétní simulace a vizualizace (Simio, SIMUL8 aj.) včetně real-time 3D simulačních systémů
+4.	Dynamické systémy (jejich popis, vazby, rovnováha a přechodový stav, lineární odezva systému aj.), základní metody pro modelování vývoje dynamických systémů (soustavy obyčejných diferenciálních rovnic)
+5.	SimuPy, nástroj pro spojité modelování dynamických systémů založený na jazyku Python (definice objektu, vazby objektů, metody řešení, vizualizace výsledků)
+6.	Praktické řešení dynamických systémů pomocí SimuPy: fyzikální nebo biologické modely
+7.	Dynamické modelování částicových systémů, popisy systémů (škály), metody a moderní trendy, paralelizace, simulační balíky a analýza trajektorií pomocí jazyka Python (např. LAMMPS, MDAnalysis aj.)
+8.	Deterministické a stochastické modelování jednoduchých a komplexních částicových systémů (počítačové modely, metody, vizualizace)
+9.	Praktické řešení úloh zaměřených na modelování deterministických a stochastických částicových systémů
+Předmět je vyučován v anglickém jazyce.
 </t>
   </si>
   <si>
@@ -1416,82 +1409,81 @@
 redukce: NP-těžký problém, NP-úplný problém; výpočetně obtížné problémy teorie grafů</t>
   </si>
   <si>
-    <t>1. Relační databáze (principy) a relační databázové systémy (přehled a klasifikace)_x000D_
-2. Principy konceptuálního návrhu (entity, atributy a relační vztahy, ERD)_x000D_
-3. Kandidátní klíče a normalizace databází (normální formy)_x000D_
-4. DDL ? příkazy pro práci s tabulkami (CREATE, ALTER, DROP, datové typy a integritní omezení)_x000D_
-5. DML ? příkazy pro práci s daty (INSERT, UPDATE, DELETE)_x000D_
-6. Základní tvar příkazu SELECT (SELECT, FROM, WHERE, ORDER BY)_x000D_
-7. Relační vztahy mezi tabulkami a jejich representace_x000D_
-8. Vnitřní spojení (INNER JOIN)_x000D_
-9. Vnější spojení (OUTER JOIN) a další typy spojení_x000D_
-10. Seskupování (GROUP BY, HAVING) a agregační funkce_x000D_
-11. Transakce_x000D_
+    <t>1. Relační databáze (principy) a relační databázové systémy (přehled a klasifikace)
+2. Principy konceptuálního návrhu (entity, atributy a relační vztahy, ERD)
+3. Kandidátní klíče a normalizace databází (normální formy)
+4. DDL ? příkazy pro práci s tabulkami (CREATE, ALTER, DROP, datové typy a integritní omezení)
+5. DML ? příkazy pro práci s daty (INSERT, UPDATE, DELETE)
+6. Základní tvar příkazu SELECT (SELECT, FROM, WHERE, ORDER BY)
+7. Relační vztahy mezi tabulkami a jejich representace
+8. Vnitřní spojení (INNER JOIN)
+9. Vnější spojení (OUTER JOIN) a další typy spojení
+10. Seskupování (GROUP BY, HAVING) a agregační funkce
+11. Transakce
 12. ? 13. Základní programový přístup k databázím</t>
   </si>
   <si>
-    <t>_x000D_
-1. Základy fyziky polovodičů, elektrická vodivost vodičů, nevodičů, polovodičů, intrinzitní, extrinzitní_x000D_
-vodivost, PN přechod)_x000D_
-2. Základní pojmy obvodové elektroniky (I, U, R, C, Q, AC/DC, zdroje napětí a proudu, VA charakteristiky)_x000D_
-3. Řešení elektrických obvodů stejnosměrného proudu (Ohmův zákon, Théveninova věta, Nortonova věta,_x000D_
-řešení obvodů dle Kirchhoffových zákonů, smyčkových proudů, uzlových napětí, lineární superpozice)_x000D_
-4. Řešení obvodů střídavého proudu (induktance, kapacitance, fázové posunutí proudu a napětí na C a L,_x000D_
-fázorový diagram, rezonance)_x000D_
-5. Grafické řešení nelineárních elektronických obvodů_x000D_
-6. Náhradní lineární obvody (jednobran, dvojbran, admitanční a impedanční rovnice)_x000D_
-7. Pasivní součásti elektrických obvodů (RLC)_x000D_
-Digitální část_x000D_
-8. Digitální signál, bit, byte, číselné soustavy, kódy, BCD, ASCII_x000D_
-9. Logické funkce, Booleova algebra, logické výrazy_x000D_
-10. Kombinační logické sítě_x000D_
-11. Minimalizace normálních forem výrazů_x000D_
-12. Syntéza kombinačních obvodů_x000D_
+    <t xml:space="preserve">
+1. Základy fyziky polovodičů, elektrická vodivost vodičů, nevodičů, polovodičů, intrinzitní, extrinzitní
+vodivost, PN přechod)
+2. Základní pojmy obvodové elektroniky (I, U, R, C, Q, AC/DC, zdroje napětí a proudu, VA charakteristiky)
+3. Řešení elektrických obvodů stejnosměrného proudu (Ohmův zákon, Théveninova věta, Nortonova věta,
+řešení obvodů dle Kirchhoffových zákonů, smyčkových proudů, uzlových napětí, lineární superpozice)
+4. Řešení obvodů střídavého proudu (induktance, kapacitance, fázové posunutí proudu a napětí na C a L,
+fázorový diagram, rezonance)
+5. Grafické řešení nelineárních elektronických obvodů
+6. Náhradní lineární obvody (jednobran, dvojbran, admitanční a impedanční rovnice)
+7. Pasivní součásti elektrických obvodů (RLC)
+Digitální část
+8. Digitální signál, bit, byte, číselné soustavy, kódy, BCD, ASCII
+9. Logické funkce, Booleova algebra, logické výrazy
+10. Kombinační logické sítě
+11. Minimalizace normálních forem výrazů
+12. Syntéza kombinačních obvodů
 13. Fyzikální realizace a analýza kombinačních logických členů</t>
   </si>
   <si>
-    <t>1. Základní pojmy kryptologie, Modulární aritmetika_x000D_
-2. Generátory (pseudo)náhodných čísel, testy prvočíselnosti_x000D_
-3. Klasická kryptologie (substituční a transpoziční šifry)_x000D_
-4. Symetrická kryptografie ? blokové šifry (DES, AES)_x000D_
-5. Symetrická kryptografie ? proudové šifry (A5, Salsa20, Chacha20)_x000D_
-6. Kryptografie veřejného klíče (RSA, DSA, DH)_x000D_
-7. Hashovací funkce (MD5, SHA, digitální podpis ? princip)_x000D_
-8. Digitální měny, HW a SW peněženky, blockchain (principy)_x000D_
-9. Důvěrnost, integrita, dostupnost (princip, klasifikace, prostředky, algoritmy)_x000D_
-10. Řízení bezpečnosti dat (služby, metody, ověření bezpečnosti)_x000D_
-11. Analýza hrozeb a rizik (aktiva, zranitelnost, ohrožení, opatření), soudobé hrozby informačních technologií_x000D_
-(typy, techniky, možnosti)_x000D_
-12. AAA framework (principy, dělení, účel, protokoly, využití)_x000D_
-13. Protokoly a metody bezpečnosti a ochrany dat v prostředí Internetu_x000D_
+    <t>1. Základní pojmy kryptologie, Modulární aritmetika
+2. Generátory (pseudo)náhodných čísel, testy prvočíselnosti
+3. Klasická kryptologie (substituční a transpoziční šifry)
+4. Symetrická kryptografie ? blokové šifry (DES, AES)
+5. Symetrická kryptografie ? proudové šifry (A5, Salsa20, Chacha20)
+6. Kryptografie veřejného klíče (RSA, DSA, DH)
+7. Hashovací funkce (MD5, SHA, digitální podpis ? princip)
+8. Digitální měny, HW a SW peněženky, blockchain (principy)
+9. Důvěrnost, integrita, dostupnost (princip, klasifikace, prostředky, algoritmy)
+10. Řízení bezpečnosti dat (služby, metody, ověření bezpečnosti)
+11. Analýza hrozeb a rizik (aktiva, zranitelnost, ohrožení, opatření), soudobé hrozby informačních technologií
+(typy, techniky, možnosti)
+12. AAA framework (principy, dělení, účel, protokoly, využití)
+13. Protokoly a metody bezpečnosti a ochrany dat v prostředí Internetu
 14. Ochrana dat na úrovni kabelových sítí (principy, dělení, využití)</t>
   </si>
   <si>
-    <t>1. Historie vývoje sítí, principy, využití, základní pojmy._x000D_
-2. Adresování v počítačových sítích: třídy, rozdělení adres, maska, IPv4 a IPv6, DNS, URL._x000D_
-3. Architektura Internetu: organizace a správa, standardy a struktura Internetu, způsoby připojení._x000D_
-4. Vrstvové modely sítí: model ISO/OSI ? princip, vrstvy, služby, účel, využití._x000D_
-5. Vrstvové modely sítí: model TCP/IP ? princip, vrstvy, protokoly, služby, účel, využití._x000D_
-6. Síťové technologie: rozdělení, principy, architektury, využití._x000D_
-7. Aktivní prvky v sítích: dělení, princip činnosti, přenos dat. Infrastruktura sítě: účel, základní dělení a využití._x000D_
-8. Přenosová média: dělení, vlastnosti, typy, konektory, vodiče, použití._x000D_
-9. Klasifikace sítí: rozlehlost, topologie, postavení uzlů, analogové a digitální sítě._x000D_
-10. Principy datových přenosů: rozdělení, typy, přenos dat._x000D_
-11. Přístupové metody: účel, základní dělení, činnosti, příklady použití._x000D_
-12. Ethernet: popis, druhy, kabeláž, bloky dat._x000D_
-13. Náhled do bezdrátových technologií: druhy, topologie, princip činnosti, architektura._x000D_
-_x000D_
-V rámci laboratoří si student prakticky vyzkouší nabyté vědomosti v emulačním programu Packet Tracer. Laboratorní_x000D_
+    <t>1. Historie vývoje sítí, principy, využití, základní pojmy.
+2. Adresování v počítačových sítích: třídy, rozdělení adres, maska, IPv4 a IPv6, DNS, URL.
+3. Architektura Internetu: organizace a správa, standardy a struktura Internetu, způsoby připojení.
+4. Vrstvové modely sítí: model ISO/OSI ? princip, vrstvy, služby, účel, využití.
+5. Vrstvové modely sítí: model TCP/IP ? princip, vrstvy, protokoly, služby, účel, využití.
+6. Síťové technologie: rozdělení, principy, architektury, využití.
+7. Aktivní prvky v sítích: dělení, princip činnosti, přenos dat. Infrastruktura sítě: účel, základní dělení a využití.
+8. Přenosová média: dělení, vlastnosti, typy, konektory, vodiče, použití.
+9. Klasifikace sítí: rozlehlost, topologie, postavení uzlů, analogové a digitální sítě.
+10. Principy datových přenosů: rozdělení, typy, přenos dat.
+11. Přístupové metody: účel, základní dělení, činnosti, příklady použití.
+12. Ethernet: popis, druhy, kabeláž, bloky dat.
+13. Náhled do bezdrátových technologií: druhy, topologie, princip činnosti, architektura.
+V rámci laboratoří si student prakticky vyzkouší nabyté vědomosti v emulačním programu Packet Tracer. Laboratorní
 úlohy budou zaměřeny na základní konfiguraci, statické a dynamické routování.</t>
   </si>
   <si>
-    <t>1.- 2. Úvod do průmyslové automatizace se zaměřením na řízení procesů _x000D_
-3.- 4. Přehled aktorik a senzorik v procesní průmyslové automatizaci _x000D_
-5.- 6. Projektová dokumentace MaR a ASŘTP (měření a regulace, automatizovaný systém řízení technologických procesů) _x000D_
-7. Komunikační rozhraní _x000D_
-8.- 10. PLC, HMI, SCADA a DCS _x000D_
-11. Specifika prostředí EX _x000D_
-12. Úvod do funkční bezpečnosti _x000D_
+    <t>1.- 2. Úvod do průmyslové automatizace se zaměřením na řízení procesů 
+3.- 4. Přehled aktorik a senzorik v procesní průmyslové automatizaci 
+5.- 6. Projektová dokumentace MaR a ASŘTP (měření a regulace, automatizovaný systém řízení technologických procesů) 
+7. Komunikační rozhraní 
+8.- 10. PLC, HMI, SCADA a DCS 
+11. Specifika prostředí EX 
+12. Úvod do funkční bezpečnosti 
 13. ? 14. Základní postupy při řešení zakázek v průmyslu</t>
   </si>
   <si>

--- a/results/chybi_seminarici.xlsx
+++ b/results/chybi_seminarici.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="416">
   <si>
     <t>katedra</t>
   </si>
@@ -223,12 +223,24 @@
     <t>cMax</t>
   </si>
   <si>
+    <t>KCH</t>
+  </si>
+  <si>
     <t>KI</t>
   </si>
   <si>
+    <t>KGEO</t>
+  </si>
+  <si>
+    <t>BK316</t>
+  </si>
+  <si>
     <t>KAFJ</t>
   </si>
   <si>
+    <t>KANE</t>
+  </si>
+  <si>
     <t>KAPR1</t>
   </si>
   <si>
@@ -256,6 +268,9 @@
     <t>KODT</t>
   </si>
   <si>
+    <t>KOOD</t>
+  </si>
+  <si>
     <t>KOONV</t>
   </si>
   <si>
@@ -271,12 +286,21 @@
     <t>KPCA</t>
   </si>
   <si>
+    <t>KPDSA</t>
+  </si>
+  <si>
+    <t>KPEK</t>
+  </si>
+  <si>
     <t>KPNUM</t>
   </si>
   <si>
     <t>KPRI</t>
   </si>
   <si>
+    <t>KPSE</t>
+  </si>
+  <si>
     <t>KPYR</t>
   </si>
   <si>
@@ -313,9 +337,18 @@
     <t>PAR</t>
   </si>
   <si>
+    <t>PSPP</t>
+  </si>
+  <si>
+    <t>Laboratorní cvičení z biochemie</t>
+  </si>
+  <si>
     <t>Teorie automatů a formálních jazyků</t>
   </si>
   <si>
+    <t>Analogová elektronika</t>
+  </si>
+  <si>
     <t>Algoritmizace a programování I</t>
   </si>
   <si>
@@ -343,6 +376,9 @@
     <t>Open Data</t>
   </si>
   <si>
+    <t>Objektově orientovaný návrh</t>
+  </si>
+  <si>
     <t>Objektově orientované návrhové vzory</t>
   </si>
   <si>
@@ -358,12 +394,21 @@
     <t>Architektura počítačů</t>
   </si>
   <si>
+    <t>Pokročilé datové struktury a algoritmy</t>
+  </si>
+  <si>
+    <t>Podniková ekonomika</t>
+  </si>
+  <si>
     <t>Pokročilé numerické metody</t>
   </si>
   <si>
     <t>Programování pro internet</t>
   </si>
   <si>
+    <t>Počítačové sítě</t>
+  </si>
+  <si>
     <t>Python and R for Data Science</t>
   </si>
   <si>
@@ -394,18 +439,27 @@
     <t>Průmyslová automatizace v praxi</t>
   </si>
   <si>
+    <t>Přípravný seminář k pedagogické praxi</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>NE</t>
   </si>
   <si>
+    <t>'RNDr. Thu Huong Nguyen Thi, Ph.D.'</t>
+  </si>
+  <si>
     <t>'doc. Ing. Mgr. Jiří Barilla, CSc.'</t>
   </si>
   <si>
+    <t>'doc. RNDr. František Lustig, CSc.'</t>
+  </si>
+  <si>
     <t>'Mgr. Jiří Fišer, Ph.D.'</t>
   </si>
   <si>
@@ -427,21 +481,33 @@
     <t>'doc. RNDr. Mgr. Viktor Maškov, DrSc.'</t>
   </si>
   <si>
+    <t>'Ing. Štěpánka Zimová'</t>
+  </si>
+  <si>
     <t>'RNDr. Jiří Škvor, Ph.D.'</t>
   </si>
   <si>
     <t>'RNDr. Martin Kuřil, Ph.D.'</t>
   </si>
   <si>
+    <t>'Mgr. Petr Trahorsch, Ph.D.'</t>
+  </si>
+  <si>
     <t>'doc. Ing. Mgr. Jiří Barilla, CSc.' (100)</t>
   </si>
   <si>
     <t>'RNDr. Petr Kubera, Ph.D.' (100)</t>
   </si>
   <si>
+    <t>[429]</t>
+  </si>
+  <si>
     <t>[449]</t>
   </si>
   <si>
+    <t>[5232]</t>
+  </si>
+  <si>
     <t>[251]</t>
   </si>
   <si>
@@ -463,6 +529,9 @@
     <t>[2239]</t>
   </si>
   <si>
+    <t>[7352]</t>
+  </si>
+  <si>
     <t>[2220]</t>
   </si>
   <si>
@@ -472,6 +541,9 @@
     <t>None</t>
   </si>
   <si>
+    <t>[6384]</t>
+  </si>
+  <si>
     <t>'RNDr. Jan Krejčí, Ph.D.', 'doc. RNDr. Zbyšek Posel, Ph.D.'</t>
   </si>
   <si>
@@ -481,6 +553,9 @@
     <t>'Mgr. Jiří Fišer, Ph.D.', 'doc. RNDr. Zbyšek Posel, Ph.D.'</t>
   </si>
   <si>
+    <t>'Mgr. Jiří Fišer, Ph.D.', 'doc. RNDr. Mgr. Viktor Maškov, DrSc.', 'RNDr. Jiří Škvor, Ph.D.'</t>
+  </si>
+  <si>
     <t>'prof. Sergii Babichev, CSc., DSc.', 'RNDr. Jiří Škvára, Ph.D.', 'RNDr. Jiří Škvor, Ph.D.'</t>
   </si>
   <si>
@@ -499,6 +574,9 @@
     <t>'RNDr. Jan Krejčí, Ph.D.', 'doc. RNDr. Mgr. Viktor Maškov, DrSc.', 'Mgr. Květuše Sýkorová'</t>
   </si>
   <si>
+    <t>'doc. RNDr. František Lustig, CSc.' (100)</t>
+  </si>
+  <si>
     <t>'Mgr. Jiří Fišer, Ph.D.' (100)</t>
   </si>
   <si>
@@ -520,6 +598,12 @@
     <t>'Ing. Pavel Kuba, Ph.D.' (100)</t>
   </si>
   <si>
+    <t>'Mgr. Jiří Fišer, Ph.D.' (100), 'doc. RNDr. Mgr. Viktor Maškov, DrSc.' (100), 'RNDr. Jiří Škvor, Ph.D.' (100)</t>
+  </si>
+  <si>
+    <t>'Ing. Štěpánka Zimová' (100)</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Mgr. Viktor Maškov, DrSc.' (100)</t>
   </si>
   <si>
@@ -550,6 +634,9 @@
     <t>[251, 3521]</t>
   </si>
   <si>
+    <t>[251, 2239, 2220]</t>
+  </si>
+  <si>
     <t>[3416, 6259, 2220]</t>
   </si>
   <si>
@@ -568,6 +655,9 @@
     <t>[2776, 2239, 835]</t>
   </si>
   <si>
+    <t>'Ing. Ivana Kadlečková', 'RNDr. Thu Huong Nguyen Thi, Ph.D.'</t>
+  </si>
+  <si>
     <t>'doc. Ing. Mgr. Jiří Barilla, CSc.', 'RNDr. Jiří Škvor, Ph.D.'</t>
   </si>
   <si>
@@ -589,6 +679,9 @@
     <t>'Mgr. Kamil Balín'</t>
   </si>
   <si>
+    <t>'Mgr. Jiří Fišer, Ph.D.', 'Mgr. Květuše Sýkorová', 'RNDr. Jiří Škvor, Ph.D.'</t>
+  </si>
+  <si>
     <t>'RNDr. Petr Kubera, Ph.D.', 'RNDr. Jiří Škvor, Ph.D.'</t>
   </si>
   <si>
@@ -604,6 +697,9 @@
     <t>'Mgr. Kamil Balín', 'RNDr. Jan Krejčí, Ph.D.'</t>
   </si>
   <si>
+    <t>'Ing. Ivana Kadlečková' (100), 'RNDr. Thu Huong Nguyen Thi, Ph.D.' (100)</t>
+  </si>
+  <si>
     <t>'doc. Ing. Mgr. Jiří Barilla, CSc.' (100), 'RNDr. Jiří Škvor, Ph.D.' (100)</t>
   </si>
   <si>
@@ -625,6 +721,9 @@
     <t>'Mgr. Kamil Balín' (100)</t>
   </si>
   <si>
+    <t>'Mgr. Jiří Fišer, Ph.D.' (100), 'Mgr. Květuše Sýkorová' (100), 'RNDr. Jiří Škvor, Ph.D.' (100)</t>
+  </si>
+  <si>
     <t>'RNDr. Petr Kubera, Ph.D.' (100), 'RNDr. Jiří Škvor, Ph.D.' (100)</t>
   </si>
   <si>
@@ -640,6 +739,12 @@
     <t>'Mgr. Kamil Balín' (100), 'RNDr. Jan Krejčí, Ph.D.' (100)</t>
   </si>
   <si>
+    <t>'Mgr. Petr Trahorsch, Ph.D.' (100)</t>
+  </si>
+  <si>
+    <t>[4226, 429]</t>
+  </si>
+  <si>
     <t>[449, 2220]</t>
   </si>
   <si>
@@ -661,6 +766,9 @@
     <t>[1165]</t>
   </si>
   <si>
+    <t>[251, 835, 2220]</t>
+  </si>
+  <si>
     <t>[650, 2220]</t>
   </si>
   <si>
@@ -676,6 +784,12 @@
     <t>[1165, 2776]</t>
   </si>
   <si>
+    <t>KCH/BK301</t>
+  </si>
+  <si>
+    <t>KI/KZEL</t>
+  </si>
+  <si>
     <t>KI/KAPR1</t>
   </si>
   <si>
@@ -691,6 +805,9 @@
     <t>KI/KDSY, KI/KURDB</t>
   </si>
   <si>
+    <t>KI/KOONV</t>
+  </si>
+  <si>
     <t>KMA/KMADI</t>
   </si>
   <si>
@@ -730,6 +847,15 @@
     <t>KI/KAOS, KI/KLTP, KI/KPOS</t>
   </si>
   <si>
+    <t>KI/KPAR</t>
+  </si>
+  <si>
+    <t>KI/KEIS</t>
+  </si>
+  <si>
+    <t>KI/KPPS</t>
+  </si>
+  <si>
     <t>KI/KASO1, KI/KCRS, KI/KSOC</t>
   </si>
   <si>
@@ -748,115 +874,146 @@
     <t>KI/KAIIT, KI/KAIT, KI/KITP, KI/KUBT</t>
   </si>
   <si>
-    <t>'Chytil M. Automaty a gramatiky. SNTL, Praha, 1984. ',_x000D_
-'Hopocroft J., Ulman J. Introduction to Automata Theory, Languages and Computation. Addison Wesley, 1979. ',_x000D_
-'Chytil M. Teorie automatů a formálních jazyků. (Skripta), SPN Praha, 1978. ',_x000D_
-'Meduna A. Automata and Languages. Springer, 2000. ',_x000D_
-'Hopocroft J., Ulman J. Formálne jazyky a automaty. ALFA Bratislava, 1978. ',_x000D_
+    <t>'Chytil M. Automaty a gramatiky. SNTL, Praha, 1984. ',
+'Hopocroft J., Ulman J. Introduction to Automata Theory, Languages and Computation. Addison Wesley, 1979. ',
+'Chytil M. Teorie automatů a formálních jazyků. (Skripta), SPN Praha, 1978. ',
+'Meduna A. Automata and Languages. Springer, 2000. ',
+'Hopocroft J., Ulman J. Formálne jazyky a automaty. ALFA Bratislava, 1978. ',
 'Kolář J., Štěpánková O., Chytil M. Logika, algebry a grafy. SNTL Praha, 1989. '</t>
   </si>
   <si>
-    <t>'https://github.com/jakevdp/WhirlwindTourOfPython',_x000D_
-'Pilgrim, M. Ponořme se do Python(u) 3. Praha, 2010. ISBN 978-80-904248-2-1.',_x000D_
-'http://howto.py.cz/index.htm',_x000D_
-'Hetland, M.L. Python Algorithms: Mastering Basic Algorithms in the Python Language. Apress Media, New York City, 2014. ISBN 978-1-4842-0.',_x000D_
+    <t>'Tichý, M. Elektronika, dostupné na internetu https://physics.mff.cuni.cz/kfpp/skripta/elektronika/. ',
+'Kesl, J. Elektronika I- analogová technika, Technická literatura BEN, Praha 2005. ',
+'Z. Strýhal, D. Sedlák. Elektronika. Ústí nad Labem, skripta UJEP, 2003. ',
+'K. Rauner. Elektronika (fyzikální a analogová část), skriptum ZČU Plzeň, 2013, ISBN 80-708-2775-0. ',
+'Horowitz, P., Hill, W. The Art of Electronics, Publisher: Cambridge University Press, 2015, ISBN 9780521809269. '</t>
+  </si>
+  <si>
+    <t>'https://github.com/jakevdp/WhirlwindTourOfPython',
+'Pilgrim, M. Ponořme se do Python(u) 3. Praha, 2010. ISBN 978-80-904248-2-1.',
+'http://howto.py.cz/index.htm',
+'Hetland, M.L. Python Algorithms: Mastering Basic Algorithms in the Python Language. Apress Media, New York City, 2014. ISBN 978-1-4842-0.',
 'Summerfield, M. Python 3: výukový kurz. Computer Press, Brno, 2010. ISBN 978-80-251-2737-7.'</t>
   </si>
   <si>
-    <t>'https://github.com/jakevdp/WhirlwindTourOfPython',_x000D_
-'http://diveintopython3.py.cz/index.html',_x000D_
-'http://howto.py.cz/index.htm',_x000D_
-'Hetland, M.L. Python Algorithms: Mastering Basic Algorithms in the Python Language. Apress Media, New York City, 2014. ISBN 978-1-4842-0055-1.',_x000D_
+    <t>'https://github.com/jakevdp/WhirlwindTourOfPython',
+'http://diveintopython3.py.cz/index.html',
+'http://howto.py.cz/index.htm',
+'Hetland, M.L. Python Algorithms: Mastering Basic Algorithms in the Python Language. Apress Media, New York City, 2014. ISBN 978-1-4842-0055-1.',
 'Summerfield, M. Python 3: výukový kurz. Computer Press, Brno, 2010. ISBN 978-80-251-2737-7.'</t>
   </si>
   <si>
-    <t>'Gook M. Hardwarová rozhraní: průvodce programátora. Computer Press, Brno, 2006. Computer Press, Brno, 2006. ISBN 80-251-1019-2.',_x000D_
-'Malý, M. Hradla, volty, jednočipy - Úvod do bastlení. Praha, CZ.NIC, z.s.p.o., 2017. CZ.NIC, 2018. ISBN 978-1593276126.',_x000D_
-'Frištacký,N., Kolesár,M., Kolenička, J., Hlavatý,J. Logické systémy, Bratislava, Alfa Bratislava, 1986. ',_x000D_
-'Kaprálik, P., Galanová, J., Polakovič, M. Logické systémy. STU, 2007. ',_x000D_
-'Pirogov V. Mistrovství v jazyce Assembler. Computer Press, 2005. Computer Press, 2005. ISBN 80-251-0888-0.',_x000D_
-'Miroslav Virius. Od C k C++. Kopp, České Budějovice, 2000. 2000. ',_x000D_
-'Bernard J. M., Hugon L., Covec J. H. Od logických obvodů k mikroprocesorům. Díl I, II, III a IV. SNTL, 1984. ',_x000D_
-'VODA, Zbyšek. Průvodce světem Arduina. Bučovice, Martin Stříž, 2017. Vydání druhé. Bučovice: Martin Stříž, 2017. ISBN 978-80-87106-93-8.',_x000D_
-'Herout P. Učebnice jazyka C. KOPP, České Budějovice, 2000. ISBN 978-80-7232-351-7.',_x000D_
-'Margolis M. Arduino Cookbook. O´Reilly, 2011. O Reilly, 2011. ISBN 978-1-4493-0310-5.',_x000D_
-'Bokr, J. Logické objekty a řízení I. Plzeň: ZČU, 1992. ',_x000D_
-'Bayer, J., Hanzálek, Z., Šusta, R. Logické systémy pro řízení. ČVUT, Praha 2000. ',_x000D_
-'Douša J., Jáneš V. Teorie automatů. ČVUT. Praha 1988. ',_x000D_
+    <t>'Gook M. Hardwarová rozhraní: průvodce programátora. Computer Press, Brno, 2006. Computer Press, Brno, 2006. ISBN 80-251-1019-2.',
+'Malý, M. Hradla, volty, jednočipy - Úvod do bastlení. Praha, CZ.NIC, z.s.p.o., 2017. CZ.NIC, 2018. ISBN 978-1593276126.',
+'Frištacký,N., Kolesár,M., Kolenička, J., Hlavatý,J. Logické systémy, Bratislava, Alfa Bratislava, 1986. ',
+'Kaprálik, P., Galanová, J., Polakovič, M. Logické systémy. STU, 2007. ',
+'Pirogov V. Mistrovství v jazyce Assembler. Computer Press, 2005. Computer Press, 2005. ISBN 80-251-0888-0.',
+'Miroslav Virius. Od C k C++. Kopp, České Budějovice, 2000. 2000. ',
+'Bernard J. M., Hugon L., Covec J. H. Od logických obvodů k mikroprocesorům. Díl I, II, III a IV. SNTL, 1984. ',
+'VODA, Zbyšek. Průvodce světem Arduina. Bučovice, Martin Stříž, 2017. Vydání druhé. Bučovice: Martin Stříž, 2017. ISBN 978-80-87106-93-8.',
+'Herout P. Učebnice jazyka C. KOPP, České Budějovice, 2000. ISBN 978-80-7232-351-7.',
+'Margolis M. Arduino Cookbook. O´Reilly, 2011. O Reilly, 2011. ISBN 978-1-4493-0310-5.',
+'Bokr, J. Logické objekty a řízení I. Plzeň: ZČU, 1992. ',
+'Bayer, J., Hanzálek, Z., Šusta, R. Logické systémy pro řízení. ČVUT, Praha 2000. ',
+'Douša J., Jáneš V. Teorie automatů. ČVUT. Praha 1988. ',
 'Vacek V. Učebnice programování Atmel s jádrem 8051. BEN- Technická literatura, Praha, 2001. BEN-Technická literatura, Praha, 2001. ISBN 80-7300-043-1.'</t>
   </si>
   <si>
-    <t>'Kurose, J. F., Ross, K. W. Computer Networking: A Top-Down Approach. Pearson, 2017, 856 s., ISBN 978-0-13-359414-0. ',_x000D_
-'Naik D. C. Internet: standardy a protokoly. Computer Press, Brno, 1999. ',_x000D_
-'Dostálek L., Kabelová A. Velký průvodce protokoly TCP/IP a systémem DNS. null. Computer Press, 2003. ISBN null.',_x000D_
-'Sanders C. Analýza sítí a řešení problémů v programu Wireshark. Computer Press, 2012. ISBN 978-80-251-3718-5.',_x000D_
-'Donahue, G. A. Kompletní průvodce síťového experta. Computer Press, 2009, 528 s., ISBN 978-80-251-2247-1. ',_x000D_
-'Horák J., Keršláger M. Počítačové sítě pro začínající správce, Computer Press. ',_x000D_
+    <t>'Kurose, J. F., Ross, K. W. Computer Networking: A Top-Down Approach. Pearson, 2017, 856 s., ISBN 978-0-13-359414-0. ',
+'Naik D. C. Internet: standardy a protokoly. Computer Press, Brno, 1999. ',
+'Dostálek L., Kabelová A. Velký průvodce protokoly TCP/IP a systémem DNS. null. Computer Press, 2003. ISBN null.',
+'Sanders C. Analýza sítí a řešení problémů v programu Wireshark. Computer Press, 2012. ISBN 978-80-251-3718-5.',
+'Donahue, G. A. Kompletní průvodce síťového experta. Computer Press, 2009, 528 s., ISBN 978-80-251-2247-1. ',
+'Horák J., Keršláger M. Počítačové sítě pro začínající správce, Computer Press. ',
 'Klement, M. Technologie počítačových sítí - služby DNS, DHCP a síťové prvky. UPOL, 2020, 42 s., ISBN 978-80-244-5582-2. '</t>
   </si>
   <si>
-    <t>'Oficiální dokumentace RED HAT Enterprise Linux a red hat Cluster Suite. ',_x000D_
+    <t>'Oficiální dokumentace RED HAT Enterprise Linux a red hat Cluster Suite. ',
 'Oficiální dokumentace Sophos UTM. '</t>
   </si>
   <si>
-    <t>'https://osf.cz/programy/ziva-demokracie/nas-stat-nase-data/',_x000D_
-'http://data.ctu.cz/',_x000D_
-'https://opendata.gov.cz/',_x000D_
+    <t>'https://osf.cz/programy/ziva-demokracie/nas-stat-nase-data/',
+'http://data.ctu.cz/',
+'https://opendata.gov.cz/',
 'Open Data. Pracovní sešit. Institut pro veřejnou správu Praha. '</t>
   </si>
   <si>
-    <t>'Bishopová, J. C# návrhové vzory. Zoner Press 2010. ISBN 8074130762. ',_x000D_
-'Albahari, J., Albahari, B. C# 4.0 in a Nutshell. Beijing: O Reilly, 2010. ISBN 978-0-596-80095-6. ',_x000D_
-'Gamma, E., Helm, R., Johnson, R., Vlissides, J. Návrh programů pomocí vzorů: Stavební kameny objektově orientovaných programů. Grada 2003. ISBN 8024703025. ',_x000D_
-'Pecinovský, R. Návrhové vzory. Computer Press, Albatros Media a.s., 2017. ISBN 8025145107. ',_x000D_
+    <t>'Fowler, M. Destilované UML. Grada Publishing, Praha, 2009. ISBN 978-80-247-2062-3. ',
+'Neustadt, I., Arlow, J. UML 2 a unifikovaný proces vývoje aplikací. Computer Press, Brno, 2008. ISBN 978-80-251-1503-9. ',
+'Bureš, M., Renda, M., Doležel, M., Svoboda, P. a kol. Efektivní testování softwaru: klíčové otázky pro efektivitu testovacího procesu. Praha: Grada, 2016. Profesionál. ISBN 978-80-247-5594-6. ',
+'Buchalcevová, A., Stanovská, I. Příklady modelů analýzy a návrhu aplikace v UML. Praha: Oeconomica, 2013. Vysokoškolská učebnice. ISBN 978-80-245-1922-7. ',
+'Fakhroutdinov, K. The Unified Modeling Language. The Unified Modeling Language [online]. [cit. 2020-02-05]. '</t>
+  </si>
+  <si>
+    <t>'Bishopová, J. C# návrhové vzory. Zoner Press 2010. ISBN 8074130762. ',
+'Albahari, J., Albahari, B. C# 4.0 in a Nutshell. Beijing: O Reilly, 2010. ISBN 978-0-596-80095-6. ',
+'Gamma, E., Helm, R., Johnson, R., Vlissides, J. Návrh programů pomocí vzorů: Stavební kameny objektově orientovaných programů. Grada 2003. ISBN 8024703025. ',
+'Pecinovský, R. Návrhové vzory. Computer Press, Albatros Media a.s., 2017. ISBN 8025145107. ',
 'Gamma, E., Helm, R., Johnson, R., Vlissides, J. Design Patterns: Elements of Reusable Object-Oriented Software. Addison-Wesley: 1995. ISBN 0201633612. '</t>
   </si>
   <si>
-    <t>'Shah S., Soyinka W. Administrace systému Linux. Grada Publishing, Praha, 2007. ISBN 978-80-247-1694-7.',_x000D_
-'Jones D. Automatizace správy a skriptování Microsoft Windows. Computer Press, Brno, 2006. ISBN 80-251-1261-6.',_x000D_
-'http://jf.cz/skripta/linux.pdf',_x000D_
-'Petrlík L. Jemný úvod do systému UNIX. Kopp, České Budějovice, 2000. ISBN 80-85828-28-6.',_x000D_
-'Stones R., Matthew N. Linux: začínáme programovat. Computer Press, Praha, 2000. ISBN 80-7226-307-2.',_x000D_
+    <t>'Shah S., Soyinka W. Administrace systému Linux. Grada Publishing, Praha, 2007. ISBN 978-80-247-1694-7.',
+'Jones D. Automatizace správy a skriptování Microsoft Windows. Computer Press, Brno, 2006. ISBN 80-251-1261-6.',
+'http://jf.cz/skripta/linux.pdf',
+'Petrlík L. Jemný úvod do systému UNIX. Kopp, České Budějovice, 2000. ISBN 80-85828-28-6.',
+'Stones R., Matthew N. Linux: začínáme programovat. Computer Press, Praha, 2000. ISBN 80-7226-307-2.',
 'Sobell M. G. Mistrovství v Linuxu: příkazový řádek, shell, programování. Computer Press, Brno, 2007. ISBN 978-80-251-1726-2.'</t>
   </si>
   <si>
-    <t>'Horák J. Hardware. Computer Press, Praha, 2009. ',_x000D_
-'Meyer M. Osobní počítač. Computer Press, Praha, 2006. ISBN 9788025108345.',_x000D_
-'Winkler P. Velký počítačový lexikon. Computer Press, Praha, 2005. EAN 9788025123317. ',_x000D_
-'Horák J. BIOS a Setup. Computer Press, Praha, 2010. ',_x000D_
-'Broža P. Instalujeme a konfigurujeme počítač. CP Books. 2005. ',_x000D_
+    <t>'Horák J. Hardware. Computer Press, Praha, 2009. ',
+'Meyer M. Osobní počítač. Computer Press, Praha, 2006. ISBN 9788025108345.',
+'Winkler P. Velký počítačový lexikon. Computer Press, Praha, 2005. EAN 9788025123317. ',
+'Horák J. BIOS a Setup. Computer Press, Praha, 2010. ',
+'Broža P. Instalujeme a konfigurujeme počítač. CP Books. 2005. ',
 'DEMBOWSKI K. Mistrovství v Hardware. Computer Press, Praha, 2009. '</t>
   </si>
   <si>
-    <t>'Welling, L. PHP a MySQL. Computer Press, 2017, 800 stran. ISBN: 9788025148921. ',_x000D_
-'Sklar, D. PHP 7, Zoner Press, 2018, 368 stran. ISBN: 978-80-7413-363-3. ',_x000D_
-'Herout, P. XSLT 2.0 a SVG prakticky- Xpath 2.0 a Java. Ebook, 2010. ',_x000D_
-'HTML 5 Black Book, Covers CSS 3, JavaScript, XML, xHTML, AJAX, PHP and Jquery. Dreamtech Press, eBook, 77472 KB, 2016. ',_x000D_
-'Lopez, A. Learning PHP 7. Packt Publishing, 2016. ISBN: 9781785880544. ',_x000D_
-'Robbins, J. N. Learning Web Design. O Reilly Media, 2018, 808 pages. ',_x000D_
-'Martin, M. G. PHP: Advanced Detailed Approach to Master PHP Programming Language for Web Development. 2019, 83 pages. ',_x000D_
+    <t>'Synek M. a kol. Podniková ekonomika. C. H. Beck, Praha, 2006. ISBN 80-7179-892-4.',
+'Heřman J. Řízení výroby. Melandrium, Slaný, 2001. ',
+'WÖHE, G. Úvod do podnikového hospodářství. C.H.Beck, Praha, 1995. '</t>
+  </si>
+  <si>
+    <t>'Welling, L. PHP a MySQL. Computer Press, 2017, 800 stran. ISBN: 9788025148921. ',
+'Sklar, D. PHP 7, Zoner Press, 2018, 368 stran. ISBN: 978-80-7413-363-3. ',
+'Herout, P. XSLT 2.0 a SVG prakticky- Xpath 2.0 a Java. Ebook, 2010. ',
+'HTML 5 Black Book, Covers CSS 3, JavaScript, XML, xHTML, AJAX, PHP and Jquery. Dreamtech Press, eBook, 77472 KB, 2016. ',
+'Lopez, A. Learning PHP 7. Packt Publishing, 2016. ISBN: 9781785880544. ',
+'Robbins, J. N. Learning Web Design. O Reilly Media, 2018, 808 pages. ',
+'Martin, M. G. PHP: Advanced Detailed Approach to Master PHP Programming Language for Web Development. 2019, 83 pages. ',
 'Phang, C. L. Web Coding Bible. 2015, 474 pages. '</t>
   </si>
   <si>
-    <t>'POKORNÝ, J., Valenta M. Databázové systémy, ČVUT, Praha, 2013. ',_x000D_
-'Šimonová, S., Panuš, J. Databázové systémy, Univerzita Pardubice, 2006. Univerzita Pardubice, 2006. ISBN 80-7194-845-4.',_x000D_
-'PostgreSQL documentation. ',_x000D_
-'Auer, D. J., Kroenke, D. M. Databáze, Computer Press, Brno, 2015. Computer Press, 2015. ISBN 978-80-251-4352-0.',_x000D_
-'Hernandez, M. J., Viescas, J. L. Myslíme v jazyku SQL: Tvorba dotazů, Grada Publishing, Praha, 2005. Grada Publishing, Praha, 2005. ISBN 80-247-0899-X.',_x000D_
-'HERNANDEZ, M. J. Návrh databází, Grada Publishing, Praha, 2006. ',_x000D_
+    <t>'Dordal, P. L. An Introduction to Computer Networks. Loyola University Chicago. 2021. ',
+'Donahue, G. A. Kompletní průvodce síťového experta. Computer Press, 2009, 528 s., ISBN 978-80-251-2247-1. ',
+'Valenta, V., Simr, P. Počítačové sítě I. Ústí nad Labem: Univerzitní centrum podpory pro studenty se specifickými vzdělávacími potřebami, 2015. ',
+'Mehta, N., Healy, R., Odom, W. Směrování a přepínání sítí. Computer Press, 2009, 880 s., ISBN 978-80-251-2520-5. ',
+'Sportack, M. A. Směrování v sítích IP: autorizovaný výukový průvodce. Computer Press, 2004, 351 s., ISBN 80-251-0127-4. ',
+'Pužmanová, R. Moderní komunikační sítě od A do Z. Computer Press, 1998, ISBN 80-7226-098-7. 1998. ISBN 80-7226-098-7.',
+'Medhi, D., Ramasamy, K. Network Routing. Algorithms, Protocols, and Architecture. Elsevier, 2007. ',
+'Horák, J., Keršláger, M. Počítačové sítě pro začínající správce. Computer Press, 2011, 304 s., ISBN 978-80-251-3176-3. 2011. ISBN 978-80-251-3176-3.',
+'Pužmanová, R., Šmrha, P. Propojování sítí s TCP/IP. Studijní opora, Kopp, 1999, ISBN 80-7232-080-7. ',
+'Pužmanová, R. Routing and Switching- Time of Convergence. Addison-Wesley, 2002, ISBN 0-201-39861-3. '</t>
+  </si>
+  <si>
+    <t>'POKORNÝ, J., Valenta M. Databázové systémy, ČVUT, Praha, 2013. ',
+'Šimonová, S., Panuš, J. Databázové systémy, Univerzita Pardubice, 2006. Univerzita Pardubice, 2006. ISBN 80-7194-845-4.',
+'PostgreSQL documentation. ',
+'Auer, D. J., Kroenke, D. M. Databáze, Computer Press, Brno, 2015. Computer Press, 2015. ISBN 978-80-251-4352-0.',
+'Hernandez, M. J., Viescas, J. L. Myslíme v jazyku SQL: Tvorba dotazů, Grada Publishing, Praha, 2005. Grada Publishing, Praha, 2005. ISBN 80-247-0899-X.',
+'HERNANDEZ, M. J. Návrh databází, Grada Publishing, Praha, 2006. ',
 'Sheldon, R. SQL: začínáme programovat, Grada Publishing, Praha, 2005. Grada Publishing, Praha, 2005. ISBN 80-247-0999-6.'</t>
   </si>
   <si>
-    <t>'Demel, J. Grafy a jejich aplikace. 2019. ',_x000D_
-'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',_x000D_
-'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',_x000D_
-'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',_x000D_
-'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',_x000D_
-'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',_x000D_
+    <t>'Demel, J. Grafy a jejich aplikace. 2019. ',
+'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',
+'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',
+'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',
+'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',
+'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',
 'Meyer, A., Chlipala, A. 6.042J Mathematics for Computer Science. Massachusetts Institute of Technology: MIT OpenCourseWare, 2015. '</t>
   </si>
   <si>
-    <t>'Šípal, J. Automatizace v praktických příkladech: studijní text pro prezenční a kombinované studium. Ústí nad Labem: Univerzita J. E. Purkyně v Ústí nad Labem, 2012. Skripta. ISBN 978-80-7414-455-4. ',_x000D_
+    <t>'Šípal, J. Automatizace v praktických příkladech: studijní text pro prezenční a kombinované studium. Ústí nad Labem: Univerzita J. E. Purkyně v Ústí nad Labem, 2012. Skripta. ISBN 978-80-7414-455-4. ',
 'Garzinová, R., Jančíková, Z., Zimný, O. Základy automatizace technologických procesů v teorii. Ostrava: VŠB-TUO, 2013. '</t>
   </si>
   <si>
@@ -869,11 +1026,21 @@
     <t>HOD/TYD</t>
   </si>
   <si>
-    <t xml:space="preserve">V tomto předmětu se studenti seznámí s teoretickými základy konečných automatů, gramatik a zásobníkových automatů. Důraz je kladen na propojení matematické teorie s praktickou realizací a využití dané teorie v současných technologiích. _x000D_
-_x000D_
+    <t>Studenti se seznámí s biochemickými experimenty, které názorně objasňují a dokumentují učivo získané v rámci
+teoretického předmětu, seznámí se s laboratorní technikou používanou v biochemii.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V tomto předmětu se studenti seznámí s teoretickými základy konečných automatů, gramatik a zásobníkových automatů. Důraz je kladen na propojení matematické teorie s praktickou realizací a využití dané teorie v současných technologiích. 
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Kurz je zaměřen na používání základních obvodových prvků v aplikacích s polovodičovými diodami, tranzistory
+a analogovými integrovanými obvody. Získané teoretické poznatky jsou procvičovány a prakticky ověřovány na
+konkrétních zapojeních. Studenti na základě samostatných zkušeností získají hlubší průnik do podstaty činnosti
+zmíněných polovodičových součástek v praxi.
+</t>
+  </si>
+  <si>
     <t>Úvodní kurz algoritmizace a programování (první část) se zaměřuje na základy procedurálního a objektově orientovaného paradigmatu. Pozornost je soustředěna především na objektovou representaci základních kolekcí (řetězců, seznamů, slovníků) a na elementární algoritmy nad nimi. Kurz je určen pro začátečníky (nepředpokládají se předchozí znalosti programování). Výuka (přednášky a cvičení) bude probíhat v jazyce Python.</t>
   </si>
   <si>
@@ -883,7 +1050,7 @@
     <t>Student se v rámci předmětu seznámí s návrhem sekvenčních logických obvodů. Sekvenční obvody budou navrhovány jak pomocí asynchronních, tak pomocí synchronních metod. Studenti dále získají základní poznatky z teorie konečných automatů a jejich aplikace v oblasti sekvenčních sítí. Poté se seznámí se základní architekturou programovatelných součástek.</t>
   </si>
   <si>
-    <t>Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti_x000D_
+    <t>Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti
 se seznámí s moderními nástroji pro její zajištění.</t>
   </si>
   <si>
@@ -896,9 +1063,12 @@
     <t>Praktický seminář zaměřený na získávání, zpracování a prezentaci otevřených dat (informace a data zveřejněná na internetu, která jsou úplná, snadno dostupná, strojově čitelná, používající standardy s volně dostupnou specifikací, zpřístupněná za jasně definovaných podmínek užití dat s minimem omezení).</t>
   </si>
   <si>
-    <t>Kurz prohlubuje praktické dovednosti programátora prostřednictvím využití klasických objektově orientovaných_x000D_
-návrhových vzorů v OOP jazyce se statickým typováním. Kurz začíná úvodním popisem příslušného jazyka z pohledu_x000D_
-typového systému a mechanismu řízeného polymorfismu. Jádrem je pak popis klíčových klasických návrhových vzorů_x000D_
+    <t>Praktický kurz je zaměřen na seznámení studentů s jednotlivými fázemi tvorby software a klade důraz na objektově orientovaný návrh a analýzu softwaru v jazyce UML (Unified Modeling Language, unifikovaný jazyk pro tvorbu diagramů) se základním přehledem využívaných metodik tvorby softwaru. Studenti budou v rámci kurzu seznámeni s jednotlivými diagramy UML ? modelování přístupu užití, základní strukturní diagramy, diagramy chování a interakce, a jejich praktické využití. Zároveň získají základní přehled přístupů a metodik tvorby softwaru.</t>
+  </si>
+  <si>
+    <t>Kurz prohlubuje praktické dovednosti programátora prostřednictvím využití klasických objektově orientovaných
+návrhových vzorů v OOP jazyce se statickým typováním. Kurz začíná úvodním popisem příslušného jazyka z pohledu
+typového systému a mechanismu řízeného polymorfismu. Jádrem je pak popis klíčových klasických návrhových vzorů
 (GoF) a jejich implementace ve zvoleném programovacím jazyce (typicky C#).</t>
   </si>
   <si>
@@ -911,30 +1081,40 @@
     <t>Předmět se věnuje využití paralelismu včetně high performance computing. Kromě nezbytných teoretických východisek je zaměřen na využití existujících nástrojů a knihoven na platformě Python. Předmět pokrývá oba základní přístupy k paralelismu: systémy s předáváním zpráv (modul multiprocessing, klasické MPI) a systémy nad sdílenou pamětí (založená na OpenMPI a CUDA). Klíčovou částí předmětu jsou cvičení, v nichž si studenti mohou paralelní programování vyzkoušet nejen na desktopových počítačích a noteboocích s více jádry, ale také na výpočetním clusteru fakulty a na specializovaném hardwaru (aktuálně Nvidia Jetson Nano). Na rychlý vývoj v této oblasti by měly reagovat přednášky a cvičení věnované moderním trendům zařazené na konci předmětu</t>
   </si>
   <si>
-    <t>Tento předmět je uceleným kurzem počítačového hardwaru. Studenti se seznámí s principy a technologiemi jednotlivých_x000D_
-konstrukčních prvků počítačů architektury IBM PC. Budou probrány jednotlivé subsystémy počítače se zaměřením na_x000D_
-moderní trendy, základní i rozšiřující komponenty počítače včetně V/V zařízeních s ohledem na očekávaný vývoj_x000D_
-problematiky. Předmět je postaven tak, aby posluchači měli po teoretické přednášce možnost prakticky se seznámit_x000D_
-s jednotlivými komponentami PC v rámci samostatné práce v laboratorních praktikách._x000D_
-Úkolem praktika je seznámit se především s hardwarem počítače typu IBM PC a jeho příslušenstvím formou řešení_x000D_
-laboratorních úloh. Výuka probíhá v laboratořích v menších skupinách a slouží k procvičení znalostí získaných_x000D_
-v přednášce. Hlavní náplní je stavba několika typů počítače, jejich konfigurace, instalace základního softwaru a řešení_x000D_
-případných problémů hardwarového či softwarového typu. Studenti si vyzkouší diagnostiku a základní měření_x000D_
+    <t>Tento předmět je uceleným kurzem počítačového hardwaru. Studenti se seznámí s principy a technologiemi jednotlivých
+konstrukčních prvků počítačů architektury IBM PC. Budou probrány jednotlivé subsystémy počítače se zaměřením na
+moderní trendy, základní i rozšiřující komponenty počítače včetně V/V zařízeních s ohledem na očekávaný vývoj
+problematiky. Předmět je postaven tak, aby posluchači měli po teoretické přednášce možnost prakticky se seznámit
+s jednotlivými komponentami PC v rámci samostatné práce v laboratorních praktikách.
+Úkolem praktika je seznámit se především s hardwarem počítače typu IBM PC a jeho příslušenstvím formou řešení
+laboratorních úloh. Výuka probíhá v laboratořích v menších skupinách a slouží k procvičení znalostí získaných
+v přednášce. Hlavní náplní je stavba několika typů počítače, jejich konfigurace, instalace základního softwaru a řešení
+případných problémů hardwarového či softwarového typu. Studenti si vyzkouší diagnostiku a základní měření
 elektrických veličin.</t>
   </si>
   <si>
+    <t>Předmět je zaměřen na teoretické i praktické seznámení s běžně používanými datovými strukturami a algoritmy nad těmito strukturami. Předmět je zahájen přednáškou, která je věnována formalismu asymptotické složitosti a optimálnímu využívání počítačové paměti. Následuje popis základních i pokročilých datových struktur včetně elementárních operací nad nimi (vkládání, vyhledávání, vymazání). Nejrozsáhlejší část předmětu je věnována třem základním algoritmickým přístupům (rekurzivní algoritmy, hladové algoritmy a pravděpodobnostní algoritmy) s příklady běžně používaných obecných algoritmů. Poslední část předmětu je věnována stručnému přehledu a prezentaci algoritmů a datových struktur v oblastech, u nichž se předpokládá aplikace v rámci semestrálních projektů.</t>
+  </si>
+  <si>
+    <t>Kurz se zabývá problematikou podstaty podniku a podnikání (právní úprava podnikání), okolím podniku, efektivností podniku a její klasifikací, cíli podniku, typologií podniků a životností podniku. Dále se kurz zabývá majetkovou a kapitálovou výstavbou podniku, organizací podniku, podnikovým řízením, charakteristikou základních podnikových činností (výrobní činnost, nákup, odbyt, marketing, personální práce, financováním podniku a investiční činnost).</t>
+  </si>
+  <si>
     <t>Tento předmět nabízí studentům ucelený přehled metod numerické matematiky. Předmět dále rozvíjí znalosti a dovednosti z oblasti numerických metod, které by měli studenti získat v bakalářském studiu. Poskytuje hlubší vhled do problematiky a akcentuje metody numerické lineární algebry jakožto nástroje pro datovou analýzu a strojové učení. Studenti si osvojí jak teoretické znalosti, tak i praktické aplikace v rámci cvičení za použití volně dostupných knihoven pro Python a R.</t>
   </si>
   <si>
-    <t>Kurz dává studentům teoretické znalosti XML technologii a praktické zkušenosti práce s XML soubory. V kurzu se uvažuje návrh webových aplikací (včetně aplikací pracujících s databázemi). V průběhu kurzu bude vytvořeno a zpracováno několik souborů XML. Uvažují se otázky extrakce informací z obsahu XML a její zobrazení na webových stránkách (s použitím css, xslt, js a php). V průběhu kurzu budou vytvořeny webové aplikace, jejichž návrh zahrnuje také témata jako AJAX a práce s XML soubory, cookies a sezení, objektově orientované programování, grafiku, práce_x000D_
+    <t>Kurz dává studentům teoretické znalosti XML technologii a praktické zkušenosti práce s XML soubory. V kurzu se uvažuje návrh webových aplikací (včetně aplikací pracujících s databázemi). V průběhu kurzu bude vytvořeno a zpracováno několik souborů XML. Uvažují se otázky extrakce informací z obsahu XML a její zobrazení na webových stránkách (s použitím css, xslt, js a php). V průběhu kurzu budou vytvořeny webové aplikace, jejichž návrh zahrnuje také témata jako AJAX a práce s XML soubory, cookies a sezení, objektově orientované programování, grafiku, práce
 s databázemi.</t>
   </si>
   <si>
+    <t>Kurz je zaměřen na vrstvy L1, L2 a L3 referenčního modelu ISO/OSI. Student se v rámci přednášek seznámí s druhy přenosového média pro datovou komunikaci, aktivními prvky v počítačové síti sloužícími k přepínání či směrování.
+V praktických laboratorních cvičeních si sám vyzkouší na modelových úlohách různé protokoly routování a směrování, návrhu síťových adres a jejich rozsahů a v neposlední řadě i vytváření virtuálních sítí.</t>
+  </si>
+  <si>
     <t>V předmětu studenti prakticky rozvinou základní dovednosti v programovacích jazycích Python a R v oblastech stěžejních pro datové inženýry a vědce. Různé metody a techniky zpracování, analýzy a vizualizace dat si studenti osvojí ryze prakticky na vzorových řešeních, tj. na aplikační a interpretační úrovni, bez nutnosti hlubších znalostí principů těchto metod a technik, které by měli nabýt v předchozím, případně dalším studiu. Výraznou součástí výuky je práce studentů ve skupinách na řešení případových studií ("inspirovaných daty") menšího rozsahu, jejich prezentace a vzájemné kritické zhodnocení. Zdrojem dat a inspirací jsou platformy typu kaggle.com. Ve výuce se uplatní materiály výukových platforem jako je datacamp.com, které jsou jinak doporučeny zejména k samostudiu a získání certifikátů</t>
   </si>
   <si>
-    <t>Kurz navazuje na kurz Úvodu do relačních databází, který rozšiřuje v několika směrech: optimalizace SQL dotazů_x000D_
-s využitím znalostí interní representace, administrace klient-server databázových systémů (PostgreSQL, Oracle),_x000D_
+    <t>Kurz navazuje na kurz Úvodu do relačních databází, který rozšiřuje v několika směrech: optimalizace SQL dotazů
+s využitím znalostí interní representace, administrace klient-server databázových systémů (PostgreSQL, Oracle),
 a programování na straně serveru i klienta.</t>
   </si>
   <si>
@@ -944,41 +1124,49 @@
     <t>Předmět je zaměřen na počítačové simulace využitelné v široké oblasti od ekonomických a dopravních problémů po simulace biologických či chemických dějů. Přednášky jsou zaměřeny na prezentaci existujících nástrojů včetně ukázek použití. V rámci cvičení jsou navrhovány jednoduché modely dynamických systémů, které jsou implementovány na příslušných simulačních platformách, a výsledky simulací jsou vizualizovány a analyzovány.</t>
   </si>
   <si>
-    <t>Kurz je koncipován jako úvodní kurz, který má prezentovat vybrané partie z diskrétní matematiky a teorie grafů_x000D_
+    <t>Kurz je koncipován jako úvodní kurz, který má prezentovat vybrané partie z diskrétní matematiky a teorie grafů
 s ohledem na potřeby v dalších oblastech informatiky, jako je algoritmizace, kódování a šifrování, či optimalizace.</t>
   </si>
   <si>
-    <t>Předmět prakticky uvádí do návrhu a základní implementace relačních databází. Studenti se seznámí s konceptuálním_x000D_
-a logickým návrhem relačních databází (včetně representací relačních vztahů) a se základy SQL (standard ISO SQL-92)._x000D_
+    <t>Předmět prakticky uvádí do návrhu a základní implementace relačních databází. Studenti se seznámí s konceptuálním
+a logickým návrhem relačních databází (včetně representací relačních vztahů) a se základy SQL (standard ISO SQL-92).
 V rámci cvičení se studenti zaměří na tvorbu konceptuálních návrhů vzorových příkladů databází.</t>
   </si>
   <si>
-    <t>V analogové části předmětu se studenti seznámí se základy elektroniky, řešením elektrických obvodů a připraví se na_x000D_
-pochopení aktivních prvků v elektronice. Navazující část věnovaná logickým obvodům je zaměřena na pochopení_x000D_
-základních vztahů logických systémů a na aplikaci diskrétní matematiky. Student se v ní seznámí s návrhem_x000D_
+    <t>V analogové části předmětu se studenti seznámí se základy elektroniky, řešením elektrických obvodů a připraví se na
+pochopení aktivních prvků v elektronice. Navazující část věnovaná logickým obvodům je zaměřena na pochopení
+základních vztahů logických systémů a na aplikaci diskrétní matematiky. Student se v ní seznámí s návrhem
 kombinačních obvodů. Ke každé části přísluší samostatná tříhodinová laboratorní praktika.</t>
   </si>
   <si>
-    <t>Předmět je zaměřen na získání základních znalostí z oblasti kyberbezpečnosti. Studenti se tak seznámí se základními_x000D_
-pojmy z oblasti klasické i moderní kryptologie, stejně jako se základními principy zabezpečení dat. Nebude chybět ani_x000D_
-analýza hrozeb a rizik současných informačních systémů. Tyto základní kompetence budou následně využity v dalších_x000D_
+    <t>Předmět je zaměřen na získání základních znalostí z oblasti kyberbezpečnosti. Studenti se tak seznámí se základními
+pojmy z oblasti klasické i moderní kryptologie, stejně jako se základními principy zabezpečení dat. Nebude chybět ani
+analýza hrozeb a rizik současných informačních systémů. Tyto základní kompetence budou následně využity v dalších
 předmětech.</t>
   </si>
   <si>
-    <t>Předmět je koncipován jako základní úvod do počítačových kabelových i bezdrátových sítí. Důraz je kladen na zásadní_x000D_
-pojmy a přehled jednotlivých typů sítí. Student se seznámí se základní infrastrukturou počítačových sítí a používanými_x000D_
-přístupovými metodami k médiu. V rámci předmětu jsou dále probrány modely počítačových sítí i obecné základy_x000D_
-síťové komunikace v oblasti směrování, směrovacích metod a vybraných protokolů. Laboratorní praktika budou_x000D_
+    <t>Předmět je koncipován jako základní úvod do počítačových kabelových i bezdrátových sítí. Důraz je kladen na zásadní
+pojmy a přehled jednotlivých typů sítí. Student se seznámí se základní infrastrukturou počítačových sítí a používanými
+přístupovými metodami k médiu. V rámci předmětu jsou dále probrány modely počítačových sítí i obecné základy
+síťové komunikace v oblasti směrování, směrovacích metod a vybraných protokolů. Laboratorní praktika budou
 zaměřena na konfigurace sítí a jejich monitoring pro malé a střední podniky, resp. veřejnou správu.</t>
   </si>
   <si>
     <t>Cílem předmětu je seznámit studenty s inženýrskou praxí v rámci průmyslové automatizace zaměřené na řízení procesů. Studenti seznámí se současnými prostředky a postupy, které jsou používány v rámci řešení zakázek v průmyslu.</t>
   </si>
   <si>
+    <t>Obsahové zaměření přípravného semináře k pedagogické praxi vychází z potřeby připravit studenta na klinickou a
+asistentskou praxi a vybavit jej dostatečně teoretickými základy pro úspěšné vykonání pedagogických praxí.
+Cílem předmětu je v obecné části seznámení se školským systémem, základy školské legislativy, kurikulárními
+dokumenty, organizací a bezpečností práce ve školských zařízeních. V části oborové pak seznámení s didaktickou
+transformací učiva pro konkrétní stupně škol. Součástí jsou požadavky oborových didaktiků na výstupy z klinické a
+asistentské praxe. Předmět probíhá současně s Klinickou pedagogickou praxí a reflektuje její průběh.</t>
+  </si>
+  <si>
+    <t>Zápočet</t>
+  </si>
+  <si>
     <t>Zkouška</t>
-  </si>
-  <si>
-    <t>Zápočet</t>
   </si>
   <si>
     <t>ANO</t>
@@ -994,33 +1182,35 @@
 Zkouška je ústní a proběhne v časovém rozsahu zhruba 30 minut. Slouží k prověření teoretických znalostí, jako jsou definice základních pojmů, formulace stěžejních vět a vysvětlení vybraných algoritmů.</t>
   </si>
   <si>
+    <t>Ústní obhajoba zpracovaných písemných protokolů z laboratorních úloh</t>
+  </si>
+  <si>
     <t>Podmínkou získání zápočtu je zpracování seminární práce nebo úspěšné napsání zápočtového písemného testu.</t>
   </si>
   <si>
     <t>Podmínkou získání zápočtu je zpracování seminární práce zadané cvičícím a obhajoba seminární práce zadané zkoušejícím. Zkouška bude ústní.</t>
   </si>
   <si>
-    <t>Zápočet: semestrální projekt_x000D_
+    <t>Zápočet: semestrální projekt
 Zkouška: ústní</t>
   </si>
   <si>
-    <t>1. tvořivá práce ve skupině_x000D_
-2. vytvoření skupinového semestrálního projektu_x000D_
+    <t>1. tvořivá práce ve skupině
+2. vytvoření skupinového semestrálního projektu
 3. prezentace výsledků řešení projektu před ostatními skupinami</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: laboratorní úloha_x000D_
-Zkouška: ústní_x000D_
+    <t xml:space="preserve">Zápočet: laboratorní úloha
+Zkouška: ústní
 </t>
   </si>
   <si>
     <t>Zápočet: laboratorní úloha</t>
   </si>
   <si>
-    <t>Aktivní účast na výuce min. 80%._x000D_
-_x000D_
-Zkouška:_x000D_
-Část 1: Vyřešení zkouškové laboratorní úlohy_x000D_
+    <t>Aktivní účast na výuce min. 80%.
+Zkouška:
+Část 1: Vyřešení zkouškové laboratorní úlohy
 Část 2: Ústní zkouška z oblasti počítačových sítí</t>
   </si>
   <si>
@@ -1030,52 +1220,66 @@
     <t>Návrh a obhajoba projektu s využitím otevřených dat v rámci hackathonu (akce, při níž programátoři intenzivně pracují na zadaném softwarovém projektu).</t>
   </si>
   <si>
+    <t>Tvorba seminární práce ? návrh a popis softwarového systému pomocí UML</t>
+  </si>
+  <si>
     <t>Seminární práce- vytvoření ukázkové aplikace využívající vhodné návrhové vzory</t>
   </si>
   <si>
     <t>Zápočet je udělen za komplexnější praktickou práci: sada skriptů zaměřených na softwarové zpracování souborů a transformace textových dat. Předpokladem je zvládnutí práce s bashem, správa uživatelských práv a procesů.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce_x000D_
-Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
+    <t xml:space="preserve">Zápočet: seminární práce
+Zkouška: ústní, zaměřená na ověření teoretických znalostí
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce (implementace paralelní verze netriviálního algoritmu za použití CPU a GPU)_x000D_
-_x000D_
-Zkouška: ústní (diskuse nad seminární prací a ověření obecných faktických znalostí)_x000D_
+    <t xml:space="preserve">Zápočet: seminární práce (implementace paralelní verze netriviálního algoritmu za použití CPU a GPU)
+Zkouška: ústní (diskuse nad seminární prací a ověření obecných faktických znalostí)
 </t>
   </si>
   <si>
-    <t>Zápočet: aktivní účast na cvičení a laboratořích, odevzdání protokolů z měření_x000D_
+    <t>Zápočet: aktivní účast na cvičení a laboratořích, odevzdání protokolů z měření
 Zkouška: písemný test, po jeho splnění následuje ústní část zkoušky (ověření teoretických znalostí)</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: praktický test (řešení zadané úlohy na počítači v počítačové učebně)_x000D_
-Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
+    <t xml:space="preserve">Forma způsobu ověření studijních výsledků a další požadavky na studenta	Zápočet: seminární práce (implementace netriviální datové struktury či algoritmu)
+Zkouška: ústní, zaměřená na praktické využití algoritmů a datových struktur
 </t>
   </si>
   <si>
-    <t>Zápočet: seminární práce_x000D_
+    <t>Písemný test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zápočet: praktický test (řešení zadané úlohy na počítači v počítačové učebně)
+Zkouška: ústní, zaměřená na ověření teoretických znalostí
+</t>
+  </si>
+  <si>
+    <t>Zápočet: seminární práce
 Zkouška: ústní</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce_x000D_
-Zkouška: ústní_x000D_
+    <t>Zápočet: laboratorní úloha
+Zkouška: ústní</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zápočet: seminární práce
+Zkouška: ústní
 </t>
   </si>
   <si>
-    <t>Zápočet: seminární práce- návrh, vytvoření a administrace databáze ve zvoleném databázovém systému (zápočet)_x000D_
+    <t>Zápočet: seminární práce- návrh, vytvoření a administrace databáze ve zvoleném databázovém systému (zápočet)
 Zkouška: ústní (včetně diskuse dotazů nad seminární databází)</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: tvorba a obhájení seminární práce na zadané téma_x000D_
-Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
+    <t xml:space="preserve">Zápočet: tvorba a obhájení seminární práce na zadané téma
+Zkouška: ústní, zaměřená na ověření teoretických znalostí
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce (implementace modelu a vizualizace výsledku simulace)_x000D_
-Zkouška: ústní, zaměřená na praktické i teoretické aspekty simulací_x000D_
+    <t xml:space="preserve">Zápočet: seminární práce (implementace modelu a vizualizace výsledku simulace)
+Zkouška: ústní, zaměřená na praktické i teoretické aspekty simulací
 </t>
   </si>
   <si>
@@ -1085,22 +1289,47 @@
 </t>
   </si>
   <si>
-    <t>Zápočet: obhajoba zápočtové seminární práce (návrh databáze a její realizace)_x000D_
+    <t>Zápočet: obhajoba zápočtové seminární práce (návrh databáze a její realizace)
 Zkouška: ústní (včetně diskuse dotazů nad seminární databází)</t>
   </si>
   <si>
-    <t>Zápočet: aktivní účast na laboratořích_x000D_
+    <t>Zápočet: aktivní účast na laboratořích
 Zkouška: ústní</t>
   </si>
   <si>
     <t>Vstupní test následovaný ústní zkouškou</t>
   </si>
   <si>
-    <t>Zápočet: aktivní účast na laboratořích_x000D_
+    <t>Zápočet: aktivní účast na laboratořích
 Zkouška: ústní + připouštěcí písemná práce</t>
   </si>
   <si>
     <t>Seminární práce</t>
+  </si>
+  <si>
+    <t>účast na seminářích</t>
+  </si>
+  <si>
+    <t>1. Důkaz přítomnosti uhlíku, síry, halogenů, fosforu, sodíku a draslíku
+2. Důkaz přítomnosti: Fe, Cu, Ca, Mg
+3. Důkaz dusíku a síry v organických sloučeninách Lassaigneovou zkouškou
+4. Stanovení čísla kyselosti tuku
+5. Ověření žluklosti tuku stanovením peroxidového čísla
+6. Extrakce tuků z máku petroletherem v Soxhletově extraktoru
+7. Kvalitativní důkazy sacharidů
+8. Separace sacharidů chromatografií na tenké vrstvě
+9. Kvantitativní stanovení sacharidů podle Schoorla
+10. Stanovení obsahu vitaminu C v potravinách
+11. Izolace ribonukleových kyselin z kvasnic
+12. Hydrolytické štěpení nukleových kyselin a důkazy jejich složek
+13. Separace aminokyselin chromatografií na tenké vrstvě
+14. Titrace aminokyselin podle Sörensena
+15. Stanovení izoelektrického bodu želatiny
+16. Titrační stanovení kyseliny acetylsalicylové
+17. Enzymatická hydrolýza vaječného bílku
+18. Izolace sacharasy a sledování její katalytické aktivity
+19. Prokázání substrátové specifity sacharasy a amylasy
+20. Vliv teploty na enzymatickou aktivitu amylasy</t>
   </si>
   <si>
     <t>1.	Konečné automaty (KA): reprezentace, jazyky rozpoznatelné konečnými automaty_x000D_
@@ -1118,136 +1347,169 @@
 13.	Praktické aplikace</t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Základní terminologie objektově orientovaného programování, objekty (hodnoty) základních tříd (čísla, logické hodnoty) a operace resp. metody nad nimi_x000D_
-2.	Proměnné, standardní vstup a výstup, větvení programu (konstrukce if-then)_x000D_
-3.	Uživatelské funkce (vstupní parametry, návratové hodnoty, oblast viditelnosti proměnných), n tice_x000D_
-4.	Řetězce a metody nad řetězci, indexace, modifikovatelné odkazované hodnoty (referenční sémantika)_x000D_
-5.	Cykly (while a for), předčasné ukončení cyklů_x000D_
-6.	Seznamy (rozhraní), asymptotická (časová) složitost_x000D_
-7.	Klíčové algoritmy nad seznamy (např. duplikace, filtrace, redukce)_x000D_
-8.	Slovníky (rozhraní, využití pro representaci asociativních polí, řídkých polí a mezipamětí [cache])_x000D_
-9.	Hashovací tabulky (interní implementace, hashovací funkce)_x000D_
-10.	Vstup a výstup do souborů (textový)_x000D_
-11.	Vstup a výstup do souborů (binární), bytová pole_x000D_
-12.	Výjimky a základní ošetření výjimek, kontextový manager (with) použitý ve správě prostředků_x000D_
-13.	Závěrečné shrnutí_x000D_
+    <t>1. Pasivní elektronické prvky- rezistor, kondenzátor, cívka- funkce, konstrukce, značení, použití.
+2. Základní elektronická měření- použití voltmetru, ampérmetru (jejich vnitřní odpory, efektivní hodnota),
+měření kapacity, indukčnosti, odporu, funkce a použití osciloskopu.
+3. Polovodičové diody- diodová rovnice, VA charakteristiky diod. Diody hrotové, usměrňovací, germaniové,
+křemíkové, Schottkyho, Zenerovy diody, LED diody, fotodiody, diaky, triaky. Zapojení jednocestného
+a dvoucestného usměrňovače, filtrace, spínaný napájecí zdroj, stabilizátor napětí.
+4. Tranzistory- tranzistory bipolární NPN, PNP, vstupní a výstupní VA charakteristiky, zapojení SE, nastavení
+pracovního bodu tranzistoru včetně výpočtu, stabilizace pracovního bodu tranzistoru.
+5. Zapojení napěťového nízkofrekvenčního tranzistorového zesilovače, měření zesílení pomocí osciloskopu,
+Darlingtonovo zapojení, dvojčinné zapojení tranzistorů.
+6. Oscilátory, modulace signálu AM, FM, PWM.
+7. Tranzistory ve spínacím režimu, klopné obvody s tranzistory- bistabilní a astabilní klopný obvod
+(multivibrátor).
+8. Operační zesilovače (OZ)- základní vlastnosti, ideální/reálný.
+9. Základní zapojení s OZ- invertující a neinvertující zapojení OZ, odvození, výpočet.
+10. Analogové zpracování signálů pomocí OZ- součtový, rozdílový OZ, integrační, derivační OZ, analogové
+násobení pomocí logaritmického a exponenciálního OZ.
+11. Převodníky analogově digitální a digitálně analogové.
+12. Elektronika a svět kolem nás, rádio, TV, záznam dat, bezdrátový přenos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.	Základní terminologie objektově orientovaného programování, objekty (hodnoty) základních tříd (čísla, logické hodnoty) a operace resp. metody nad nimi
+2.	Proměnné, standardní vstup a výstup, větvení programu (konstrukce if-then)
+3.	Uživatelské funkce (vstupní parametry, návratové hodnoty, oblast viditelnosti proměnných), n tice
+4.	Řetězce a metody nad řetězci, indexace, modifikovatelné odkazované hodnoty (referenční sémantika)
+5.	Cykly (while a for), předčasné ukončení cyklů
+6.	Seznamy (rozhraní), asymptotická (časová) složitost
+7.	Klíčové algoritmy nad seznamy (např. duplikace, filtrace, redukce)
+8.	Slovníky (rozhraní, využití pro representaci asociativních polí, řídkých polí a mezipamětí [cache])
+9.	Hashovací tabulky (interní implementace, hashovací funkce)
+10.	Vstup a výstup do souborů (textový)
+11.	Vstup a výstup do souborů (binární), bytová pole
+12.	Výjimky a základní ošetření výjimek, kontextový manager (with) použitý ve správě prostředků
+13.	Závěrečné shrnutí
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Implementace vlastních tříd (datové členy, metody, konstruktory)_x000D_
-2. Abstraktní datové typy (ADT), implementace sekvenčních datových struktur (fronta, zásobník, setříděný seznam)_x000D_
-3. Implementace vlastních algoritmů nad sekvenčními kolekcemi - vyhledávací algoritmy_x000D_
-4. - 5. Implementace vlastních algoritmů nad sekvenčními kolekcemi - třídící algoritmy_x000D_
-6. Spojové struktury a jejich objektová implementace (spojové seznamy, stromy aj.)_x000D_
-7. - 8. Implementace vlastních algoritmů nad spojovými strukturami_x000D_
-9. Zadání seminární práce, diskuse a návrh implementace_x000D_
-10. Interface (v Pythonu protokoly), iterátory a jejich implementace, rozhraní základních kolekcí_x000D_
-11. Plnohodnotná implementace vlastní kolekce_x000D_
-12. Dědičnost (výhody a nevýhody)_x000D_
-13. Praktické využití dědičnosti_x000D_
+    <t xml:space="preserve">1. Implementace vlastních tříd (datové členy, metody, konstruktory)
+2. Abstraktní datové typy (ADT), implementace sekvenčních datových struktur (fronta, zásobník, setříděný seznam)
+3. Implementace vlastních algoritmů nad sekvenčními kolekcemi - vyhledávací algoritmy
+4. - 5. Implementace vlastních algoritmů nad sekvenčními kolekcemi - třídící algoritmy
+6. Spojové struktury a jejich objektová implementace (spojové seznamy, stromy aj.)
+7. - 8. Implementace vlastních algoritmů nad spojovými strukturami
+9. Zadání seminární práce, diskuse a návrh implementace
+10. Interface (v Pythonu protokoly), iterátory a jejich implementace, rozhraní základních kolekcí
+11. Plnohodnotná implementace vlastní kolekce
+12. Dědičnost (výhody a nevýhody)
+13. Praktické využití dědičnosti
 </t>
   </si>
   <si>
-    <t>1. Syntéza kombinačních obvodů_x000D_
-2. Matematické modely chování sekvenčních obvodů_x000D_
-3. Interpretace konečného automatu jako modelu chování asynchronního sekvenčního obvodu_x000D_
-4. Sestavení stavových zápisů chování sekvenčních obvodů a jejich minimalizace_x000D_
-5. Návrh synchronních sekvenčních obvodů_x000D_
-6. Syntéza asynchronních sekvenčních obvodů_x000D_
-7. Iterační obvody_x000D_
-8. Mikroprogramový automat_x000D_
-9. Architektura procesorů z hlediska programátora_x000D_
-10. Adresování na úrovni HW (bázové a indexové registry)_x000D_
-11. Hardwarová přerušení_x000D_
-12. Bitově orientovaný přístup_x000D_
-13. Paměť, architektura, správa_x000D_
+    <t>1. Syntéza kombinačních obvodů
+2. Matematické modely chování sekvenčních obvodů
+3. Interpretace konečného automatu jako modelu chování asynchronního sekvenčního obvodu
+4. Sestavení stavových zápisů chování sekvenčních obvodů a jejich minimalizace
+5. Návrh synchronních sekvenčních obvodů
+6. Syntéza asynchronních sekvenčních obvodů
+7. Iterační obvody
+8. Mikroprogramový automat
+9. Architektura procesorů z hlediska programátora
+10. Adresování na úrovni HW (bázové a indexové registry)
+11. Hardwarová přerušení
+12. Bitově orientovaný přístup
+13. Paměť, architektura, správa
 14. Assembler- makra</t>
   </si>
   <si>
-    <t>_x000D_
-1. Práce s problémovými a talentovanými žáky (2 týdny)_x000D_
-2. Využití problémových a projektových metod v předmětu Informatika IKT (3 týdny)_x000D_
-3. Plánování výuky (2 týdny)_x000D_
-4. Didaktické zásady a didaktická pravidla ve výuce informatiky_x000D_
-5. Hodnocení žáků v IKT_x000D_
-6. Role učitele informatiky a jeho celoživotní vzdělávání_x000D_
-7. Vytváření přípravy na výuku (4 týdny)_x000D_
-a. Výuka textově orientovaného programování_x000D_
-b. Zpracování dat_x000D_
-c. Algoritmické myšlení_x000D_
+    <t xml:space="preserve">
+1. Práce s problémovými a talentovanými žáky (2 týdny)
+2. Využití problémových a projektových metod v předmětu Informatika IKT (3 týdny)
+3. Plánování výuky (2 týdny)
+4. Didaktické zásady a didaktická pravidla ve výuce informatiky
+5. Hodnocení žáků v IKT
+6. Role učitele informatiky a jeho celoživotní vzdělávání
+7. Vytváření přípravy na výuku (4 týdny)
+a. Výuka textově orientovaného programování
+b. Zpracování dat
+c. Algoritmické myšlení
 d. Bloková programování</t>
   </si>
   <si>
-    <t xml:space="preserve">Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti se seznámí s moderními nástroji pro její zajištění._x000D_
-_x000D_
-1. Úvod do datové bezpečnosti_x000D_
-2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti_x000D_
-3. Ochrana osobních údajů (např. GDPR), anonymizace dat_x000D_
-4. DLP systémy_x000D_
-5. Systémy vysoké dostupnosti datových úložišť_x000D_
-6. Zálohovací technologie pro koncové prvky_x000D_
-7. Zálohovací technologie pro infrastrukturní systémy_x000D_
-8. Archivační technologie_x000D_
-9. Systémy logování a struktura logů pro framework AAA_x000D_
-10. - 12. Správa systémů pro ukládání logovacích údajů frameworku AAA_x000D_
-13. - 14. Vyhledávání souvislostí v uložených datech_x000D_
+    <t xml:space="preserve">Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti se seznámí s moderními nástroji pro její zajištění.
+1. Úvod do datové bezpečnosti
+2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti
+3. Ochrana osobních údajů (např. GDPR), anonymizace dat
+4. DLP systémy
+5. Systémy vysoké dostupnosti datových úložišť
+6. Zálohovací technologie pro koncové prvky
+7. Zálohovací technologie pro infrastrukturní systémy
+8. Archivační technologie
+9. Systémy logování a struktura logů pro framework AAA
+10. - 12. Správa systémů pro ukládání logovacích údajů frameworku AAA
+13. - 14. Vyhledávání souvislostí v uložených datech
 </t>
   </si>
   <si>
-    <t>1. Úvod do datové bezpečnosti_x000D_
-2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti_x000D_
-3. Ochrana osobních údajů (např. GDPR), anonymizace dat_x000D_
-4. DLP systémy_x000D_
-5. Systémy vysoké dostupnosti datových úložišť_x000D_
-6. Zálohovací technologie pro koncové prvky_x000D_
-7. Zálohovací technologie pro infrastrukturní systémy_x000D_
-8. Archivační technologie_x000D_
-9. Systémy logování a struktura logů pro framework AAA_x000D_
-10. ? 12. Správa systémů pro ukládání logovacích údajů frameworku AAA_x000D_
+    <t>1. Úvod do datové bezpečnosti
+2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti
+3. Ochrana osobních údajů (např. GDPR), anonymizace dat
+4. DLP systémy
+5. Systémy vysoké dostupnosti datových úložišť
+6. Zálohovací technologie pro koncové prvky
+7. Zálohovací technologie pro infrastrukturní systémy
+8. Archivační technologie
+9. Systémy logování a struktura logů pro framework AAA
+10. ? 12. Správa systémů pro ukládání logovacích údajů frameworku AAA
 13. ? 14. Vyhledávání souvislostí v uložených datech</t>
   </si>
   <si>
-    <t>1.	Základní pojmy, opakování modelu TCP/IP a referenčního modelu ISO/OSI_x000D_
-2.	Popis aplikační vrstvy a její funkce_x000D_
-3.	Protokoly Transportní vrstvy ISO/OSI - TCP, UDP_x000D_
-4.	Protokoly Relační vrstvy ISO/OSI - PAP, SSL_x000D_
-5.	Připojení ke vzdálené konzoli - TELNET, RSH, SSH_x000D_
-6.	Připojení ke vzdálenému GUI - VNC, RDP_x000D_
-7.	Sdílení dat - FTP, NFS, SAMBA_x000D_
-8.	Webové služby - HTTP, HTTPS_x000D_
-9.	Emailová komunikace - POP3, SMTP, IMAP_x000D_
-10.	Online syndikace - RSS, Atom_x000D_
-11.	Protokoly pro komunikaci v reálném čase - IRC, Jabber_x000D_
-12.	Konfigurační protokoly sítě - BOOTP, DHCP, DNS_x000D_
+    <t>1.	Základní pojmy, opakování modelu TCP/IP a referenčního modelu ISO/OSI
+2.	Popis aplikační vrstvy a její funkce
+3.	Protokoly Transportní vrstvy ISO/OSI - TCP, UDP
+4.	Protokoly Relační vrstvy ISO/OSI - PAP, SSL
+5.	Připojení ke vzdálené konzoli - TELNET, RSH, SSH
+6.	Připojení ke vzdálenému GUI - VNC, RDP
+7.	Sdílení dat - FTP, NFS, SAMBA
+8.	Webové služby - HTTP, HTTPS
+9.	Emailová komunikace - POP3, SMTP, IMAP
+10.	Online syndikace - RSS, Atom
+11.	Protokoly pro komunikaci v reálném čase - IRC, Jabber
+12.	Konfigurační protokoly sítě - BOOTP, DHCP, DNS
 13.	Protokoly pro přenos a publikování multimédií - UPnP (DLNA), RTP, RSTP, RCTP</t>
   </si>
   <si>
-    <t>1. Byznys a ICT, použití linuxových technologií v praxi Byznys a ICT GNU/Linux Komerční Linux Red Hat Enterprise Linuxu, vyzkoušení_x000D_
-2. Řešení vysoké dostupnosti na Linuxu Vysoká dostupnost ? teorie, principy Použití a nastavení Red Hat Cluster Suite Sophos UTM jako moderní bezpečnostní řešení postavené na Linuxu Funkce a vlastnosti UTM řešení _x000D_
-3. Bezpečnost v síti, tvorba bezpečnostní politiky ve firemním prostředí IPS/IDS systémy, funkce, nastavení Zabezpečení poštovního serveru, antispam techniky _x000D_
+    <t>1. Byznys a ICT, použití linuxových technologií v praxi Byznys a ICT GNU/Linux Komerční Linux Red Hat Enterprise Linuxu, vyzkoušení
+2. Řešení vysoké dostupnosti na Linuxu Vysoká dostupnost ? teorie, principy Použití a nastavení Red Hat Cluster Suite Sophos UTM jako moderní bezpečnostní řešení postavené na Linuxu Funkce a vlastnosti UTM řešení 
+3. Bezpečnost v síti, tvorba bezpečnostní politiky ve firemním prostředí IPS/IDS systémy, funkce, nastavení Zabezpečení poštovního serveru, antispam techniky 
 4. Virtualizace a provoz IT na virtuální infrastruktuře Základy virtualizace x86 Virtualizační techniky Ukázka moderního virtualizačního nástroje: Red Hat Enterprise Virtualization, VMware vSphere</t>
   </si>
   <si>
-    <t xml:space="preserve">První etapa: motivační semináře (dvouhodinové)_x000D_
-1. Úvod do problematiky otevřených dat (politika v této oblasti i technické náležitosti)_x000D_
-2. Otevřená data v praxi z pohledu veřejné správy_x000D_
-_x000D_
-Druhá etapa: workshopy, nástroje pro open data (dvouhodinové)_x000D_
-1. - 2. Data parsing, data scraping, formáty otevřených dat_x000D_
-3. - 4. Kartografické minimum, GIS a prostorová data, otevřená geodata a jejich vizualizace_x000D_
-5. Datová žurnalistika, případové studie_x000D_
-_x000D_
-Třetí etapa: veřejný 24hodinový hackathon (pod dohledem lektorů, návrh a prezentace vlastního řešení nad open daty)_x000D_
+    <t xml:space="preserve">První etapa: motivační semináře (dvouhodinové)
+1. Úvod do problematiky otevřených dat (politika v této oblasti i technické náležitosti)
+2. Otevřená data v praxi z pohledu veřejné správy
+Druhá etapa: workshopy, nástroje pro open data (dvouhodinové)
+1. - 2. Data parsing, data scraping, formáty otevřených dat
+3. - 4. Kartografické minimum, GIS a prostorová data, otevřená geodata a jejich vizualizace
+5. Datová žurnalistika, případové studie
+Třetí etapa: veřejný 24hodinový hackathon (pod dohledem lektorů, návrh a prezentace vlastního řešení nad open daty)
 </t>
   </si>
   <si>
-    <t>1. typový systém ve staticky typovaných objektových programovacích jazycích_x000D_
-2.- 3. polymorfismus založený na sdíleném rozhraní (protokolu)_x000D_
-4. polymorfismus založený na dědičnosti (specifikátory přístupu)_x000D_
-5. návrhové vzory (principy a cíle)_x000D_
-6.- 7. vytvářející návrhové vzory (Tovární metody a objekty, Jedináček)_x000D_
-8.- 9. strukturální návrhové vzory (Adaptér, Dekorátor, Most, Muší váha)_x000D_
-10.- 11. vzory týkající se chování (Příkaz, Pozorovatel, Memo)_x000D_
+    <t>1. Fáze tvorby software, rizika
+2. Přehled metodik a přístupů tvorby softwaru
+3. Úvod do jazyka UML, motivace, přehled modelovacích nástrojů
+4. Stavební bloky jazyka UML (předměty, relace, diagramy)
+5. Sběr požadavků na software, modelování případu užití (diagram užití)
+6. Základní strukturní diagramy a jejich aplikace (diagram tříd, objektů apod.)
+7. Diagramy chování a jejich aplikace (aktivit, stavový apod.)
+8. Diagramy interakce a jejich aplikace (sekvenční diagram, komunikace apod.)
+9. Tvorba wireframe modelů GUI
+10. Testování software, fáze testování, metodiky testování
+11. Specializované testy- testování GUI, přehled frameworků
+12. Tvorba dokumentace, generování dokumentace
+13. Kontrola seminárních prací</t>
+  </si>
+  <si>
+    <t>1. typový systém ve staticky typovaných objektových programovacích jazycích
+2.- 3. polymorfismus založený na sdíleném rozhraní (protokolu)
+4. polymorfismus založený na dědičnosti (specifikátory přístupu)
+5. návrhové vzory (principy a cíle)
+6.- 7. vytvářející návrhové vzory (Tovární metody a objekty, Jedináček)
+8.- 9. strukturální návrhové vzory (Adaptér, Dekorátor, Most, Muší váha)
+10.- 11. vzory týkající se chování (Příkaz, Pozorovatel, Memo)
 12.- 13. návrh, diskuse a počáteční implementace seminárního projektu</t>
   </si>
   <si>
@@ -1265,31 +1527,30 @@
 12.	Zálohování dat a systému, nastavení a automatizace</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Formulace úloh optimalizace, volné a vázané extrémy, spojitá a diskrétní optimalizace, konvexní optimalizace, vícekriteriální optimalizace, příklady typických úloh_x000D_
-2. Možnosti výpočtu derivací a gradientů: symbolická derivace, numerická derivace, principy automatické diferenciace_x000D_
-3. Hledání minima v 1D: hledání minima ve směru, metoda zlatého řezu, Fibonacciho metoda_x000D_
-4. - 5. Metody prvního řádu pro hledání minima: gradientní metoda, metoda konjugovaných gradientů, Nesterova metoda, metody Adagrad, RMSProp, Adam_x000D_
-6. Metody druhého řádu: Newtonova metoda, kvazi-Newtonovské metody_x000D_
-7. Metoda nejmenších čtverců: lineární, nelineární, Levenbergova-Marquardtova metoda_x000D_
-8. Metody minimalizace bez výpočtu derivace: Hookova-Jeevesova metoda, Powellova metoda, Nelderova-Meadova metoda_x000D_
-9. - 10. Principy stochastických a populačních metod: simulované žíhání, metody particle swarm, firefly metoda a cockoo search_x000D_
-11. - 12. Úlohy s omezeními: Lagrangeova metoda, KKT podmínky, Lagrangeova dualita, penaltové metody_x000D_
-13. - 14. Kvadratické programování: formulace, příklady užití (SVM) a možnosti řešení_x000D_
+    <t xml:space="preserve">1. Formulace úloh optimalizace, volné a vázané extrémy, spojitá a diskrétní optimalizace, konvexní optimalizace, vícekriteriální optimalizace, příklady typických úloh
+2. Možnosti výpočtu derivací a gradientů: symbolická derivace, numerická derivace, principy automatické diferenciace
+3. Hledání minima v 1D: hledání minima ve směru, metoda zlatého řezu, Fibonacciho metoda
+4. - 5. Metody prvního řádu pro hledání minima: gradientní metoda, metoda konjugovaných gradientů, Nesterova metoda, metody Adagrad, RMSProp, Adam
+6. Metody druhého řádu: Newtonova metoda, kvazi-Newtonovské metody
+7. Metoda nejmenších čtverců: lineární, nelineární, Levenbergova-Marquardtova metoda
+8. Metody minimalizace bez výpočtu derivace: Hookova-Jeevesova metoda, Powellova metoda, Nelderova-Meadova metoda
+9. - 10. Principy stochastických a populačních metod: simulované žíhání, metody particle swarm, firefly metoda a cockoo search
+11. - 12. Úlohy s omezeními: Lagrangeova metoda, KKT podmínky, Lagrangeova dualita, penaltové metody
+13. - 14. Kvadratické programování: formulace, příklady užití (SVM) a možnosti řešení
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. - 2. Paralelní hardware (Flynnova taxonomie, volně a těsně vázané systémy, NUMA, SIMD podpora na plaformě AMD/Intel x86_64, AMD, výpočetní clustery, masivní paralelismus prostřednictvím GPGU)_x000D_
-3. Omezení paralelismu (Amdahlův a Gustafsonův zákon, organizace paměti, vliv mezipaměti), paralelismus z pohledu softwaru (asynchronní a souběžné programování, výpočetní vlákna, datově a úlohově orientovaný paralelismus, sdílení paměti versus předávání zpráv, synchronizace využitelná pro HPC úlohy)_x000D_
-4. Modul multiprocessing, paralelní map, explicitní využívání komunikačních front_x000D_
-5. - 6. MPI v Pythonu (point-to-point communication, kolektivní komunikace)_x000D_
-7. - 8. Paralelismus nad sdílenou pamětí, OpenMP a jeho využití v Pythonu (Numba, Cython, integrace kódu v jazyce C)_x000D_
-9. - 11. Využití platformy CUDA v Pythonu (Numba Cuda, Python CUDA)_x000D_
-12. - 14. Moderní přístupy k HPC paralelismu (např. paralelismus v jazyce Julia, Intel oneAPI, obsah se bude přizpůsobovat aktuálním trendům)_x000D_
-Exkurze + cvičení_x000D_
-1. - 3. Motivační exkurze, podpora paralelismu v OS Linux, instalace a zprovoznění, profiling kódu, benchmarking_x000D_
-4. - 14. Řešení praktických úloh a implementace základních paralelních algoritmů s využitím nástrojů zavedených v rámci přednášek_x000D_
-_x000D_
-Předmět je vyučován v anglickém jazyce._x000D_
+    <t xml:space="preserve">1. - 2. Paralelní hardware (Flynnova taxonomie, volně a těsně vázané systémy, NUMA, SIMD podpora na plaformě AMD/Intel x86_64, AMD, výpočetní clustery, masivní paralelismus prostřednictvím GPGU)
+3. Omezení paralelismu (Amdahlův a Gustafsonův zákon, organizace paměti, vliv mezipaměti), paralelismus z pohledu softwaru (asynchronní a souběžné programování, výpočetní vlákna, datově a úlohově orientovaný paralelismus, sdílení paměti versus předávání zpráv, synchronizace využitelná pro HPC úlohy)
+4. Modul multiprocessing, paralelní map, explicitní využívání komunikačních front
+5. - 6. MPI v Pythonu (point-to-point communication, kolektivní komunikace)
+7. - 8. Paralelismus nad sdílenou pamětí, OpenMP a jeho využití v Pythonu (Numba, Cython, integrace kódu v jazyce C)
+9. - 11. Využití platformy CUDA v Pythonu (Numba Cuda, Python CUDA)
+12. - 14. Moderní přístupy k HPC paralelismu (např. paralelismus v jazyce Julia, Intel oneAPI, obsah se bude přizpůsobovat aktuálním trendům)
+Exkurze + cvičení
+1. - 3. Motivační exkurze, podpora paralelismu v OS Linux, instalace a zprovoznění, profiling kódu, benchmarking
+4. - 14. Řešení praktických úloh a implementace základních paralelních algoritmů s využitím nástrojů zavedených v rámci přednášek
+Předmět je vyučován v anglickém jazyce.
 </t>
   </si>
   <si>
@@ -1314,16 +1575,48 @@
 2. měření fyzikálních charakteristik (napětí, proud, výkon aj.), diagnostika a testování</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Stabilita, zdroje zaokrouhlovacích chyb a jejich vliv_x000D_
-2. - 3. Přímé metody pro řešení lineárních rovnic: GEM, LU rozklad, Choleského faktorizace, QR faktorizace a jejich aplikace_x000D_
-4. - 5. Iterační metody pro řešení lineárních rovnic: Jacobiova, Gaussova-Seidelova metoda, SOR, gradientní metoda a metoda sdružených gradientů_x000D_
-6. - 7. Vlastní čísla a jejich výpočet: odhady vlastních čísel, částečný problém vlastních čísel (mocninná metoda), úplný problém vlastních čísel (QR iterace a konstrukce QR rozkladu)_x000D_
-8. SVD rozklad, jeho výpočet a aplikace_x000D_
-9. Iterační metody řešení nelineárních rovnic a jejich soustav: Newtonova metoda a její varianty, metoda prosté iterace, metody pevného bodu a jejich konvergence_x000D_
-10. Hledání kořenů polynomů: odhady kořenů polynomů, Newtonova-Hornerova metoda, Mullerova metoda, Bernoulliova metoda_x000D_
-11. Numerická kvadratura: zopakování základních metod pro jednorozměrné integrály (Newtonovy-Cotesovy vzorce), Gaussova kvadratura, výpočet nevlastních integrálů, adaptivní přístupy, redukce pro vícerozměrné integrály a metoda Monte Carlo_x000D_
-12. Řešení ODR a jejich soustav: jednokrokové a vícekrokové metody, metody prediktor-korektor, metody Rungeho-Kutty, stiff problémy a stabilita metod_x000D_
-13. Aproximace a interpolace funkcí: zopakování základních metod (interpolace polynomem aj.), kubický spline, Čebyševovská aproximace_x000D_
+    <t xml:space="preserve">Přednášky se zaměřují na formální popis algoritmů a příklady jejich uplatnění v praxi (přednášky v poslední části předmětu jsou vedeny či připraveny vyučujícími, kteří příslušné algoritmy využívají v rámci svých vědeckých či odborných aktivit). V průběhu cvičení jsou jednotlivé algoritmy implementovány, či je diskutována jejich implementace ve standardních knihovnách (srovnání efektivity implementace) a je naznačeno jejich praktické využití.
+1.	Teoretické základy algoritmizace: asymptotická složitost (Landauovy asymptotické notace), princip lokality (důsledky pro mezipaměti)
+2.	Datové struktury: základní principy, lineární datové struktury, hashovací tabulky (hashovací funkce), řídká pole
+3.	Datové struktury: stromové struktury (binární uspořádané stromy, haldy), vyvažování stromů
+4.	Datové struktury: grafy (Fibonacciho haldy, ohodnocené grafy)
+5.	Rekurzivní algoritmy: rozděl a panuj (quick sort, merge sort, nejbližší dvojice bodů)
+6.	Rekurzivní algoritmy: dynamické programování
+7.	Hladové algoritmy: deterministické hladové algoritmy (např. hledání kostry grafu)
+8.	Hladové algoritmy: heuristiky (problém obchodního cestujícího)
+9.	Pravděpodobnostní algoritmy: generátory pseudonáhodných čísel, randomizované datové struktury a klasické algoritmy, Monte Carlo metody
+10.	Výpočetní geometrie: konvexní obálka, Delaunayova triangulace, Voroného diagram
+11.	Výpočetní geometrie: BSP tree, quadtree/octree a R-tree, Minkowského suma a její uplatnění
+12.	Shluková analýza: hierarchické shlukování, hustotní shlukování (DBSCAN), centroidní shlukování (k means), grafové algoritmy (kliky)
+13.	Zpracování textů (suffix trees, string distance, approximate pattern matching)
+</t>
+  </si>
+  <si>
+    <t>1.	Ekonomie a ekonomika, hospodářský proces, odvětvová struktura, ekonomické prostředí EU_x000D_
+2.	Podstata podniku a podnikání, výrobní faktory, typologie podniků_x000D_
+3.	Podnik, cíle podniku a jeho funkce, život podniku_x000D_
+4.	Majetková a kapitálová struktura_x000D_
+5.	Výrobní činnost, plánování výroby_x000D_
+6.	Oběžný majetek, struktura, analýza využití majetku výrobního podniku_x000D_
+7.	Náklady, analýza podnikových zásob_x000D_
+8.	Výnosy, výsledek hospodaření_x000D_
+9.	Ekonomika práce_x000D_
+10.	Kalkulace a metody kalkulací_x000D_
+11.	Financování činnosti podniku, ekonomická efektivnost - analýza bodu zvratu_x000D_
+12.	Investiční činnost, příprava a hodnocení efektivnosti investičního záměru_x000D_
+13.	Plánování, rozbory, controlling, auditing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Stabilita, zdroje zaokrouhlovacích chyb a jejich vliv
+2. - 3. Přímé metody pro řešení lineárních rovnic: GEM, LU rozklad, Choleského faktorizace, QR faktorizace a jejich aplikace
+4. - 5. Iterační metody pro řešení lineárních rovnic: Jacobiova, Gaussova-Seidelova metoda, SOR, gradientní metoda a metoda sdružených gradientů
+6. - 7. Vlastní čísla a jejich výpočet: odhady vlastních čísel, částečný problém vlastních čísel (mocninná metoda), úplný problém vlastních čísel (QR iterace a konstrukce QR rozkladu)
+8. SVD rozklad, jeho výpočet a aplikace
+9. Iterační metody řešení nelineárních rovnic a jejich soustav: Newtonova metoda a její varianty, metoda prosté iterace, metody pevného bodu a jejich konvergence
+10. Hledání kořenů polynomů: odhady kořenů polynomů, Newtonova-Hornerova metoda, Mullerova metoda, Bernoulliova metoda
+11. Numerická kvadratura: zopakování základních metod pro jednorozměrné integrály (Newtonovy-Cotesovy vzorce), Gaussova kvadratura, výpočet nevlastních integrálů, adaptivní přístupy, redukce pro vícerozměrné integrály a metoda Monte Carlo
+12. Řešení ODR a jejich soustav: jednokrokové a vícekrokové metody, metody prediktor-korektor, metody Rungeho-Kutty, stiff problémy a stabilita metod
+13. Aproximace a interpolace funkcí: zopakování základních metod (interpolace polynomem aj.), kubický spline, Čebyševovská aproximace
 </t>
   </si>
   <si>
@@ -1334,28 +1627,37 @@
 5. PHP (práce s databázemi)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Prohloubení základů syntaxe a základních konstrukcí jazyků Python a R_x000D_
-2. Základy práce s daty a datovými soubory a jejich vizualizace_x000D_
-3. Pokročilé techniky práce s daty a datovými soubory (import, čištění dat aj.)_x000D_
-4. Pokročilé techniky vizualizace dat_x000D_
-5. - 6. Explorační analýza dat, vybrané pokročilé statistické metody (korelační, regresní analýza, faktorová, shluková analýza aj.), inferenční statistika_x000D_
-7. - 8. Základní aplikace metod strojového učení (vybrané klasifikátory či algoritmy pro regresi a shlukování)_x000D_
-9. Základy textové analýzy, analýza sentimentu_x000D_
-10. Analýza sítí_x000D_
-11. - 12. Reporty, dashboardy a interaktivní vizualizace dat_x000D_
-13. Shrnutí, diskuse nad zadáními seminárních prací_x000D_
+    <t>1. Opakování referenčního modelu ISO/OSI, adresování v síti (VLSM, CIDR), architektura a funkce přepínačů
+(STP, RSTP, MST)
+2. Agregace linek (LACP, EtherChanel, PAP), architektura směrovačů, SDN/distribuované systémy
+3. Směrování v bezdrátových sítích, řešení problémů při směrování
+4. Virtuální sítě a směrování mezi nimi (VLAN, VPN)
+5. Zabezpečení přepínačů a směrovačů, technologie VoIP
+6. Závěrečný komplexní projekt počítačových sítí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Prohloubení základů syntaxe a základních konstrukcí jazyků Python a R
+2. Základy práce s daty a datovými soubory a jejich vizualizace
+3. Pokročilé techniky práce s daty a datovými soubory (import, čištění dat aj.)
+4. Pokročilé techniky vizualizace dat
+5. - 6. Explorační analýza dat, vybrané pokročilé statistické metody (korelační, regresní analýza, faktorová, shluková analýza aj.), inferenční statistika
+7. - 8. Základní aplikace metod strojového učení (vybrané klasifikátory či algoritmy pro regresi a shlukování)
+9. Základy textové analýzy, analýza sentimentu
+10. Analýza sítí
+11. - 12. Reporty, dashboardy a interaktivní vizualizace dat
+13. Shrnutí, diskuse nad zadáními seminárních prací
 </t>
   </si>
   <si>
-    <t>1. Vnořené poddotazy SELECT a jejich (efektivnější) alternativy (analytické funkce, DISTINCT ON)_x000D_
-2. Indexové soubory a analýza dotazů (efektivní implementace operace JOIN)_x000D_
-3. Fulltextové vyhledávání_x000D_
-4. Rekurzivní CTE a representace hierarchií_x000D_
-5. Pohledy a procedurální rozšíření SQL_x000D_
-6. Kurzory_x000D_
-7. Triggery_x000D_
-8. DCL a správa uživatelů_x000D_
-9. ? 10. Vysokoúrovňový přístup na straně klienta (ORM)_x000D_
+    <t>1. Vnořené poddotazy SELECT a jejich (efektivnější) alternativy (analytické funkce, DISTINCT ON)
+2. Indexové soubory a analýza dotazů (efektivní implementace operace JOIN)
+3. Fulltextové vyhledávání
+4. Rekurzivní CTE a representace hierarchií
+5. Pohledy a procedurální rozšíření SQL
+6. Kurzory
+7. Triggery
+8. DCL a správa uživatelů
+9. ? 10. Vysokoúrovňový přístup na straně klienta (ORM)
 11. ? 13. Administrace databázových systémů (optimalizace výkonu, archivace)</t>
   </si>
   <si>
@@ -1374,16 +1676,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Úvod do počítačových simulací (typy simulací, cíle simulací, oblasti použití, moderní trendy) s důrazem na stochastické simulace a spojité a částicové modelování dynamických systémů_x000D_
-2.	Diskrétní událostmi řízené simulace v SimPy (principy, základní typy objektů, implementace pomocí korutin), praktický návrh simulace, její implementace a vizualizace_x000D_
-3.	Komerční systémy pro diskrétní simulace a vizualizace (Simio, SIMUL8 aj.) včetně real-time 3D simulačních systémů_x000D_
-4.	Dynamické systémy (jejich popis, vazby, rovnováha a přechodový stav, lineární odezva systému aj.), základní metody pro modelování vývoje dynamických systémů (soustavy obyčejných diferenciálních rovnic)_x000D_
-5.	SimuPy, nástroj pro spojité modelování dynamických systémů založený na jazyku Python (definice objektu, vazby objektů, metody řešení, vizualizace výsledků)_x000D_
-6.	Praktické řešení dynamických systémů pomocí SimuPy: fyzikální nebo biologické modely_x000D_
-7.	Dynamické modelování částicových systémů, popisy systémů (škály), metody a moderní trendy, paralelizace, simulační balíky a analýza trajektorií pomocí jazyka Python (např. LAMMPS, MDAnalysis aj.)_x000D_
-8.	Deterministické a stochastické modelování jednoduchých a komplexních částicových systémů (počítačové modely, metody, vizualizace)_x000D_
-9.	Praktické řešení úloh zaměřených na modelování deterministických a stochastických částicových systémů_x000D_
-Předmět je vyučován v anglickém jazyce._x000D_
+    <t xml:space="preserve">1.	Úvod do počítačových simulací (typy simulací, cíle simulací, oblasti použití, moderní trendy) s důrazem na stochastické simulace a spojité a částicové modelování dynamických systémů
+2.	Diskrétní událostmi řízené simulace v SimPy (principy, základní typy objektů, implementace pomocí korutin), praktický návrh simulace, její implementace a vizualizace
+3.	Komerční systémy pro diskrétní simulace a vizualizace (Simio, SIMUL8 aj.) včetně real-time 3D simulačních systémů
+4.	Dynamické systémy (jejich popis, vazby, rovnováha a přechodový stav, lineární odezva systému aj.), základní metody pro modelování vývoje dynamických systémů (soustavy obyčejných diferenciálních rovnic)
+5.	SimuPy, nástroj pro spojité modelování dynamických systémů založený na jazyku Python (definice objektu, vazby objektů, metody řešení, vizualizace výsledků)
+6.	Praktické řešení dynamických systémů pomocí SimuPy: fyzikální nebo biologické modely
+7.	Dynamické modelování částicových systémů, popisy systémů (škály), metody a moderní trendy, paralelizace, simulační balíky a analýza trajektorií pomocí jazyka Python (např. LAMMPS, MDAnalysis aj.)
+8.	Deterministické a stochastické modelování jednoduchých a komplexních částicových systémů (počítačové modely, metody, vizualizace)
+9.	Praktické řešení úloh zaměřených na modelování deterministických a stochastických částicových systémů
+Předmět je vyučován v anglickém jazyce.
 </t>
   </si>
   <si>
@@ -1416,83 +1718,85 @@
 redukce: NP-těžký problém, NP-úplný problém; výpočetně obtížné problémy teorie grafů</t>
   </si>
   <si>
-    <t>1. Relační databáze (principy) a relační databázové systémy (přehled a klasifikace)_x000D_
-2. Principy konceptuálního návrhu (entity, atributy a relační vztahy, ERD)_x000D_
-3. Kandidátní klíče a normalizace databází (normální formy)_x000D_
-4. DDL ? příkazy pro práci s tabulkami (CREATE, ALTER, DROP, datové typy a integritní omezení)_x000D_
-5. DML ? příkazy pro práci s daty (INSERT, UPDATE, DELETE)_x000D_
-6. Základní tvar příkazu SELECT (SELECT, FROM, WHERE, ORDER BY)_x000D_
-7. Relační vztahy mezi tabulkami a jejich representace_x000D_
-8. Vnitřní spojení (INNER JOIN)_x000D_
-9. Vnější spojení (OUTER JOIN) a další typy spojení_x000D_
-10. Seskupování (GROUP BY, HAVING) a agregační funkce_x000D_
-11. Transakce_x000D_
+    <t>1. Relační databáze (principy) a relační databázové systémy (přehled a klasifikace)
+2. Principy konceptuálního návrhu (entity, atributy a relační vztahy, ERD)
+3. Kandidátní klíče a normalizace databází (normální formy)
+4. DDL ? příkazy pro práci s tabulkami (CREATE, ALTER, DROP, datové typy a integritní omezení)
+5. DML ? příkazy pro práci s daty (INSERT, UPDATE, DELETE)
+6. Základní tvar příkazu SELECT (SELECT, FROM, WHERE, ORDER BY)
+7. Relační vztahy mezi tabulkami a jejich representace
+8. Vnitřní spojení (INNER JOIN)
+9. Vnější spojení (OUTER JOIN) a další typy spojení
+10. Seskupování (GROUP BY, HAVING) a agregační funkce
+11. Transakce
 12. ? 13. Základní programový přístup k databázím</t>
   </si>
   <si>
-    <t>_x000D_
-1. Základy fyziky polovodičů, elektrická vodivost vodičů, nevodičů, polovodičů, intrinzitní, extrinzitní_x000D_
-vodivost, PN přechod)_x000D_
-2. Základní pojmy obvodové elektroniky (I, U, R, C, Q, AC/DC, zdroje napětí a proudu, VA charakteristiky)_x000D_
-3. Řešení elektrických obvodů stejnosměrného proudu (Ohmův zákon, Théveninova věta, Nortonova věta,_x000D_
-řešení obvodů dle Kirchhoffových zákonů, smyčkových proudů, uzlových napětí, lineární superpozice)_x000D_
-4. Řešení obvodů střídavého proudu (induktance, kapacitance, fázové posunutí proudu a napětí na C a L,_x000D_
-fázorový diagram, rezonance)_x000D_
-5. Grafické řešení nelineárních elektronických obvodů_x000D_
-6. Náhradní lineární obvody (jednobran, dvojbran, admitanční a impedanční rovnice)_x000D_
-7. Pasivní součásti elektrických obvodů (RLC)_x000D_
-Digitální část_x000D_
-8. Digitální signál, bit, byte, číselné soustavy, kódy, BCD, ASCII_x000D_
-9. Logické funkce, Booleova algebra, logické výrazy_x000D_
-10. Kombinační logické sítě_x000D_
-11. Minimalizace normálních forem výrazů_x000D_
-12. Syntéza kombinačních obvodů_x000D_
+    <t xml:space="preserve">
+1. Základy fyziky polovodičů, elektrická vodivost vodičů, nevodičů, polovodičů, intrinzitní, extrinzitní
+vodivost, PN přechod)
+2. Základní pojmy obvodové elektroniky (I, U, R, C, Q, AC/DC, zdroje napětí a proudu, VA charakteristiky)
+3. Řešení elektrických obvodů stejnosměrného proudu (Ohmův zákon, Théveninova věta, Nortonova věta,
+řešení obvodů dle Kirchhoffových zákonů, smyčkových proudů, uzlových napětí, lineární superpozice)
+4. Řešení obvodů střídavého proudu (induktance, kapacitance, fázové posunutí proudu a napětí na C a L,
+fázorový diagram, rezonance)
+5. Grafické řešení nelineárních elektronických obvodů
+6. Náhradní lineární obvody (jednobran, dvojbran, admitanční a impedanční rovnice)
+7. Pasivní součásti elektrických obvodů (RLC)
+Digitální část
+8. Digitální signál, bit, byte, číselné soustavy, kódy, BCD, ASCII
+9. Logické funkce, Booleova algebra, logické výrazy
+10. Kombinační logické sítě
+11. Minimalizace normálních forem výrazů
+12. Syntéza kombinačních obvodů
 13. Fyzikální realizace a analýza kombinačních logických členů</t>
   </si>
   <si>
-    <t>1. Základní pojmy kryptologie, Modulární aritmetika_x000D_
-2. Generátory (pseudo)náhodných čísel, testy prvočíselnosti_x000D_
-3. Klasická kryptologie (substituční a transpoziční šifry)_x000D_
-4. Symetrická kryptografie ? blokové šifry (DES, AES)_x000D_
-5. Symetrická kryptografie ? proudové šifry (A5, Salsa20, Chacha20)_x000D_
-6. Kryptografie veřejného klíče (RSA, DSA, DH)_x000D_
-7. Hashovací funkce (MD5, SHA, digitální podpis ? princip)_x000D_
-8. Digitální měny, HW a SW peněženky, blockchain (principy)_x000D_
-9. Důvěrnost, integrita, dostupnost (princip, klasifikace, prostředky, algoritmy)_x000D_
-10. Řízení bezpečnosti dat (služby, metody, ověření bezpečnosti)_x000D_
-11. Analýza hrozeb a rizik (aktiva, zranitelnost, ohrožení, opatření), soudobé hrozby informačních technologií_x000D_
-(typy, techniky, možnosti)_x000D_
-12. AAA framework (principy, dělení, účel, protokoly, využití)_x000D_
-13. Protokoly a metody bezpečnosti a ochrany dat v prostředí Internetu_x000D_
+    <t>1. Základní pojmy kryptologie, Modulární aritmetika
+2. Generátory (pseudo)náhodných čísel, testy prvočíselnosti
+3. Klasická kryptologie (substituční a transpoziční šifry)
+4. Symetrická kryptografie ? blokové šifry (DES, AES)
+5. Symetrická kryptografie ? proudové šifry (A5, Salsa20, Chacha20)
+6. Kryptografie veřejného klíče (RSA, DSA, DH)
+7. Hashovací funkce (MD5, SHA, digitální podpis ? princip)
+8. Digitální měny, HW a SW peněženky, blockchain (principy)
+9. Důvěrnost, integrita, dostupnost (princip, klasifikace, prostředky, algoritmy)
+10. Řízení bezpečnosti dat (služby, metody, ověření bezpečnosti)
+11. Analýza hrozeb a rizik (aktiva, zranitelnost, ohrožení, opatření), soudobé hrozby informačních technologií
+(typy, techniky, možnosti)
+12. AAA framework (principy, dělení, účel, protokoly, využití)
+13. Protokoly a metody bezpečnosti a ochrany dat v prostředí Internetu
 14. Ochrana dat na úrovni kabelových sítí (principy, dělení, využití)</t>
   </si>
   <si>
-    <t>1. Historie vývoje sítí, principy, využití, základní pojmy._x000D_
-2. Adresování v počítačových sítích: třídy, rozdělení adres, maska, IPv4 a IPv6, DNS, URL._x000D_
-3. Architektura Internetu: organizace a správa, standardy a struktura Internetu, způsoby připojení._x000D_
-4. Vrstvové modely sítí: model ISO/OSI ? princip, vrstvy, služby, účel, využití._x000D_
-5. Vrstvové modely sítí: model TCP/IP ? princip, vrstvy, protokoly, služby, účel, využití._x000D_
-6. Síťové technologie: rozdělení, principy, architektury, využití._x000D_
-7. Aktivní prvky v sítích: dělení, princip činnosti, přenos dat. Infrastruktura sítě: účel, základní dělení a využití._x000D_
-8. Přenosová média: dělení, vlastnosti, typy, konektory, vodiče, použití._x000D_
-9. Klasifikace sítí: rozlehlost, topologie, postavení uzlů, analogové a digitální sítě._x000D_
-10. Principy datových přenosů: rozdělení, typy, přenos dat._x000D_
-11. Přístupové metody: účel, základní dělení, činnosti, příklady použití._x000D_
-12. Ethernet: popis, druhy, kabeláž, bloky dat._x000D_
-13. Náhled do bezdrátových technologií: druhy, topologie, princip činnosti, architektura._x000D_
-_x000D_
-V rámci laboratoří si student prakticky vyzkouší nabyté vědomosti v emulačním programu Packet Tracer. Laboratorní_x000D_
+    <t>1. Historie vývoje sítí, principy, využití, základní pojmy.
+2. Adresování v počítačových sítích: třídy, rozdělení adres, maska, IPv4 a IPv6, DNS, URL.
+3. Architektura Internetu: organizace a správa, standardy a struktura Internetu, způsoby připojení.
+4. Vrstvové modely sítí: model ISO/OSI ? princip, vrstvy, služby, účel, využití.
+5. Vrstvové modely sítí: model TCP/IP ? princip, vrstvy, protokoly, služby, účel, využití.
+6. Síťové technologie: rozdělení, principy, architektury, využití.
+7. Aktivní prvky v sítích: dělení, princip činnosti, přenos dat. Infrastruktura sítě: účel, základní dělení a využití.
+8. Přenosová média: dělení, vlastnosti, typy, konektory, vodiče, použití.
+9. Klasifikace sítí: rozlehlost, topologie, postavení uzlů, analogové a digitální sítě.
+10. Principy datových přenosů: rozdělení, typy, přenos dat.
+11. Přístupové metody: účel, základní dělení, činnosti, příklady použití.
+12. Ethernet: popis, druhy, kabeláž, bloky dat.
+13. Náhled do bezdrátových technologií: druhy, topologie, princip činnosti, architektura.
+V rámci laboratoří si student prakticky vyzkouší nabyté vědomosti v emulačním programu Packet Tracer. Laboratorní
 úlohy budou zaměřeny na základní konfiguraci, statické a dynamické routování.</t>
   </si>
   <si>
-    <t>1.- 2. Úvod do průmyslové automatizace se zaměřením na řízení procesů _x000D_
-3.- 4. Přehled aktorik a senzorik v procesní průmyslové automatizaci _x000D_
-5.- 6. Projektová dokumentace MaR a ASŘTP (měření a regulace, automatizovaný systém řízení technologických procesů) _x000D_
-7. Komunikační rozhraní _x000D_
-8.- 10. PLC, HMI, SCADA a DCS _x000D_
-11. Specifika prostředí EX _x000D_
-12. Úvod do funkční bezpečnosti _x000D_
+    <t>1.- 2. Úvod do průmyslové automatizace se zaměřením na řízení procesů 
+3.- 4. Přehled aktorik a senzorik v procesní průmyslové automatizaci 
+5.- 6. Projektová dokumentace MaR a ASŘTP (měření a regulace, automatizovaný systém řízení technologických procesů) 
+7. Komunikační rozhraní 
+8.- 10. PLC, HMI, SCADA a DCS 
+11. Specifika prostředí EX 
+12. Úvod do funkční bezpečnosti 
 13. ? 14. Základní postupy při řešení zakázek v průmyslu</t>
+  </si>
+  <si>
+    <t>Předpokládaná znalost obsahu kurzu KI/ZEM.</t>
   </si>
   <si>
     <t>Čeština</t>
@@ -1572,8 +1876,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:BQ30" totalsRowShown="0">
-  <autoFilter ref="A1:BQ30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:BQ37" totalsRowShown="0">
+  <autoFilter ref="A1:BQ37"/>
   <tableColumns count="69">
     <tableColumn id="1" name="katedra" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -1934,7 +2238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ30"/>
+  <dimension ref="A1:BQ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2154,139 +2458,133 @@
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2">
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="H2" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI2" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK2" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>290</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="AS2" s="1"/>
       <c r="AT2" s="1" t="s">
-        <v>317</v>
+        <v>376</v>
       </c>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="2">
@@ -2294,80 +2592,78 @@
       </c>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>151</v>
+        <v>414</v>
       </c>
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
-      <c r="BQ2" s="1" t="s">
-        <v>349</v>
-      </c>
+      <c r="BQ2" s="1"/>
     </row>
     <row r="3" spans="1:69">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2">
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="H3" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -2375,79 +2671,77 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
-      <c r="AC3" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="AC3" s="1"/>
       <c r="AD3" s="1" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI3" s="2">
         <v>6</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK3" s="2">
         <v>6</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM3" s="2">
         <v>2</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>318</v>
+        <v>377</v>
       </c>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
       <c r="AY3" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI3" s="1"/>
       <c r="BJ3" s="2">
@@ -2455,160 +2749,160 @@
       </c>
       <c r="BK3" s="1"/>
       <c r="BL3" s="1" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>348</v>
+        <v>174</v>
       </c>
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
-      <c r="BQ3" s="1"/>
+      <c r="BQ3" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="4" spans="1:69">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2">
         <v>2023</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H4" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="S4" s="1" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="AC4" s="1"/>
       <c r="AD4" s="1" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI4" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK4" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM4" s="2">
         <v>2</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>319</v>
+        <v>378</v>
       </c>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
       <c r="BG4" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI4" s="1"/>
       <c r="BJ4" s="2">
@@ -2616,13 +2910,13 @@
       </c>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
@@ -2630,64 +2924,64 @@
     </row>
     <row r="5" spans="1:69">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2">
         <v>2023</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H5" s="2">
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -2696,78 +2990,78 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI5" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK5" s="2">
         <v>6</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM5" s="2">
         <v>2</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>320</v>
+        <v>379</v>
       </c>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
       <c r="BG5" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI5" s="1"/>
       <c r="BJ5" s="2">
@@ -2775,13 +3069,13 @@
       </c>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="BM5" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO5" s="1"/>
       <c r="BP5" s="1"/>
@@ -2789,142 +3083,146 @@
     </row>
     <row r="6" spans="1:69">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2">
         <v>2023</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="H6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD6" s="1"/>
+        <v>272</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK6" s="2">
         <v>6</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM6" s="2">
         <v>2</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AO6" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="AP6" s="1" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
       <c r="BG6" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI6" s="1"/>
       <c r="BJ6" s="2">
@@ -2932,13 +3230,13 @@
       </c>
       <c r="BK6" s="1"/>
       <c r="BL6" s="1" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="BM6" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
@@ -2946,64 +3244,64 @@
     </row>
     <row r="7" spans="1:69">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2">
         <v>2023</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="H7" s="2">
         <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -3011,73 +3309,79 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
+      <c r="AC7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI7" s="2">
         <v>4</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK7" s="2">
         <v>6</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM7" s="2">
         <v>2</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AO7" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="AP7" s="1" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>322</v>
+        <v>381</v>
       </c>
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
       <c r="BG7" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI7" s="1"/>
       <c r="BJ7" s="2">
@@ -3085,13 +3389,13 @@
       </c>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="BM7" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
@@ -3099,140 +3403,142 @@
     </row>
     <row r="8" spans="1:69">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2">
         <v>2023</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="H8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
+      <c r="AA8" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
+      <c r="AC8" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI8" s="2">
         <v>4</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK8" s="2">
         <v>6</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM8" s="2">
         <v>2</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>265</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="AO8" s="1"/>
       <c r="AP8" s="1" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>323</v>
+        <v>382</v>
       </c>
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
       <c r="AY8" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
       <c r="BG8" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH8" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI8" s="1"/>
       <c r="BJ8" s="2">
@@ -3240,13 +3546,13 @@
       </c>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="BM8" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO8" s="1"/>
       <c r="BP8" s="1"/>
@@ -3254,144 +3560,138 @@
     </row>
     <row r="9" spans="1:69">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2">
         <v>2023</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="1" t="s">
-        <v>222</v>
-      </c>
+      <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="1" t="s">
-        <v>248</v>
-      </c>
+      <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI9" s="2">
         <v>4</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK9" s="2">
         <v>6</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM9" s="2">
         <v>2</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>266</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="AO9" s="1"/>
       <c r="AP9" s="1" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>324</v>
+        <v>383</v>
       </c>
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
       <c r="AY9" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
       <c r="BG9" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH9" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI9" s="1"/>
       <c r="BJ9" s="2">
@@ -3399,13 +3699,13 @@
       </c>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1" t="s">
-        <v>346</v>
+        <v>413</v>
       </c>
       <c r="BM9" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>151</v>
+        <v>414</v>
       </c>
       <c r="BO9" s="1"/>
       <c r="BP9" s="1"/>
@@ -3413,136 +3713,140 @@
     </row>
     <row r="10" spans="1:69">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2">
         <v>2023</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="P10" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="S10" s="1" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="1" t="s">
-        <v>223</v>
-      </c>
+      <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AI10" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK10" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM10" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>267</v>
+        <v>313</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>325</v>
+        <v>384</v>
       </c>
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC10" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
       <c r="BG10" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH10" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI10" s="1"/>
       <c r="BJ10" s="2">
@@ -3550,13 +3854,13 @@
       </c>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1" t="s">
-        <v>346</v>
+        <v>413</v>
       </c>
       <c r="BM10" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN10" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO10" s="1"/>
       <c r="BP10" s="1"/>
@@ -3564,136 +3868,144 @@
     </row>
     <row r="11" spans="1:69">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2">
         <v>2023</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="H11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="P11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="S11" s="1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AI11" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK11" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM11" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>326</v>
+        <v>385</v>
       </c>
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB11" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
       <c r="BG11" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH11" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI11" s="1"/>
       <c r="BJ11" s="2">
@@ -3701,13 +4013,13 @@
       </c>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="BM11" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN11" s="1" t="s">
-        <v>348</v>
+        <v>174</v>
       </c>
       <c r="BO11" s="1"/>
       <c r="BP11" s="1"/>
@@ -3715,144 +4027,136 @@
     </row>
     <row r="12" spans="1:69">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2">
         <v>2023</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="H12" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>200</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
+      <c r="AA12" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="AB12" s="1"/>
-      <c r="AC12" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="AC12" s="1"/>
       <c r="AD12" s="1" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="AI12" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK12" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
       <c r="BG12" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH12" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI12" s="1"/>
       <c r="BJ12" s="2">
@@ -3860,13 +4164,13 @@
       </c>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="BM12" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO12" s="1"/>
       <c r="BP12" s="1"/>
@@ -3874,146 +4178,136 @@
     </row>
     <row r="13" spans="1:69">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2">
         <v>2023</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="H13" s="2">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
       <c r="S13" s="1" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
+      <c r="AA13" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="AC13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>230</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="AI13" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK13" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM13" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS13" s="1" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>328</v>
+        <v>387</v>
       </c>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB13" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
       <c r="BG13" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH13" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI13" s="1"/>
       <c r="BJ13" s="2">
@@ -4021,13 +4315,13 @@
       </c>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="BM13" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN13" s="1" t="s">
-        <v>151</v>
+        <v>414</v>
       </c>
       <c r="BO13" s="1"/>
       <c r="BP13" s="1"/>
@@ -4035,142 +4329,136 @@
     </row>
     <row r="14" spans="1:69">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2">
         <v>2023</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H14" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>201</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
       <c r="S14" s="1" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
+      <c r="AD14" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="AI14" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK14" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM14" s="2">
         <v>2</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>329</v>
+        <v>388</v>
       </c>
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB14" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
       <c r="BG14" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH14" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI14" s="1"/>
       <c r="BJ14" s="2">
@@ -4178,13 +4466,13 @@
       </c>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="BM14" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN14" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO14" s="1"/>
       <c r="BP14" s="1"/>
@@ -4192,142 +4480,144 @@
     </row>
     <row r="15" spans="1:69">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2">
         <v>2023</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
+      <c r="AC15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI15" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK15" s="2">
         <v>6</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>330</v>
+        <v>389</v>
       </c>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1" t="s">
-        <v>345</v>
+        <v>410</v>
       </c>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB15" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
       <c r="BG15" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH15" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI15" s="1"/>
       <c r="BJ15" s="2">
@@ -4335,13 +4625,13 @@
       </c>
       <c r="BK15" s="1"/>
       <c r="BL15" s="1" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="BM15" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN15" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO15" s="1"/>
       <c r="BP15" s="1"/>
@@ -4349,64 +4639,64 @@
     </row>
     <row r="16" spans="1:69">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2">
         <v>2023</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="H16" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="O16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="Q16" s="1" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -4414,77 +4704,81 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
+      <c r="AC16" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="AD16" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE16" s="1"/>
+        <v>296</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI16" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK16" s="2">
         <v>4</v>
       </c>
-      <c r="AJ16" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK16" s="2">
-        <v>9</v>
-      </c>
       <c r="AL16" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM16" s="2">
         <v>2</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>331</v>
+        <v>390</v>
       </c>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
       <c r="AY16" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB16" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
       <c r="BG16" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH16" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI16" s="1"/>
       <c r="BJ16" s="2">
@@ -4492,13 +4786,13 @@
       </c>
       <c r="BK16" s="1"/>
       <c r="BL16" s="1" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="BM16" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN16" s="1" t="s">
-        <v>348</v>
+        <v>174</v>
       </c>
       <c r="BO16" s="1"/>
       <c r="BP16" s="1"/>
@@ -4506,70 +4800,72 @@
     </row>
     <row r="17" spans="1:69">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C17" s="2">
         <v>2023</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="H17" s="2">
         <v>5</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
+      <c r="AA17" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
@@ -4577,69 +4873,69 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI17" s="2">
         <v>6</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK17" s="2">
         <v>6</v>
       </c>
       <c r="AL17" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM17" s="2">
         <v>2</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
       <c r="AY17" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ17" s="1"/>
       <c r="BA17" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB17" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
       <c r="BG17" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH17" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI17" s="1"/>
       <c r="BJ17" s="2">
@@ -4647,13 +4943,13 @@
       </c>
       <c r="BK17" s="1"/>
       <c r="BL17" s="1" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="BM17" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN17" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO17" s="1"/>
       <c r="BP17" s="1"/>
@@ -4661,142 +4957,142 @@
     </row>
     <row r="18" spans="1:69">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2">
         <v>2023</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="H18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
+      <c r="AA18" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="1" t="s">
-        <v>254</v>
-      </c>
+      <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI18" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK18" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>333</v>
+        <v>392</v>
       </c>
       <c r="AU18" s="1"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
       <c r="AY18" s="1" t="s">
-        <v>344</v>
+        <v>411</v>
       </c>
       <c r="AZ18" s="1"/>
       <c r="BA18" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB18" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
       <c r="BG18" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH18" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI18" s="1"/>
       <c r="BJ18" s="2">
@@ -4804,13 +5100,13 @@
       </c>
       <c r="BK18" s="1"/>
       <c r="BL18" s="1" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="BM18" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN18" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO18" s="1"/>
       <c r="BP18" s="1"/>
@@ -4818,64 +5114,64 @@
     </row>
     <row r="19" spans="1:69">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C19" s="2">
         <v>2023</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="H19" s="2">
         <v>4</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="Q19" s="1" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>169</v>
+        <v>234</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
@@ -4883,77 +5179,77 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI19" s="2">
         <v>4</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK19" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM19" s="2">
         <v>2</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>334</v>
+        <v>393</v>
       </c>
       <c r="AU19" s="1"/>
       <c r="AV19" s="1"/>
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
       <c r="AY19" s="1" t="s">
-        <v>345</v>
+        <v>410</v>
       </c>
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB19" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC19" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
       <c r="BG19" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH19" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI19" s="1"/>
       <c r="BJ19" s="2">
@@ -4961,13 +5257,13 @@
       </c>
       <c r="BK19" s="1"/>
       <c r="BL19" s="1" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="BM19" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN19" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO19" s="1"/>
       <c r="BP19" s="1"/>
@@ -4975,144 +5271,142 @@
     </row>
     <row r="20" spans="1:69">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2">
         <v>2023</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="H20" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="AC20" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI20" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK20" s="2">
         <v>6</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM20" s="2">
         <v>2</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
       <c r="AU20" s="1"/>
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB20" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
       <c r="BG20" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH20" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI20" s="1"/>
       <c r="BJ20" s="2">
@@ -5120,13 +5414,13 @@
       </c>
       <c r="BK20" s="1"/>
       <c r="BL20" s="1" t="s">
-        <v>346</v>
+        <v>413</v>
       </c>
       <c r="BM20" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN20" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO20" s="1"/>
       <c r="BP20" s="1"/>
@@ -5134,144 +5428,142 @@
     </row>
     <row r="21" spans="1:69">
       <c r="A21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2">
         <v>2023</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H21" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>205</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
       <c r="S21" s="1" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AD21" s="1"/>
+        <v>278</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI21" s="2">
         <v>6</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK21" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM21" s="2">
         <v>2</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AU21" s="1"/>
+        <v>395</v>
+      </c>
+      <c r="AU21" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB21" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
       <c r="BG21" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH21" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI21" s="1"/>
       <c r="BJ21" s="2">
@@ -5279,13 +5571,13 @@
       </c>
       <c r="BK21" s="1"/>
       <c r="BL21" s="1" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="BM21" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN21" s="1" t="s">
-        <v>348</v>
+        <v>174</v>
       </c>
       <c r="BO21" s="1"/>
       <c r="BP21" s="1"/>
@@ -5293,64 +5585,64 @@
     </row>
     <row r="22" spans="1:69">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2">
         <v>2023</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="H22" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>177</v>
+        <v>251</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
@@ -5364,69 +5656,69 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI22" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK22" s="2">
         <v>6</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM22" s="2">
         <v>2</v>
       </c>
       <c r="AN22" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>337</v>
+        <v>396</v>
       </c>
       <c r="AU22" s="1"/>
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1" t="s">
-        <v>345</v>
+        <v>410</v>
       </c>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB22" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
       <c r="BG22" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH22" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI22" s="1"/>
       <c r="BJ22" s="2">
@@ -5434,13 +5726,13 @@
       </c>
       <c r="BK22" s="1"/>
       <c r="BL22" s="1" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="BM22" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN22" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO22" s="1"/>
       <c r="BP22" s="1"/>
@@ -5448,144 +5740,142 @@
     </row>
     <row r="23" spans="1:69">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C23" s="2">
         <v>2023</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="H23" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI23" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK23" s="2">
         <v>4</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM23" s="2">
         <v>2</v>
       </c>
       <c r="AN23" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="AU23" s="1"/>
       <c r="AV23" s="1"/>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB23" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
       <c r="BG23" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH23" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI23" s="1"/>
       <c r="BJ23" s="2">
@@ -5593,13 +5883,13 @@
       </c>
       <c r="BK23" s="1"/>
       <c r="BL23" s="1" t="s">
-        <v>346</v>
+        <v>413</v>
       </c>
       <c r="BM23" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN23" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO23" s="1"/>
       <c r="BP23" s="1"/>
@@ -5607,64 +5897,64 @@
     </row>
     <row r="24" spans="1:69">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2">
         <v>2023</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H24" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
@@ -5673,76 +5963,78 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD24" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI24" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK24" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM24" s="2">
         <v>2</v>
       </c>
       <c r="AN24" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="AQ24" s="1" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS24" s="1" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
       <c r="AU24" s="1"/>
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB24" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
       <c r="BG24" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH24" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI24" s="1"/>
       <c r="BJ24" s="2">
@@ -5750,13 +6042,13 @@
       </c>
       <c r="BK24" s="1"/>
       <c r="BL24" s="1" t="s">
-        <v>346</v>
+        <v>413</v>
       </c>
       <c r="BM24" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN24" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO24" s="1"/>
       <c r="BP24" s="1"/>
@@ -5764,64 +6056,64 @@
     </row>
     <row r="25" spans="1:69">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2">
         <v>2023</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="H25" s="2">
         <v>4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
@@ -5830,76 +6122,76 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI25" s="2">
         <v>4</v>
       </c>
       <c r="AJ25" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK25" s="2">
         <v>6</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM25" s="2">
         <v>2</v>
       </c>
       <c r="AN25" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="AU25" s="1"/>
       <c r="AV25" s="1"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1" t="s">
-        <v>344</v>
+        <v>411</v>
       </c>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB25" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
       <c r="BG25" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH25" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI25" s="1"/>
       <c r="BJ25" s="2">
@@ -5907,13 +6199,13 @@
       </c>
       <c r="BK25" s="1"/>
       <c r="BL25" s="1" t="s">
-        <v>346</v>
+        <v>413</v>
       </c>
       <c r="BM25" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN25" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO25" s="1"/>
       <c r="BP25" s="1"/>
@@ -5921,140 +6213,144 @@
     </row>
     <row r="26" spans="1:69">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2">
         <v>2023</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H26" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="O26" s="1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="S26" s="1" t="s">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
+      <c r="AA26" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1" t="s">
-        <v>258</v>
-      </c>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI26" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK26" s="2">
         <v>6</v>
       </c>
-      <c r="AJ26" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK26" s="2">
-        <v>0</v>
-      </c>
       <c r="AL26" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM26" s="2">
         <v>2</v>
       </c>
       <c r="AN26" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS26" s="1" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="AU26" s="1"/>
       <c r="AV26" s="1"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB26" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
       <c r="BG26" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH26" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI26" s="1"/>
       <c r="BJ26" s="2">
@@ -6062,13 +6358,13 @@
       </c>
       <c r="BK26" s="1"/>
       <c r="BL26" s="1" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="BM26" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN26" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO26" s="1"/>
       <c r="BP26" s="1"/>
@@ -6076,142 +6372,144 @@
     </row>
     <row r="27" spans="1:69">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C27" s="2">
         <v>2023</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="H27" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
+      <c r="AA27" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI27" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AK27" s="2">
         <v>6</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM27" s="2">
         <v>2</v>
       </c>
       <c r="AN27" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS27" s="1" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB27" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
       <c r="BG27" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BH27" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BI27" s="1"/>
       <c r="BJ27" s="2">
@@ -6219,13 +6517,13 @@
       </c>
       <c r="BK27" s="1"/>
       <c r="BL27" s="1" t="s">
-        <v>346</v>
+        <v>413</v>
       </c>
       <c r="BM27" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN27" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO27" s="1"/>
       <c r="BP27" s="1"/>
@@ -6233,136 +6531,140 @@
     </row>
     <row r="28" spans="1:69">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C28" s="2">
         <v>2023</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="P28" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="S28" s="1" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AI28" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ28" s="1" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="AK28" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="AM28" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AN28" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="AP28" s="1" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="AQ28" s="1" t="s">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS28" s="1" t="s">
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>325</v>
+        <v>402</v>
       </c>
       <c r="AU28" s="1"/>
       <c r="AV28" s="1"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1" t="s">
-        <v>344</v>
+        <v>411</v>
       </c>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB28" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
       <c r="BG28" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="BH28" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="BI28" s="1"/>
       <c r="BJ28" s="2">
@@ -6370,13 +6672,13 @@
       </c>
       <c r="BK28" s="1"/>
       <c r="BL28" s="1" t="s">
-        <v>346</v>
+        <v>413</v>
       </c>
       <c r="BM28" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN28" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO28" s="1"/>
       <c r="BP28" s="1"/>
@@ -6384,130 +6686,144 @@
     </row>
     <row r="29" spans="1:69">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C29" s="2">
         <v>2023</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="H29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="M29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="P29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
+        <v>210</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="S29" s="1" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
+      <c r="AA29" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AI29" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ29" s="1" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="AK29" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL29" s="1" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="AM29" s="2">
         <v>2</v>
       </c>
       <c r="AN29" s="1" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="AP29" s="1" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="AQ29" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS29" s="1" t="s">
-        <v>316</v>
+        <v>369</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>343</v>
+        <v>403</v>
       </c>
       <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB29" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
       <c r="BG29" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="BH29" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="BI29" s="1"/>
       <c r="BJ29" s="2">
@@ -6515,13 +6831,13 @@
       </c>
       <c r="BK29" s="1"/>
       <c r="BL29" s="1" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="BM29" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN29" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO29" s="1"/>
       <c r="BP29" s="1"/>
@@ -6529,142 +6845,142 @@
     </row>
     <row r="30" spans="1:69">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C30" s="2">
         <v>2023</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="H30" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>166</v>
+        <v>237</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
-      <c r="AA30" s="1" t="s">
-        <v>231</v>
-      </c>
+      <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
+      <c r="AC30" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI30" s="2">
         <v>2</v>
       </c>
       <c r="AJ30" s="1" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="AK30" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AM30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN30" s="1" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>272</v>
+        <v>333</v>
       </c>
       <c r="AP30" s="1" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="AQ30" s="1" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AS30" s="1" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>330</v>
+        <v>404</v>
       </c>
       <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1" t="s">
-        <v>345</v>
+        <v>410</v>
       </c>
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BB30" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
       <c r="BF30" s="1"/>
       <c r="BG30" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="BH30" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="BI30" s="1"/>
       <c r="BJ30" s="2">
@@ -6672,17 +6988,1088 @@
       </c>
       <c r="BK30" s="1"/>
       <c r="BL30" s="1" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="BM30" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="BN30" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="BO30" s="1"/>
       <c r="BP30" s="1"/>
       <c r="BQ30" s="1"/>
+    </row>
+    <row r="31" spans="1:69">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="2">
+        <v>4</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>6</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="BM31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN31" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+    </row>
+    <row r="32" spans="1:69">
+      <c r="A32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="2">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>6</v>
+      </c>
+      <c r="AJ32" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN32" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO32" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AP32" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR32" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AS32" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AT32" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="BM32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN32" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="1"/>
+    </row>
+    <row r="33" spans="1:69">
+      <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="2">
+        <v>4</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ33" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK33" s="2">
+        <v>6</v>
+      </c>
+      <c r="AL33" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM33" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN33" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO33" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP33" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ33" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR33" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AS33" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AT33" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="BM33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN33" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+    </row>
+    <row r="34" spans="1:69">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM34" s="2">
+        <v>12</v>
+      </c>
+      <c r="AN34" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO34" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AP34" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AQ34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR34" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AS34" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT34" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="BM34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN34" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+    </row>
+    <row r="35" spans="1:69">
+      <c r="A35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM35" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN35" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AO35" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AP35" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AQ35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR35" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AS35" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AT35" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="BM35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN35" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+    </row>
+    <row r="36" spans="1:69">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="2">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI36" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ36" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK36" s="2">
+        <v>25</v>
+      </c>
+      <c r="AL36" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM36" s="2">
+        <v>3</v>
+      </c>
+      <c r="AN36" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO36" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AP36" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ36" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR36" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AS36" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT36" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="BM36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN36" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+    </row>
+    <row r="37" spans="1:69">
+      <c r="A37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AO37" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AP37" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AQ37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR37" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AS37" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK37" s="1"/>
+      <c r="BL37" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="BM37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN37" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
